--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="2482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="2486">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -7460,6 +7460,18 @@
   </si>
   <si>
     <t>to knock over; to defeat</t>
+  </si>
+  <si>
+    <t>ေနသားက်သည္</t>
+  </si>
+  <si>
+    <t>ေနသားက်ေအာင္လုပ္သည္</t>
+  </si>
+  <si>
+    <t>ျမည္သည္</t>
+  </si>
+  <si>
+    <t>ျမည္ေအာင္လုပ္သည္</t>
   </si>
 </sst>
 </file>
@@ -7810,8 +7822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="B223" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11057,7 +11069,9 @@
       <c r="D232" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E232" s="1"/>
+      <c r="E232" s="1" t="s">
+        <v>2484</v>
+      </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -11071,7 +11085,9 @@
       <c r="D233" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E233" s="1"/>
+      <c r="E233" s="1" t="s">
+        <v>2485</v>
+      </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -14805,7 +14821,9 @@
       <c r="D503" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="E503" s="1"/>
+      <c r="E503" s="1" t="s">
+        <v>2482</v>
+      </c>
       <c r="F503" s="1"/>
     </row>
     <row r="504" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -14819,7 +14837,9 @@
       <c r="D504" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="E504" s="1"/>
+      <c r="E504" s="1" t="s">
+        <v>2483</v>
+      </c>
       <c r="F504" s="1"/>
     </row>
     <row r="505" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data History" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="2486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="2499">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -7472,13 +7473,52 @@
   </si>
   <si>
     <t>ျမည္ေအာင္လုပ္သည္</t>
+  </si>
+  <si>
+    <t>ျပန္႔ႀကဲေနေသာ</t>
+  </si>
+  <si>
+    <t>စုတ္ၿပဲေနေသာ</t>
+  </si>
+  <si>
+    <t>အလြန္အမင္း</t>
+  </si>
+  <si>
+    <t>ေတာ္ေတာ္ေလး</t>
+  </si>
+  <si>
+    <t>(ေတြးထားတာနဲ႔ ႏိႈင္းယွဥ္ၿပီးေျပာတာ)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Zaw Tun Latt</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Part 40 : Myanmar Definition (#Zawgyi) added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7492,16 +7532,30 @@
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -7509,13 +7563,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7820,10 +7897,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K7:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43368</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B223" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+    <sheetView topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7837,7 +8026,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>2497</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>2441</v>
       </c>
@@ -16543,7 +16734,9 @@
       <c r="D628" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="E628" s="1"/>
+      <c r="E628" s="1" t="s">
+        <v>2486</v>
+      </c>
       <c r="F628" s="1"/>
     </row>
     <row r="629" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -16557,7 +16750,9 @@
       <c r="D629" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="E629" s="1"/>
+      <c r="E629" s="1" t="s">
+        <v>2487</v>
+      </c>
       <c r="F629" s="1"/>
     </row>
     <row r="630" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -16571,7 +16766,9 @@
       <c r="D630" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="E630" s="1"/>
+      <c r="E630" s="1" t="s">
+        <v>2488</v>
+      </c>
       <c r="F630" s="1"/>
     </row>
     <row r="631" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -16627,7 +16824,9 @@
       <c r="D634" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="E634" s="1"/>
+      <c r="E634" s="1" t="s">
+        <v>2489</v>
+      </c>
       <c r="F634" s="1"/>
     </row>
     <row r="635" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -16641,7 +16840,9 @@
       <c r="D635" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="E635" s="1"/>
+      <c r="E635" s="1" t="s">
+        <v>2489</v>
+      </c>
       <c r="F635" s="1"/>
     </row>
     <row r="636" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -16655,7 +16856,9 @@
       <c r="D636" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="E636" s="1"/>
+      <c r="E636" s="1" t="s">
+        <v>2490</v>
+      </c>
       <c r="F636" s="1"/>
     </row>
     <row r="637" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data History" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="2500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="2502">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -7515,6 +7515,12 @@
   </si>
   <si>
     <t>ひょうじょう</t>
+  </si>
+  <si>
+    <t>Part 59 : Missing hiragana is corrected</t>
+  </si>
+  <si>
+    <t>それとも</t>
   </si>
 </sst>
 </file>
@@ -7903,17 +7909,17 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>2490</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -7941,7 +7947,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -7969,43 +7975,51 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43374</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8021,21 +8035,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
-      <selection activeCell="E698" sqref="E698"/>
+    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
+      <selection activeCell="C945" sqref="C945"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>2496</v>
       </c>
@@ -8055,7 +8069,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8065,7 +8079,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -8079,7 +8093,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -8093,7 +8107,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -8107,7 +8121,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -8121,7 +8135,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -8135,7 +8149,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -8149,7 +8163,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -8163,7 +8177,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -8177,7 +8191,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -8191,7 +8205,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -8205,7 +8219,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -8219,7 +8233,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>41</v>
@@ -8233,7 +8247,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -8247,7 +8261,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -8261,7 +8275,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -8275,7 +8289,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -8285,7 +8299,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>75</v>
@@ -8299,7 +8313,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>76</v>
@@ -8313,7 +8327,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>77</v>
@@ -8327,7 +8341,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>78</v>
@@ -8341,7 +8355,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>79</v>
@@ -8355,7 +8369,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>80</v>
@@ -8369,7 +8383,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>81</v>
@@ -8383,7 +8397,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>82</v>
@@ -8397,7 +8411,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>83</v>
@@ -8411,7 +8425,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>84</v>
@@ -8425,7 +8439,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>85</v>
@@ -8439,7 +8453,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>86</v>
@@ -8453,7 +8467,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>87</v>
@@ -8467,7 +8481,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>88</v>
@@ -8481,7 +8495,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>89</v>
@@ -8495,7 +8509,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -8505,7 +8519,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>120</v>
@@ -8519,7 +8533,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>121</v>
@@ -8533,7 +8547,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>122</v>
@@ -8547,7 +8561,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>123</v>
@@ -8561,7 +8575,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>124</v>
@@ -8575,7 +8589,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -8589,7 +8603,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>126</v>
@@ -8603,7 +8617,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>127</v>
@@ -8617,7 +8631,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>128</v>
@@ -8631,7 +8645,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>129</v>
@@ -8645,7 +8659,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>130</v>
@@ -8659,7 +8673,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>131</v>
@@ -8673,7 +8687,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>132</v>
@@ -8687,7 +8701,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>133</v>
@@ -8701,7 +8715,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>134</v>
@@ -8715,7 +8729,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -8725,7 +8739,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>165</v>
@@ -8739,7 +8753,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>166</v>
@@ -8753,7 +8767,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>167</v>
@@ -8767,7 +8781,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>168</v>
@@ -8781,7 +8795,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
@@ -8795,7 +8809,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>170</v>
@@ -8809,7 +8823,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
@@ -8823,7 +8837,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>172</v>
@@ -8837,7 +8851,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>173</v>
@@ -8851,7 +8865,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>174</v>
@@ -8865,7 +8879,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>175</v>
@@ -8879,7 +8893,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>176</v>
@@ -8893,7 +8907,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>177</v>
@@ -8907,7 +8921,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>178</v>
@@ -8921,7 +8935,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>179</v>
@@ -8935,7 +8949,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -8945,7 +8959,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>210</v>
@@ -8959,7 +8973,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>183</v>
@@ -8973,7 +8987,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>211</v>
@@ -8987,7 +9001,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>212</v>
@@ -9001,7 +9015,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>213</v>
@@ -9015,7 +9029,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>214</v>
@@ -9029,7 +9043,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>215</v>
@@ -9043,7 +9057,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>216</v>
@@ -9057,7 +9071,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>217</v>
@@ -9071,7 +9085,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>218</v>
@@ -9085,7 +9099,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>219</v>
@@ -9099,7 +9113,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>220</v>
@@ -9113,7 +9127,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>221</v>
@@ -9127,7 +9141,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>222</v>
@@ -9141,7 +9155,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>223</v>
@@ -9155,7 +9169,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>6</v>
       </c>
@@ -9165,7 +9179,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>254</v>
@@ -9179,7 +9193,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>255</v>
@@ -9193,7 +9207,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>256</v>
@@ -9207,7 +9221,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>257</v>
@@ -9221,7 +9235,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>258</v>
@@ -9235,7 +9249,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>259</v>
@@ -9249,7 +9263,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>260</v>
@@ -9263,7 +9277,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>261</v>
@@ -9277,7 +9291,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>262</v>
@@ -9291,7 +9305,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>263</v>
@@ -9305,7 +9319,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>264</v>
@@ -9319,7 +9333,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>265</v>
@@ -9333,7 +9347,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>266</v>
@@ -9347,7 +9361,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>267</v>
@@ -9361,7 +9375,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>268</v>
@@ -9375,7 +9389,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>7</v>
       </c>
@@ -9385,7 +9399,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>299</v>
@@ -9399,7 +9413,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>300</v>
@@ -9413,7 +9427,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>301</v>
@@ -9427,7 +9441,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>302</v>
@@ -9441,7 +9455,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>303</v>
@@ -9455,7 +9469,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>304</v>
@@ -9469,7 +9483,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>305</v>
@@ -9483,7 +9497,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>306</v>
@@ -9497,7 +9511,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>307</v>
@@ -9511,7 +9525,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>308</v>
@@ -9525,7 +9539,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>309</v>
@@ -9539,7 +9553,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>310</v>
@@ -9553,7 +9567,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>311</v>
@@ -9567,7 +9581,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>312</v>
@@ -9581,7 +9595,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>313</v>
@@ -9595,7 +9609,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -9605,7 +9619,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>344</v>
@@ -9619,7 +9633,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>345</v>
@@ -9633,7 +9647,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>346</v>
@@ -9647,7 +9661,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>347</v>
@@ -9661,7 +9675,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>348</v>
@@ -9675,7 +9689,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>349</v>
@@ -9689,7 +9703,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>350</v>
@@ -9703,7 +9717,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>351</v>
@@ -9719,7 +9733,7 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>352</v>
@@ -9735,7 +9749,7 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>353</v>
@@ -9749,7 +9763,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>354</v>
@@ -9763,7 +9777,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>355</v>
@@ -9777,7 +9791,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>356</v>
@@ -9791,7 +9805,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>357</v>
@@ -9807,7 +9821,7 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>358</v>
@@ -9821,7 +9835,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A130" s="1">
         <v>9</v>
       </c>
@@ -9831,7 +9845,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>388</v>
@@ -9847,7 +9861,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>389</v>
@@ -9863,7 +9877,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>390</v>
@@ -9879,7 +9893,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>391</v>
@@ -9895,7 +9909,7 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>368</v>
@@ -9911,7 +9925,7 @@
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>392</v>
@@ -9927,7 +9941,7 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>393</v>
@@ -9943,7 +9957,7 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>394</v>
@@ -9959,7 +9973,7 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>395</v>
@@ -9975,7 +9989,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>396</v>
@@ -9991,7 +10005,7 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>397</v>
@@ -10007,7 +10021,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>398</v>
@@ -10023,7 +10037,7 @@
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>399</v>
@@ -10039,7 +10053,7 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>400</v>
@@ -10055,7 +10069,7 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>401</v>
@@ -10071,7 +10085,7 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A146" s="1">
         <v>10</v>
       </c>
@@ -10081,7 +10095,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>431</v>
@@ -10095,7 +10109,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>432</v>
@@ -10109,7 +10123,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>433</v>
@@ -10125,7 +10139,7 @@
       </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>434</v>
@@ -10141,7 +10155,7 @@
       </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>435</v>
@@ -10155,7 +10169,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>412</v>
@@ -10171,7 +10185,7 @@
       </c>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>436</v>
@@ -10185,7 +10199,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>437</v>
@@ -10199,7 +10213,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>438</v>
@@ -10213,7 +10227,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>439</v>
@@ -10227,7 +10241,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>440</v>
@@ -10241,7 +10255,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>441</v>
@@ -10255,7 +10269,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>442</v>
@@ -10271,7 +10285,7 @@
       </c>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>443</v>
@@ -10285,7 +10299,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>444</v>
@@ -10299,7 +10313,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A162" s="1">
         <v>11</v>
       </c>
@@ -10309,7 +10323,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>473</v>
@@ -10323,7 +10337,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>474</v>
@@ -10337,7 +10351,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>475</v>
@@ -10351,7 +10365,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>476</v>
@@ -10365,7 +10379,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>477</v>
@@ -10379,7 +10393,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>478</v>
@@ -10393,7 +10407,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>479</v>
@@ -10407,7 +10421,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>480</v>
@@ -10421,7 +10435,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>481</v>
@@ -10435,7 +10449,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>482</v>
@@ -10449,7 +10463,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>483</v>
@@ -10463,7 +10477,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>484</v>
@@ -10477,7 +10491,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>485</v>
@@ -10491,7 +10505,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>486</v>
@@ -10505,7 +10519,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>487</v>
@@ -10519,7 +10533,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A178" s="1">
         <v>12</v>
       </c>
@@ -10529,7 +10543,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>517</v>
@@ -10543,7 +10557,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>518</v>
@@ -10557,7 +10571,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>519</v>
@@ -10571,7 +10585,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>520</v>
@@ -10585,7 +10599,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>521</v>
@@ -10599,7 +10613,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>522</v>
@@ -10613,7 +10627,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>523</v>
@@ -10627,7 +10641,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>524</v>
@@ -10641,7 +10655,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>525</v>
@@ -10655,7 +10669,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>526</v>
@@ -10669,7 +10683,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>527</v>
@@ -10683,7 +10697,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
         <v>528</v>
@@ -10697,7 +10711,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>529</v>
@@ -10711,7 +10725,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>530</v>
@@ -10725,7 +10739,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>531</v>
@@ -10739,7 +10753,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A194" s="1">
         <v>13</v>
       </c>
@@ -10749,7 +10763,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>560</v>
@@ -10763,7 +10777,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>561</v>
@@ -10777,7 +10791,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>562</v>
@@ -10791,7 +10805,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>563</v>
@@ -10805,7 +10819,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>541</v>
@@ -10819,7 +10833,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>564</v>
@@ -10833,7 +10847,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>545</v>
@@ -10847,7 +10861,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>547</v>
@@ -10861,7 +10875,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>565</v>
@@ -10875,7 +10889,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>566</v>
@@ -10889,7 +10903,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>567</v>
@@ -10903,7 +10917,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>568</v>
@@ -10917,7 +10931,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>569</v>
@@ -10931,7 +10945,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>570</v>
@@ -10945,7 +10959,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>571</v>
@@ -10959,7 +10973,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A210" s="1">
         <v>14</v>
       </c>
@@ -10969,7 +10983,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>602</v>
@@ -10983,7 +10997,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>603</v>
@@ -10997,7 +11011,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>604</v>
@@ -11011,7 +11025,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>605</v>
@@ -11025,7 +11039,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>606</v>
@@ -11039,7 +11053,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>607</v>
@@ -11053,7 +11067,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>608</v>
@@ -11067,7 +11081,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>609</v>
@@ -11081,7 +11095,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
         <v>610</v>
@@ -11095,7 +11109,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>611</v>
@@ -11109,7 +11123,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>612</v>
@@ -11123,7 +11137,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>613</v>
@@ -11137,7 +11151,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
         <v>614</v>
@@ -11151,7 +11165,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>615</v>
@@ -11165,7 +11179,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>616</v>
@@ -11179,7 +11193,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A226" s="1">
         <v>15</v>
       </c>
@@ -11189,7 +11203,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>647</v>
@@ -11203,7 +11217,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>648</v>
@@ -11217,7 +11231,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>649</v>
@@ -11231,7 +11245,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>650</v>
@@ -11245,7 +11259,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>651</v>
@@ -11259,7 +11273,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
         <v>652</v>
@@ -11275,7 +11289,7 @@
       </c>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>653</v>
@@ -11291,7 +11305,7 @@
       </c>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>654</v>
@@ -11305,7 +11319,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>655</v>
@@ -11319,7 +11333,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>656</v>
@@ -11333,7 +11347,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>657</v>
@@ -11347,7 +11361,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
         <v>658</v>
@@ -11361,7 +11375,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>659</v>
@@ -11375,7 +11389,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>660</v>
@@ -11389,7 +11403,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
         <v>661</v>
@@ -11403,7 +11417,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A242" s="1">
         <v>16</v>
       </c>
@@ -11413,7 +11427,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>691</v>
@@ -11427,7 +11441,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>692</v>
@@ -11441,7 +11455,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>693</v>
@@ -11455,7 +11469,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>694</v>
@@ -11469,7 +11483,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>695</v>
@@ -11483,7 +11497,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>696</v>
@@ -11497,7 +11511,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>697</v>
@@ -11511,7 +11525,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>698</v>
@@ -11525,7 +11539,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>699</v>
@@ -11539,7 +11553,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>700</v>
@@ -11553,7 +11567,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>701</v>
@@ -11567,7 +11581,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>702</v>
@@ -11581,7 +11595,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>703</v>
@@ -11595,7 +11609,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>704</v>
@@ -11609,7 +11623,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>705</v>
@@ -11623,7 +11637,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A258" s="1">
         <v>17</v>
       </c>
@@ -11633,7 +11647,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>735</v>
@@ -11647,7 +11661,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>736</v>
@@ -11661,7 +11675,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>737</v>
@@ -11675,7 +11689,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>738</v>
@@ -11689,7 +11703,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>739</v>
@@ -11703,7 +11717,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>740</v>
@@ -11717,7 +11731,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>741</v>
@@ -11731,7 +11745,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
         <v>742</v>
@@ -11745,7 +11759,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>743</v>
@@ -11759,7 +11773,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
         <v>744</v>
@@ -11773,7 +11787,7 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
         <v>745</v>
@@ -11789,7 +11803,7 @@
       </c>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
         <v>746</v>
@@ -11803,7 +11817,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>747</v>
@@ -11817,7 +11831,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>748</v>
@@ -11831,7 +11845,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>749</v>
@@ -11845,7 +11859,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A274" s="1">
         <v>18</v>
       </c>
@@ -11855,7 +11869,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>780</v>
@@ -11869,7 +11883,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A276" s="1"/>
       <c r="B276" s="1" t="s">
         <v>781</v>
@@ -11883,7 +11897,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>755</v>
@@ -11897,7 +11911,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>782</v>
@@ -11911,7 +11925,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>783</v>
@@ -11925,7 +11939,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>784</v>
@@ -11939,7 +11953,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>785</v>
@@ -11953,7 +11967,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
         <v>786</v>
@@ -11967,7 +11981,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
         <v>787</v>
@@ -11981,7 +11995,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>788</v>
@@ -11995,7 +12009,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>789</v>
@@ -12009,7 +12023,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>790</v>
@@ -12023,7 +12037,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
         <v>775</v>
@@ -12037,7 +12051,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
         <v>791</v>
@@ -12051,7 +12065,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
         <v>792</v>
@@ -12065,7 +12079,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A290" s="1">
         <v>19</v>
       </c>
@@ -12075,7 +12089,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A291" s="1"/>
       <c r="B291" s="1" t="s">
         <v>823</v>
@@ -12089,7 +12103,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A292" s="1"/>
       <c r="B292" s="1" t="s">
         <v>824</v>
@@ -12103,7 +12117,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>798</v>
@@ -12117,7 +12131,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="s">
         <v>800</v>
@@ -12131,7 +12145,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="s">
         <v>825</v>
@@ -12145,7 +12159,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="s">
         <v>826</v>
@@ -12159,7 +12173,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
         <v>827</v>
@@ -12173,7 +12187,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>828</v>
@@ -12187,7 +12201,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>829</v>
@@ -12201,7 +12215,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>830</v>
@@ -12215,7 +12229,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>831</v>
@@ -12229,7 +12243,7 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
         <v>832</v>
@@ -12243,7 +12257,7 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
         <v>833</v>
@@ -12257,7 +12271,7 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>834</v>
@@ -12271,7 +12285,7 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
         <v>835</v>
@@ -12285,7 +12299,7 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A306" s="1">
         <v>20</v>
       </c>
@@ -12295,7 +12309,7 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
         <v>866</v>
@@ -12309,7 +12323,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>867</v>
@@ -12323,7 +12337,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
         <v>868</v>
@@ -12337,7 +12351,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>869</v>
@@ -12351,7 +12365,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>870</v>
@@ -12365,7 +12379,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>847</v>
@@ -12379,7 +12393,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="s">
         <v>871</v>
@@ -12393,7 +12407,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>872</v>
@@ -12407,7 +12421,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
         <v>853</v>
@@ -12421,7 +12435,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>855</v>
@@ -12435,7 +12449,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>873</v>
@@ -12449,7 +12463,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>874</v>
@@ -12463,7 +12477,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>875</v>
@@ -12477,7 +12491,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>876</v>
@@ -12491,7 +12505,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>877</v>
@@ -12505,7 +12519,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A322" s="1">
         <v>21</v>
       </c>
@@ -12515,7 +12529,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
         <v>908</v>
@@ -12529,7 +12543,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>909</v>
@@ -12543,7 +12557,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>910</v>
@@ -12557,7 +12571,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>911</v>
@@ -12571,7 +12585,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
         <v>912</v>
@@ -12585,7 +12599,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>913</v>
@@ -12599,7 +12613,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="s">
         <v>914</v>
@@ -12613,7 +12627,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>915</v>
@@ -12627,7 +12641,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>916</v>
@@ -12641,7 +12655,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>917</v>
@@ -12655,7 +12669,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
         <v>918</v>
@@ -12669,7 +12683,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
         <v>919</v>
@@ -12683,7 +12697,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>920</v>
@@ -12697,7 +12711,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>921</v>
@@ -12711,7 +12725,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>922</v>
@@ -12725,7 +12739,7 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A338" s="1">
         <v>22</v>
       </c>
@@ -12735,7 +12749,7 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
         <v>953</v>
@@ -12749,7 +12763,7 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>954</v>
@@ -12763,7 +12777,7 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>928</v>
@@ -12777,7 +12791,7 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
         <v>930</v>
@@ -12791,7 +12805,7 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>955</v>
@@ -12805,7 +12819,7 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
         <v>956</v>
@@ -12819,7 +12833,7 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
         <v>957</v>
@@ -12833,7 +12847,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>958</v>
@@ -12847,7 +12861,7 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>959</v>
@@ -12861,7 +12875,7 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
         <v>960</v>
@@ -12875,7 +12889,7 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>961</v>
@@ -12889,7 +12903,7 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>962</v>
@@ -12903,7 +12917,7 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>963</v>
@@ -12917,7 +12931,7 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>964</v>
@@ -12931,7 +12945,7 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
         <v>965</v>
@@ -12945,7 +12959,7 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A354" s="1">
         <v>23</v>
       </c>
@@ -12955,7 +12969,7 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
         <v>996</v>
@@ -12969,7 +12983,7 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>997</v>
@@ -12983,7 +12997,7 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
         <v>998</v>
@@ -12997,7 +13011,7 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
         <v>973</v>
@@ -13011,7 +13025,7 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
         <v>999</v>
@@ -13025,7 +13039,7 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>1000</v>
@@ -13039,7 +13053,7 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>1001</v>
@@ -13053,7 +13067,7 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
         <v>1002</v>
@@ -13067,7 +13081,7 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
         <v>1003</v>
@@ -13081,7 +13095,7 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
         <v>1004</v>
@@ -13095,7 +13109,7 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
         <v>1005</v>
@@ -13109,7 +13123,7 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
         <v>1006</v>
@@ -13123,7 +13137,7 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
         <v>1007</v>
@@ -13137,7 +13151,7 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
         <v>1008</v>
@@ -13151,7 +13165,7 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
         <v>1009</v>
@@ -13165,7 +13179,7 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A370" s="1">
         <v>24</v>
       </c>
@@ -13175,7 +13189,7 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>1039</v>
@@ -13189,7 +13203,7 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
         <v>1040</v>
@@ -13203,7 +13217,7 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
         <v>1041</v>
@@ -13217,7 +13231,7 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A374" s="1"/>
       <c r="B374" s="1" t="s">
         <v>1042</v>
@@ -13231,7 +13245,7 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>1043</v>
@@ -13245,7 +13259,7 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
         <v>1044</v>
@@ -13259,7 +13273,7 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="s">
         <v>1045</v>
@@ -13273,7 +13287,7 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
         <v>2435</v>
@@ -13287,7 +13301,7 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A379" s="1"/>
       <c r="B379" s="1" t="s">
         <v>1046</v>
@@ -13301,7 +13315,7 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
         <v>1047</v>
@@ -13315,7 +13329,7 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
         <v>1048</v>
@@ -13329,7 +13343,7 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A382" s="1"/>
       <c r="B382" s="1" t="s">
         <v>1049</v>
@@ -13343,7 +13357,7 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A383" s="1"/>
       <c r="B383" s="1" t="s">
         <v>1050</v>
@@ -13357,7 +13371,7 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
         <v>2434</v>
@@ -13371,7 +13385,7 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
         <v>1051</v>
@@ -13385,7 +13399,7 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A386" s="1">
         <v>25</v>
       </c>
@@ -13395,7 +13409,7 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
         <v>1081</v>
@@ -13409,7 +13423,7 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
         <v>1082</v>
@@ -13423,7 +13437,7 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
         <v>1083</v>
@@ -13437,7 +13451,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="s">
         <v>1084</v>
@@ -13451,7 +13465,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
         <v>1085</v>
@@ -13465,7 +13479,7 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
         <v>1086</v>
@@ -13479,7 +13493,7 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="s">
         <v>1087</v>
@@ -13493,7 +13507,7 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
         <v>1088</v>
@@ -13507,7 +13521,7 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A395" s="1"/>
       <c r="B395" s="1" t="s">
         <v>1089</v>
@@ -13521,7 +13535,7 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A396" s="1"/>
       <c r="B396" s="1" t="s">
         <v>1090</v>
@@ -13535,7 +13549,7 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A397" s="1"/>
       <c r="B397" s="1" t="s">
         <v>1091</v>
@@ -13549,7 +13563,7 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
         <v>1092</v>
@@ -13563,7 +13577,7 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
         <v>1093</v>
@@ -13577,7 +13591,7 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
         <v>2433</v>
@@ -13591,7 +13605,7 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A401" s="1"/>
       <c r="B401" s="1" t="s">
         <v>1094</v>
@@ -13605,7 +13619,7 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A402" s="1">
         <v>26</v>
       </c>
@@ -13615,7 +13629,7 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A403" s="1"/>
       <c r="B403" s="1" t="s">
         <v>1125</v>
@@ -13629,7 +13643,7 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A404" s="1"/>
       <c r="B404" s="1" t="s">
         <v>1126</v>
@@ -13643,7 +13657,7 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A405" s="1"/>
       <c r="B405" s="1" t="s">
         <v>1127</v>
@@ -13657,7 +13671,7 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A406" s="1"/>
       <c r="B406" s="1" t="s">
         <v>1128</v>
@@ -13671,7 +13685,7 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A407" s="1"/>
       <c r="B407" s="1" t="s">
         <v>1129</v>
@@ -13685,7 +13699,7 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A408" s="1"/>
       <c r="B408" s="1" t="s">
         <v>1130</v>
@@ -13699,7 +13713,7 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
         <v>1131</v>
@@ -13713,7 +13727,7 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A410" s="1"/>
       <c r="B410" s="1" t="s">
         <v>1132</v>
@@ -13727,7 +13741,7 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
     </row>
-    <row r="411" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A411" s="1"/>
       <c r="B411" s="1" t="s">
         <v>1133</v>
@@ -13741,7 +13755,7 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
         <v>1134</v>
@@ -13755,7 +13769,7 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A413" s="1"/>
       <c r="B413" s="1" t="s">
         <v>1116</v>
@@ -13769,7 +13783,7 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A414" s="1"/>
       <c r="B414" s="1" t="s">
         <v>1118</v>
@@ -13783,7 +13797,7 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
         <v>1135</v>
@@ -13797,7 +13811,7 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A416" s="1"/>
       <c r="B416" s="1" t="s">
         <v>1136</v>
@@ -13811,7 +13825,7 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
         <v>1137</v>
@@ -13825,7 +13839,7 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A418" s="1">
         <v>27</v>
       </c>
@@ -13835,7 +13849,7 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A419" s="1"/>
       <c r="B419" s="1" t="s">
         <v>1167</v>
@@ -13849,7 +13863,7 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A420" s="1"/>
       <c r="B420" s="1" t="s">
         <v>1168</v>
@@ -13863,7 +13877,7 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A421" s="1"/>
       <c r="B421" s="1" t="s">
         <v>1169</v>
@@ -13877,7 +13891,7 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
     </row>
-    <row r="422" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A422" s="1"/>
       <c r="B422" s="1" t="s">
         <v>1170</v>
@@ -13891,7 +13905,7 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
     </row>
-    <row r="423" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
         <v>1171</v>
@@ -13905,7 +13919,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
         <v>1172</v>
@@ -13919,7 +13933,7 @@
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
     </row>
-    <row r="425" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
         <v>1173</v>
@@ -13933,7 +13947,7 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
     </row>
-    <row r="426" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
         <v>1174</v>
@@ -13947,7 +13961,7 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A427" s="1"/>
       <c r="B427" s="1" t="s">
         <v>1175</v>
@@ -13961,7 +13975,7 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
-    <row r="428" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
         <v>1176</v>
@@ -13975,7 +13989,7 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
     </row>
-    <row r="429" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A429" s="1"/>
       <c r="B429" s="1" t="s">
         <v>1177</v>
@@ -13989,7 +14003,7 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
         <v>1178</v>
@@ -14003,7 +14017,7 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
         <v>1179</v>
@@ -14017,7 +14031,7 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A432" s="1"/>
       <c r="B432" s="1" t="s">
         <v>1180</v>
@@ -14031,7 +14045,7 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
         <v>1181</v>
@@ -14045,7 +14059,7 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A434" s="1">
         <v>28</v>
       </c>
@@ -14055,7 +14069,7 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A435" s="1"/>
       <c r="B435" s="1" t="s">
         <v>1212</v>
@@ -14069,7 +14083,7 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A436" s="1"/>
       <c r="B436" s="1" t="s">
         <v>1213</v>
@@ -14083,7 +14097,7 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
         <v>1214</v>
@@ -14097,7 +14111,7 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A438" s="1"/>
       <c r="B438" s="1" t="s">
         <v>1215</v>
@@ -14111,7 +14125,7 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
         <v>1216</v>
@@ -14125,7 +14139,7 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
         <v>1217</v>
@@ -14139,7 +14153,7 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
         <v>1218</v>
@@ -14153,7 +14167,7 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A442" s="1"/>
       <c r="B442" s="1" t="s">
         <v>1197</v>
@@ -14167,7 +14181,7 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="s">
         <v>1219</v>
@@ -14181,7 +14195,7 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="s">
         <v>1220</v>
@@ -14195,7 +14209,7 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
         <v>1221</v>
@@ -14209,7 +14223,7 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A446" s="1"/>
       <c r="B446" s="1" t="s">
         <v>1222</v>
@@ -14223,7 +14237,7 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A447" s="1"/>
       <c r="B447" s="1" t="s">
         <v>1223</v>
@@ -14237,7 +14251,7 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
         <v>1224</v>
@@ -14251,7 +14265,7 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
         <v>1225</v>
@@ -14265,7 +14279,7 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A450" s="1">
         <v>29</v>
       </c>
@@ -14275,7 +14289,7 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
         <v>1255</v>
@@ -14289,7 +14303,7 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="s">
         <v>1256</v>
@@ -14303,7 +14317,7 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="s">
         <v>1257</v>
@@ -14317,7 +14331,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="s">
         <v>1258</v>
@@ -14331,7 +14345,7 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="s">
         <v>1259</v>
@@ -14345,7 +14359,7 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="s">
         <v>1260</v>
@@ -14359,7 +14373,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A457" s="1"/>
       <c r="B457" s="1" t="s">
         <v>1261</v>
@@ -14373,7 +14387,7 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A458" s="1"/>
       <c r="B458" s="1" t="s">
         <v>1262</v>
@@ -14387,7 +14401,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A459" s="1"/>
       <c r="B459" s="1" t="s">
         <v>1263</v>
@@ -14401,7 +14415,7 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A460" s="1"/>
       <c r="B460" s="1" t="s">
         <v>1264</v>
@@ -14415,7 +14429,7 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
         <v>1265</v>
@@ -14429,7 +14443,7 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
         <v>1266</v>
@@ -14443,7 +14457,7 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
         <v>1267</v>
@@ -14457,7 +14471,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A464" s="1"/>
       <c r="B464" s="1" t="s">
         <v>1268</v>
@@ -14471,7 +14485,7 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A465" s="1"/>
       <c r="B465" s="1" t="s">
         <v>1269</v>
@@ -14485,7 +14499,7 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A466" s="1">
         <v>30</v>
       </c>
@@ -14495,7 +14509,7 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A467" s="1"/>
       <c r="B467" s="1" t="s">
         <v>1298</v>
@@ -14509,7 +14523,7 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
     </row>
-    <row r="468" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A468" s="1"/>
       <c r="B468" s="1" t="s">
         <v>1299</v>
@@ -14523,7 +14537,7 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
     </row>
-    <row r="469" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
         <v>1300</v>
@@ -14537,7 +14551,7 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
     </row>
-    <row r="470" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A470" s="1"/>
       <c r="B470" s="1" t="s">
         <v>1301</v>
@@ -14553,7 +14567,7 @@
       </c>
       <c r="F470" s="1"/>
     </row>
-    <row r="471" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
         <v>2437</v>
@@ -14567,7 +14581,7 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
     </row>
-    <row r="472" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A472" s="1"/>
       <c r="B472" s="1" t="s">
         <v>1302</v>
@@ -14581,7 +14595,7 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
         <v>1303</v>
@@ -14597,7 +14611,7 @@
       </c>
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
         <v>1283</v>
@@ -14613,7 +14627,7 @@
       </c>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A475" s="1"/>
       <c r="B475" s="1" t="s">
         <v>1304</v>
@@ -14629,7 +14643,7 @@
       </c>
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A476" s="1"/>
       <c r="B476" s="1" t="s">
         <v>1305</v>
@@ -14645,7 +14659,7 @@
       </c>
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A477" s="1"/>
       <c r="B477" s="1" t="s">
         <v>1306</v>
@@ -14661,7 +14675,7 @@
       </c>
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A478" s="1"/>
       <c r="B478" s="1" t="s">
         <v>1307</v>
@@ -14675,7 +14689,7 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
         <v>1308</v>
@@ -14691,7 +14705,7 @@
       </c>
       <c r="F479" s="1"/>
     </row>
-    <row r="480" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A480" s="1"/>
       <c r="B480" s="1" t="s">
         <v>1309</v>
@@ -14707,7 +14721,7 @@
       </c>
       <c r="F480" s="1"/>
     </row>
-    <row r="481" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A481" s="1"/>
       <c r="B481" s="1" t="s">
         <v>1310</v>
@@ -14723,7 +14737,7 @@
       </c>
       <c r="F481" s="1"/>
     </row>
-    <row r="482" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A482" s="1">
         <v>31</v>
       </c>
@@ -14733,7 +14747,7 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A483" s="1"/>
       <c r="B483" s="1" t="s">
         <v>1341</v>
@@ -14749,7 +14763,7 @@
       </c>
       <c r="F483" s="1"/>
     </row>
-    <row r="484" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A484" s="1"/>
       <c r="B484" s="1" t="s">
         <v>1342</v>
@@ -14763,7 +14777,7 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
     </row>
-    <row r="485" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A485" s="1"/>
       <c r="B485" s="1" t="s">
         <v>1343</v>
@@ -14777,7 +14791,7 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
     </row>
-    <row r="486" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
         <v>1344</v>
@@ -14791,7 +14805,7 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
     </row>
-    <row r="487" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
         <v>611</v>
@@ -14805,7 +14819,7 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
     </row>
-    <row r="488" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
         <v>1345</v>
@@ -14819,7 +14833,7 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A489" s="1"/>
       <c r="B489" s="1" t="s">
         <v>1346</v>
@@ -14833,7 +14847,7 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
     </row>
-    <row r="490" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A490" s="1"/>
       <c r="B490" s="1" t="s">
         <v>1347</v>
@@ -14847,7 +14861,7 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
     </row>
-    <row r="491" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A491" s="1"/>
       <c r="B491" s="1" t="s">
         <v>1348</v>
@@ -14861,7 +14875,7 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
     </row>
-    <row r="492" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A492" s="1"/>
       <c r="B492" s="1" t="s">
         <v>1330</v>
@@ -14875,7 +14889,7 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
     </row>
-    <row r="493" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A493" s="1"/>
       <c r="B493" s="1" t="s">
         <v>1349</v>
@@ -14889,7 +14903,7 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
     </row>
-    <row r="494" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A494" s="1"/>
       <c r="B494" s="1" t="s">
         <v>1350</v>
@@ -14903,7 +14917,7 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
     </row>
-    <row r="495" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A495" s="1"/>
       <c r="B495" s="1" t="s">
         <v>1351</v>
@@ -14917,7 +14931,7 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A496" s="1"/>
       <c r="B496" s="1" t="s">
         <v>1352</v>
@@ -14931,7 +14945,7 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A497" s="1"/>
       <c r="B497" s="1" t="s">
         <v>1353</v>
@@ -14945,7 +14959,7 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A498" s="1">
         <v>32</v>
       </c>
@@ -14955,7 +14969,7 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A499" s="1"/>
       <c r="B499" s="1" t="s">
         <v>1380</v>
@@ -14969,7 +14983,7 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A500" s="1"/>
       <c r="B500" s="1" t="s">
         <v>1381</v>
@@ -14983,7 +14997,7 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A501" s="1"/>
       <c r="B501" s="1" t="s">
         <v>1382</v>
@@ -14997,7 +15011,7 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A502" s="1"/>
       <c r="B502" s="1" t="s">
         <v>1383</v>
@@ -15011,7 +15025,7 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
     </row>
-    <row r="503" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A503" s="1"/>
       <c r="B503" s="1" t="s">
         <v>1384</v>
@@ -15027,7 +15041,7 @@
       </c>
       <c r="F503" s="1"/>
     </row>
-    <row r="504" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A504" s="1"/>
       <c r="B504" s="1" t="s">
         <v>1385</v>
@@ -15043,7 +15057,7 @@
       </c>
       <c r="F504" s="1"/>
     </row>
-    <row r="505" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A505" s="1"/>
       <c r="B505" s="1" t="s">
         <v>1386</v>
@@ -15057,7 +15071,7 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
     </row>
-    <row r="506" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A506" s="1"/>
       <c r="B506" s="1" t="s">
         <v>1387</v>
@@ -15071,7 +15085,7 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
     </row>
-    <row r="507" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="s">
         <v>1388</v>
@@ -15085,7 +15099,7 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
     </row>
-    <row r="508" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A508" s="1"/>
       <c r="B508" s="1" t="s">
         <v>1389</v>
@@ -15099,7 +15113,7 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
     </row>
-    <row r="509" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="s">
         <v>1390</v>
@@ -15113,7 +15127,7 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
     </row>
-    <row r="510" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
         <v>1391</v>
@@ -15127,7 +15141,7 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
     </row>
-    <row r="511" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A511" s="1"/>
       <c r="B511" s="1" t="s">
         <v>1392</v>
@@ -15141,7 +15155,7 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
     </row>
-    <row r="512" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A512" s="1"/>
       <c r="B512" s="1" t="s">
         <v>1393</v>
@@ -15155,7 +15169,7 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
     </row>
-    <row r="513" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A513" s="1"/>
       <c r="B513" s="1" t="s">
         <v>1394</v>
@@ -15169,7 +15183,7 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
     </row>
-    <row r="514" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A514" s="1">
         <v>33</v>
       </c>
@@ -15179,7 +15193,7 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
     </row>
-    <row r="515" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A515" s="1"/>
       <c r="B515" s="1" t="s">
         <v>1425</v>
@@ -15193,7 +15207,7 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
     </row>
-    <row r="516" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A516" s="1"/>
       <c r="B516" s="1" t="s">
         <v>1426</v>
@@ -15207,7 +15221,7 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
     </row>
-    <row r="517" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A517" s="1"/>
       <c r="B517" s="1" t="s">
         <v>1427</v>
@@ -15221,7 +15235,7 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
     </row>
-    <row r="518" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A518" s="1"/>
       <c r="B518" s="1" t="s">
         <v>1428</v>
@@ -15235,7 +15249,7 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
     </row>
-    <row r="519" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A519" s="1"/>
       <c r="B519" s="1" t="s">
         <v>1429</v>
@@ -15249,7 +15263,7 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
     </row>
-    <row r="520" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A520" s="1"/>
       <c r="B520" s="1" t="s">
         <v>1430</v>
@@ -15263,7 +15277,7 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
     </row>
-    <row r="521" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A521" s="1"/>
       <c r="B521" s="1" t="s">
         <v>1431</v>
@@ -15277,7 +15291,7 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
     </row>
-    <row r="522" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A522" s="1"/>
       <c r="B522" s="1" t="s">
         <v>1432</v>
@@ -15291,7 +15305,7 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
     </row>
-    <row r="523" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A523" s="1"/>
       <c r="B523" s="1" t="s">
         <v>1433</v>
@@ -15305,7 +15319,7 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
     </row>
-    <row r="524" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A524" s="1"/>
       <c r="B524" s="1" t="s">
         <v>1434</v>
@@ -15319,7 +15333,7 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
     </row>
-    <row r="525" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A525" s="1"/>
       <c r="B525" s="1" t="s">
         <v>1435</v>
@@ -15333,7 +15347,7 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
     </row>
-    <row r="526" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A526" s="1"/>
       <c r="B526" s="1" t="s">
         <v>1436</v>
@@ -15347,7 +15361,7 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
     </row>
-    <row r="527" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A527" s="1"/>
       <c r="B527" s="1" t="s">
         <v>1437</v>
@@ -15361,7 +15375,7 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A528" s="1"/>
       <c r="B528" s="1" t="s">
         <v>1438</v>
@@ -15375,7 +15389,7 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
     </row>
-    <row r="529" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A529" s="1"/>
       <c r="B529" s="1" t="s">
         <v>1439</v>
@@ -15389,7 +15403,7 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
     </row>
-    <row r="530" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A530" s="1">
         <v>34</v>
       </c>
@@ -15399,7 +15413,7 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
     </row>
-    <row r="531" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A531" s="1"/>
       <c r="B531" s="1" t="s">
         <v>1468</v>
@@ -15413,7 +15427,7 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A532" s="1"/>
       <c r="B532" s="1" t="s">
         <v>1469</v>
@@ -15427,7 +15441,7 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
     </row>
-    <row r="533" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A533" s="1"/>
       <c r="B533" s="1" t="s">
         <v>1470</v>
@@ -15441,7 +15455,7 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
     </row>
-    <row r="534" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A534" s="1"/>
       <c r="B534" s="1" t="s">
         <v>1471</v>
@@ -15455,7 +15469,7 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
     </row>
-    <row r="535" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A535" s="1"/>
       <c r="B535" s="1" t="s">
         <v>1472</v>
@@ -15469,7 +15483,7 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
     </row>
-    <row r="536" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A536" s="1"/>
       <c r="B536" s="1" t="s">
         <v>1473</v>
@@ -15483,7 +15497,7 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
     </row>
-    <row r="537" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A537" s="1"/>
       <c r="B537" s="1" t="s">
         <v>1474</v>
@@ -15497,7 +15511,7 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
     </row>
-    <row r="538" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A538" s="1"/>
       <c r="B538" s="1" t="s">
         <v>1475</v>
@@ -15511,7 +15525,7 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
     </row>
-    <row r="539" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A539" s="1"/>
       <c r="B539" s="1" t="s">
         <v>1476</v>
@@ -15525,7 +15539,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
     </row>
-    <row r="540" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A540" s="1"/>
       <c r="B540" s="1" t="s">
         <v>1477</v>
@@ -15539,7 +15553,7 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
     </row>
-    <row r="541" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A541" s="1"/>
       <c r="B541" s="1" t="s">
         <v>1478</v>
@@ -15553,7 +15567,7 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
     </row>
-    <row r="542" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A542" s="1"/>
       <c r="B542" s="1" t="s">
         <v>1479</v>
@@ -15567,7 +15581,7 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
     </row>
-    <row r="543" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A543" s="1"/>
       <c r="B543" s="1" t="s">
         <v>1480</v>
@@ -15581,7 +15595,7 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
     </row>
-    <row r="544" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A544" s="1"/>
       <c r="B544" s="1" t="s">
         <v>1466</v>
@@ -15595,7 +15609,7 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
     </row>
-    <row r="545" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
         <v>1467</v>
@@ -15609,7 +15623,7 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
     </row>
-    <row r="546" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A546" s="1">
         <v>35</v>
       </c>
@@ -15619,7 +15633,7 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
     </row>
-    <row r="547" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A547" s="1"/>
       <c r="B547" s="1" t="s">
         <v>1482</v>
@@ -15633,7 +15647,7 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
     </row>
-    <row r="548" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A548" s="1"/>
       <c r="B548" s="1" t="s">
         <v>1484</v>
@@ -15647,7 +15661,7 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
     </row>
-    <row r="549" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A549" s="1"/>
       <c r="B549" s="1" t="s">
         <v>1486</v>
@@ -15661,7 +15675,7 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
     </row>
-    <row r="550" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A550" s="1"/>
       <c r="B550" s="1" t="s">
         <v>1488</v>
@@ -15675,7 +15689,7 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
     </row>
-    <row r="551" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A551" s="1"/>
       <c r="B551" s="1" t="s">
         <v>1490</v>
@@ -15689,7 +15703,7 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
     </row>
-    <row r="552" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A552" s="1"/>
       <c r="B552" s="1" t="s">
         <v>1492</v>
@@ -15703,7 +15717,7 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
     </row>
-    <row r="553" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A553" s="1"/>
       <c r="B553" s="1" t="s">
         <v>1494</v>
@@ -15717,7 +15731,7 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
     </row>
-    <row r="554" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A554" s="1"/>
       <c r="B554" s="1" t="s">
         <v>1496</v>
@@ -15731,7 +15745,7 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
     </row>
-    <row r="555" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A555" s="1"/>
       <c r="B555" s="1" t="s">
         <v>1498</v>
@@ -15745,7 +15759,7 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
     </row>
-    <row r="556" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A556" s="1"/>
       <c r="B556" s="1" t="s">
         <v>1500</v>
@@ -15759,7 +15773,7 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
     </row>
-    <row r="557" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A557" s="1"/>
       <c r="B557" s="1" t="s">
         <v>1502</v>
@@ -15773,7 +15787,7 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
     </row>
-    <row r="558" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A558" s="1"/>
       <c r="B558" s="1" t="s">
         <v>1504</v>
@@ -15787,7 +15801,7 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
     </row>
-    <row r="559" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A559" s="1"/>
       <c r="B559" s="1" t="s">
         <v>1506</v>
@@ -15801,7 +15815,7 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
     </row>
-    <row r="560" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A560" s="1"/>
       <c r="B560" s="1" t="s">
         <v>1508</v>
@@ -15815,7 +15829,7 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
     </row>
-    <row r="561" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A561" s="1"/>
       <c r="B561" s="1" t="s">
         <v>1510</v>
@@ -15829,7 +15843,7 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
     </row>
-    <row r="562" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A562" s="1">
         <v>36</v>
       </c>
@@ -15839,7 +15853,7 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
     </row>
-    <row r="563" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A563" s="1"/>
       <c r="B563" s="1" t="s">
         <v>1512</v>
@@ -15853,7 +15867,7 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
     </row>
-    <row r="564" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A564" s="1"/>
       <c r="B564" s="1" t="s">
         <v>1514</v>
@@ -15867,7 +15881,7 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
     </row>
-    <row r="565" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A565" s="1"/>
       <c r="B565" s="1" t="s">
         <v>1516</v>
@@ -15881,7 +15895,7 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
     </row>
-    <row r="566" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A566" s="1"/>
       <c r="B566" s="1" t="s">
         <v>1518</v>
@@ -15895,7 +15909,7 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
     </row>
-    <row r="567" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A567" s="1"/>
       <c r="B567" s="1" t="s">
         <v>1520</v>
@@ -15909,7 +15923,7 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
     </row>
-    <row r="568" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A568" s="1"/>
       <c r="B568" s="1" t="s">
         <v>1522</v>
@@ -15923,7 +15937,7 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
     </row>
-    <row r="569" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A569" s="1"/>
       <c r="B569" s="1" t="s">
         <v>1524</v>
@@ -15937,7 +15951,7 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
     </row>
-    <row r="570" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A570" s="1"/>
       <c r="B570" s="1" t="s">
         <v>1526</v>
@@ -15951,7 +15965,7 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
     </row>
-    <row r="571" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A571" s="1"/>
       <c r="B571" s="1" t="s">
         <v>1528</v>
@@ -15965,7 +15979,7 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
     </row>
-    <row r="572" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="s">
         <v>1530</v>
@@ -15979,7 +15993,7 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
     </row>
-    <row r="573" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="s">
         <v>1532</v>
@@ -15993,7 +16007,7 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
     </row>
-    <row r="574" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="s">
         <v>1534</v>
@@ -16007,7 +16021,7 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
     </row>
-    <row r="575" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A575" s="1"/>
       <c r="B575" s="1" t="s">
         <v>1536</v>
@@ -16021,7 +16035,7 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
     </row>
-    <row r="576" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A576" s="1"/>
       <c r="B576" s="1" t="s">
         <v>1538</v>
@@ -16035,7 +16049,7 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
     </row>
-    <row r="577" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A577" s="1"/>
       <c r="B577" s="1" t="s">
         <v>1540</v>
@@ -16049,7 +16063,7 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
     </row>
-    <row r="578" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A578" s="1">
         <v>37</v>
       </c>
@@ -16059,7 +16073,7 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
     </row>
-    <row r="579" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A579" s="1"/>
       <c r="B579" s="1" t="s">
         <v>1542</v>
@@ -16073,7 +16087,7 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
     </row>
-    <row r="580" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A580" s="1"/>
       <c r="B580" s="1" t="s">
         <v>1543</v>
@@ -16087,7 +16101,7 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
     </row>
-    <row r="581" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A581" s="1"/>
       <c r="B581" s="1" t="s">
         <v>1545</v>
@@ -16101,7 +16115,7 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
     </row>
-    <row r="582" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="s">
         <v>1547</v>
@@ -16115,7 +16129,7 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
     </row>
-    <row r="583" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A583" s="1"/>
       <c r="B583" s="1" t="s">
         <v>1548</v>
@@ -16129,7 +16143,7 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
     </row>
-    <row r="584" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A584" s="1"/>
       <c r="B584" s="1" t="s">
         <v>1550</v>
@@ -16143,7 +16157,7 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
     </row>
-    <row r="585" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A585" s="1"/>
       <c r="B585" s="1" t="s">
         <v>1552</v>
@@ -16157,7 +16171,7 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
     </row>
-    <row r="586" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A586" s="1"/>
       <c r="B586" s="1" t="s">
         <v>1554</v>
@@ -16171,7 +16185,7 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
     </row>
-    <row r="587" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
         <v>1569</v>
@@ -16185,7 +16199,7 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
     </row>
-    <row r="588" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A588" s="1"/>
       <c r="B588" s="1" t="s">
         <v>1570</v>
@@ -16199,7 +16213,7 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
     </row>
-    <row r="589" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A589" s="1"/>
       <c r="B589" s="1" t="s">
         <v>1571</v>
@@ -16213,7 +16227,7 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
     </row>
-    <row r="590" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A590" s="1"/>
       <c r="B590" s="1" t="s">
         <v>1572</v>
@@ -16227,7 +16241,7 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
     </row>
-    <row r="591" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A591" s="1"/>
       <c r="B591" s="1" t="s">
         <v>1573</v>
@@ -16241,7 +16255,7 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
     </row>
-    <row r="592" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A592" s="1"/>
       <c r="B592" s="1" t="s">
         <v>1566</v>
@@ -16255,7 +16269,7 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
     </row>
-    <row r="593" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A593" s="1"/>
       <c r="B593" s="1" t="s">
         <v>1568</v>
@@ -16269,7 +16283,7 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
     </row>
-    <row r="594" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A594" s="1">
         <v>38</v>
       </c>
@@ -16279,7 +16293,7 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
     </row>
-    <row r="595" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A595" s="1"/>
       <c r="B595" s="1" t="s">
         <v>1604</v>
@@ -16293,7 +16307,7 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
     </row>
-    <row r="596" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A596" s="1"/>
       <c r="B596" s="1" t="s">
         <v>1605</v>
@@ -16307,7 +16321,7 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
     </row>
-    <row r="597" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A597" s="1"/>
       <c r="B597" s="1" t="s">
         <v>1606</v>
@@ -16321,7 +16335,7 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
     </row>
-    <row r="598" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A598" s="1"/>
       <c r="B598" s="1" t="s">
         <v>1607</v>
@@ -16335,7 +16349,7 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
     </row>
-    <row r="599" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A599" s="1"/>
       <c r="B599" s="1" t="s">
         <v>1608</v>
@@ -16349,7 +16363,7 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
     </row>
-    <row r="600" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A600" s="1"/>
       <c r="B600" s="1" t="s">
         <v>1585</v>
@@ -16363,7 +16377,7 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
     </row>
-    <row r="601" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A601" s="1"/>
       <c r="B601" s="1" t="s">
         <v>1609</v>
@@ -16377,7 +16391,7 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
     </row>
-    <row r="602" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A602" s="1"/>
       <c r="B602" s="1" t="s">
         <v>1610</v>
@@ -16391,7 +16405,7 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
     </row>
-    <row r="603" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A603" s="1"/>
       <c r="B603" s="1" t="s">
         <v>1611</v>
@@ -16405,7 +16419,7 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
     </row>
-    <row r="604" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A604" s="1"/>
       <c r="B604" s="1" t="s">
         <v>1612</v>
@@ -16419,7 +16433,7 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
     </row>
-    <row r="605" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A605" s="1"/>
       <c r="B605" s="1" t="s">
         <v>1613</v>
@@ -16433,7 +16447,7 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
     </row>
-    <row r="606" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A606" s="1"/>
       <c r="B606" s="1" t="s">
         <v>1614</v>
@@ -16447,7 +16461,7 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
     </row>
-    <row r="607" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A607" s="1"/>
       <c r="B607" s="1" t="s">
         <v>1615</v>
@@ -16461,7 +16475,7 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
     </row>
-    <row r="608" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A608" s="1"/>
       <c r="B608" s="1" t="s">
         <v>1616</v>
@@ -16475,7 +16489,7 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
     </row>
-    <row r="609" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>1617</v>
@@ -16489,7 +16503,7 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
     </row>
-    <row r="610" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A610" s="1">
         <v>39</v>
       </c>
@@ -16499,7 +16513,7 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
     </row>
-    <row r="611" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A611" s="1"/>
       <c r="B611" s="1" t="s">
         <v>1648</v>
@@ -16513,7 +16527,7 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
     </row>
-    <row r="612" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A612" s="1"/>
       <c r="B612" s="1" t="s">
         <v>1621</v>
@@ -16527,7 +16541,7 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
     </row>
-    <row r="613" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A613" s="1"/>
       <c r="B613" s="1" t="s">
         <v>1649</v>
@@ -16541,7 +16555,7 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
     </row>
-    <row r="614" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A614" s="1"/>
       <c r="B614" s="1" t="s">
         <v>1650</v>
@@ -16555,7 +16569,7 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
     </row>
-    <row r="615" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A615" s="1"/>
       <c r="B615" s="1" t="s">
         <v>1651</v>
@@ -16569,7 +16583,7 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
     </row>
-    <row r="616" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A616" s="1"/>
       <c r="B616" s="1" t="s">
         <v>1629</v>
@@ -16583,7 +16597,7 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
     </row>
-    <row r="617" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A617" s="1"/>
       <c r="B617" s="1" t="s">
         <v>1652</v>
@@ -16597,7 +16611,7 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
     </row>
-    <row r="618" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A618" s="1"/>
       <c r="B618" s="1" t="s">
         <v>1653</v>
@@ -16611,7 +16625,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A619" s="1"/>
       <c r="B619" s="1" t="s">
         <v>1654</v>
@@ -16625,7 +16639,7 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
     </row>
-    <row r="620" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A620" s="1"/>
       <c r="B620" s="1" t="s">
         <v>1655</v>
@@ -16639,7 +16653,7 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
     </row>
-    <row r="621" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A621" s="1"/>
       <c r="B621" s="1" t="s">
         <v>1656</v>
@@ -16653,7 +16667,7 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
     </row>
-    <row r="622" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A622" s="1"/>
       <c r="B622" s="1" t="s">
         <v>1657</v>
@@ -16667,7 +16681,7 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
     </row>
-    <row r="623" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
         <v>1658</v>
@@ -16681,7 +16695,7 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
     </row>
-    <row r="624" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A624" s="1"/>
       <c r="B624" s="1" t="s">
         <v>1659</v>
@@ -16695,7 +16709,7 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
     </row>
-    <row r="625" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A625" s="1"/>
       <c r="B625" s="1" t="s">
         <v>1660</v>
@@ -16709,7 +16723,7 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
     </row>
-    <row r="626" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A626" s="1">
         <v>40</v>
       </c>
@@ -16719,7 +16733,7 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
     </row>
-    <row r="627" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
         <v>1690</v>
@@ -16733,7 +16747,7 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
     </row>
-    <row r="628" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
         <v>1664</v>
@@ -16749,7 +16763,7 @@
       </c>
       <c r="F628" s="1"/>
     </row>
-    <row r="629" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A629" s="1"/>
       <c r="B629" s="1" t="s">
         <v>1666</v>
@@ -16765,7 +16779,7 @@
       </c>
       <c r="F629" s="1"/>
     </row>
-    <row r="630" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>1691</v>
@@ -16781,7 +16795,7 @@
       </c>
       <c r="F630" s="1"/>
     </row>
-    <row r="631" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A631" s="1"/>
       <c r="B631" s="1" t="s">
         <v>1692</v>
@@ -16795,7 +16809,7 @@
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
     </row>
-    <row r="632" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
         <v>1693</v>
@@ -16809,7 +16823,7 @@
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
     </row>
-    <row r="633" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A633" s="1"/>
       <c r="B633" s="1" t="s">
         <v>1694</v>
@@ -16823,7 +16837,7 @@
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
     </row>
-    <row r="634" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
         <v>1695</v>
@@ -16839,7 +16853,7 @@
       </c>
       <c r="F634" s="1"/>
     </row>
-    <row r="635" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A635" s="1"/>
       <c r="B635" s="1" t="s">
         <v>1677</v>
@@ -16855,7 +16869,7 @@
       </c>
       <c r="F635" s="1"/>
     </row>
-    <row r="636" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="s">
         <v>1679</v>
@@ -16871,7 +16885,7 @@
       </c>
       <c r="F636" s="1"/>
     </row>
-    <row r="637" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A637" s="1"/>
       <c r="B637" s="1" t="s">
         <v>1696</v>
@@ -16885,7 +16899,7 @@
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
     </row>
-    <row r="638" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A638" s="1"/>
       <c r="B638" s="1" t="s">
         <v>1683</v>
@@ -16899,7 +16913,7 @@
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
     </row>
-    <row r="639" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A639" s="1"/>
       <c r="B639" s="1" t="s">
         <v>1685</v>
@@ -16913,7 +16927,7 @@
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
     </row>
-    <row r="640" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A640" s="1"/>
       <c r="B640" s="1" t="s">
         <v>1697</v>
@@ -16927,7 +16941,7 @@
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
     </row>
-    <row r="641" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A641" s="1"/>
       <c r="B641" s="1" t="s">
         <v>1689</v>
@@ -16941,7 +16955,7 @@
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
     </row>
-    <row r="642" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A642" s="1">
         <v>41</v>
       </c>
@@ -16951,7 +16965,7 @@
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
     </row>
-    <row r="643" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="s">
         <v>1728</v>
@@ -16965,7 +16979,7 @@
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
     </row>
-    <row r="644" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A644" s="1"/>
       <c r="B644" s="1" t="s">
         <v>1729</v>
@@ -16979,7 +16993,7 @@
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
     </row>
-    <row r="645" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="s">
         <v>1730</v>
@@ -16993,7 +17007,7 @@
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
     </row>
-    <row r="646" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>1731</v>
@@ -17007,7 +17021,7 @@
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
     </row>
-    <row r="647" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A647" s="1"/>
       <c r="B647" s="1" t="s">
         <v>1707</v>
@@ -17021,7 +17035,7 @@
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
     </row>
-    <row r="648" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A648" s="1"/>
       <c r="B648" s="1" t="s">
         <v>1709</v>
@@ -17035,7 +17049,7 @@
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
     </row>
-    <row r="649" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A649" s="1"/>
       <c r="B649" s="1" t="s">
         <v>1711</v>
@@ -17049,7 +17063,7 @@
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
     </row>
-    <row r="650" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A650" s="1"/>
       <c r="B650" s="1" t="s">
         <v>1732</v>
@@ -17063,7 +17077,7 @@
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
     </row>
-    <row r="651" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A651" s="1"/>
       <c r="B651" s="1" t="s">
         <v>1733</v>
@@ -17077,7 +17091,7 @@
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
     </row>
-    <row r="652" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A652" s="1"/>
       <c r="B652" s="1" t="s">
         <v>1734</v>
@@ -17091,7 +17105,7 @@
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
     </row>
-    <row r="653" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A653" s="1"/>
       <c r="B653" s="1" t="s">
         <v>1719</v>
@@ -17105,7 +17119,7 @@
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
     </row>
-    <row r="654" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A654" s="1"/>
       <c r="B654" s="1" t="s">
         <v>1735</v>
@@ -17119,7 +17133,7 @@
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
     </row>
-    <row r="655" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A655" s="1"/>
       <c r="B655" s="1" t="s">
         <v>1736</v>
@@ -17133,7 +17147,7 @@
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
     </row>
-    <row r="656" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A656" s="1"/>
       <c r="B656" s="1" t="s">
         <v>1725</v>
@@ -17147,7 +17161,7 @@
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
     </row>
-    <row r="657" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A657" s="1"/>
       <c r="B657" s="1" t="s">
         <v>1737</v>
@@ -17161,7 +17175,7 @@
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
     </row>
-    <row r="658" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A658" s="1">
         <v>42</v>
       </c>
@@ -17171,7 +17185,7 @@
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
     </row>
-    <row r="659" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A659" s="1"/>
       <c r="B659" s="1" t="s">
         <v>1739</v>
@@ -17185,7 +17199,7 @@
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
     </row>
-    <row r="660" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>1741</v>
@@ -17199,7 +17213,7 @@
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
     </row>
-    <row r="661" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A661" s="1"/>
       <c r="B661" s="1" t="s">
         <v>1743</v>
@@ -17213,7 +17227,7 @@
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
     </row>
-    <row r="662" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>1768</v>
@@ -17227,7 +17241,7 @@
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
     </row>
-    <row r="663" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A663" s="1"/>
       <c r="B663" s="1" t="s">
         <v>1747</v>
@@ -17241,7 +17255,7 @@
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
     </row>
-    <row r="664" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A664" s="1"/>
       <c r="B664" s="1" t="s">
         <v>1769</v>
@@ -17255,7 +17269,7 @@
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
     </row>
-    <row r="665" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A665" s="1"/>
       <c r="B665" s="1" t="s">
         <v>1770</v>
@@ -17269,7 +17283,7 @@
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
     </row>
-    <row r="666" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A666" s="1"/>
       <c r="B666" s="1" t="s">
         <v>1771</v>
@@ -17283,7 +17297,7 @@
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
     </row>
-    <row r="667" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>1772</v>
@@ -17297,7 +17311,7 @@
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
     </row>
-    <row r="668" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A668" s="1"/>
       <c r="B668" s="1" t="s">
         <v>1757</v>
@@ -17311,7 +17325,7 @@
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
     </row>
-    <row r="669" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A669" s="1"/>
       <c r="B669" s="1" t="s">
         <v>1759</v>
@@ -17325,7 +17339,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
     </row>
-    <row r="670" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>1761</v>
@@ -17339,7 +17353,7 @@
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
     </row>
-    <row r="671" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A671" s="1"/>
       <c r="B671" s="1" t="s">
         <v>1763</v>
@@ -17353,7 +17367,7 @@
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
     </row>
-    <row r="672" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>1773</v>
@@ -17367,7 +17381,7 @@
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
     </row>
-    <row r="673" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A673" s="1"/>
       <c r="B673" s="1" t="s">
         <v>1767</v>
@@ -17381,7 +17395,7 @@
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
     </row>
-    <row r="674" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A674" s="1">
         <v>43</v>
       </c>
@@ -17391,7 +17405,7 @@
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
     </row>
-    <row r="675" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A675" s="1"/>
       <c r="B675" s="1" t="s">
         <v>1775</v>
@@ -17405,7 +17419,7 @@
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
     </row>
-    <row r="676" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A676" s="1"/>
       <c r="B676" s="1" t="s">
         <v>1777</v>
@@ -17419,7 +17433,7 @@
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
     </row>
-    <row r="677" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A677" s="1"/>
       <c r="B677" s="1" t="s">
         <v>1804</v>
@@ -17433,7 +17447,7 @@
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
     </row>
-    <row r="678" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A678" s="1"/>
       <c r="B678" s="1" t="s">
         <v>1805</v>
@@ -17447,7 +17461,7 @@
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
     </row>
-    <row r="679" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A679" s="1"/>
       <c r="B679" s="1" t="s">
         <v>1806</v>
@@ -17461,7 +17475,7 @@
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
     </row>
-    <row r="680" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A680" s="1"/>
       <c r="B680" s="1" t="s">
         <v>1807</v>
@@ -17475,7 +17489,7 @@
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
     </row>
-    <row r="681" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
         <v>1808</v>
@@ -17489,7 +17503,7 @@
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
     </row>
-    <row r="682" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A682" s="1"/>
       <c r="B682" s="1" t="s">
         <v>1809</v>
@@ -17503,7 +17517,7 @@
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
     </row>
-    <row r="683" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A683" s="1"/>
       <c r="B683" s="1" t="s">
         <v>1810</v>
@@ -17517,7 +17531,7 @@
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
     </row>
-    <row r="684" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A684" s="1"/>
       <c r="B684" s="1" t="s">
         <v>1811</v>
@@ -17531,7 +17545,7 @@
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
     </row>
-    <row r="685" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A685" s="1"/>
       <c r="B685" s="1" t="s">
         <v>1812</v>
@@ -17545,7 +17559,7 @@
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
     </row>
-    <row r="686" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A686" s="1"/>
       <c r="B686" s="1" t="s">
         <v>1813</v>
@@ -17559,7 +17573,7 @@
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
     </row>
-    <row r="687" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A687" s="1"/>
       <c r="B687" s="1" t="s">
         <v>1814</v>
@@ -17573,7 +17587,7 @@
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
     </row>
-    <row r="688" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A688" s="1"/>
       <c r="B688" s="1" t="s">
         <v>1815</v>
@@ -17587,7 +17601,7 @@
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
     </row>
-    <row r="689" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
         <v>1816</v>
@@ -17601,7 +17615,7 @@
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
     </row>
-    <row r="690" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A690" s="1">
         <v>44</v>
       </c>
@@ -17611,7 +17625,7 @@
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
     </row>
-    <row r="691" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A691" s="1"/>
       <c r="B691" s="1" t="s">
         <v>1846</v>
@@ -17625,7 +17639,7 @@
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
     </row>
-    <row r="692" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A692" s="1"/>
       <c r="B692" s="1" t="s">
         <v>1847</v>
@@ -17639,7 +17653,7 @@
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
     </row>
-    <row r="693" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A693" s="1"/>
       <c r="B693" s="1" t="s">
         <v>1848</v>
@@ -17653,7 +17667,7 @@
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
     </row>
-    <row r="694" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A694" s="1"/>
       <c r="B694" s="1" t="s">
         <v>1849</v>
@@ -17667,7 +17681,7 @@
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
     </row>
-    <row r="695" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A695" s="1"/>
       <c r="B695" s="1" t="s">
         <v>1850</v>
@@ -17681,7 +17695,7 @@
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
     </row>
-    <row r="696" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A696" s="1"/>
       <c r="B696" s="1" t="s">
         <v>1851</v>
@@ -17695,7 +17709,7 @@
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
     </row>
-    <row r="697" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A697" s="1"/>
       <c r="B697" s="1" t="s">
         <v>1852</v>
@@ -17709,7 +17723,7 @@
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
     </row>
-    <row r="698" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="s">
         <v>1853</v>
@@ -17723,7 +17737,7 @@
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
     </row>
-    <row r="699" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A699" s="1"/>
       <c r="B699" s="1" t="s">
         <v>1854</v>
@@ -17737,7 +17751,7 @@
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
     </row>
-    <row r="700" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>1855</v>
@@ -17751,7 +17765,7 @@
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
     </row>
-    <row r="701" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A701" s="1"/>
       <c r="B701" s="1" t="s">
         <v>1856</v>
@@ -17765,7 +17779,7 @@
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
     </row>
-    <row r="702" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A702" s="1"/>
       <c r="B702" s="1" t="s">
         <v>1857</v>
@@ -17779,7 +17793,7 @@
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
     </row>
-    <row r="703" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A703" s="1"/>
       <c r="B703" s="1" t="s">
         <v>1858</v>
@@ -17793,7 +17807,7 @@
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
     </row>
-    <row r="704" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A704" s="1"/>
       <c r="B704" s="1" t="s">
         <v>1859</v>
@@ -17807,7 +17821,7 @@
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
     </row>
-    <row r="705" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A705" s="1"/>
       <c r="B705" s="1" t="s">
         <v>1860</v>
@@ -17821,7 +17835,7 @@
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
     </row>
-    <row r="706" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A706" s="1">
         <v>45</v>
       </c>
@@ -17831,7 +17845,7 @@
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
     </row>
-    <row r="707" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A707" s="1"/>
       <c r="B707" s="1" t="s">
         <v>1891</v>
@@ -17845,7 +17859,7 @@
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
     </row>
-    <row r="708" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A708" s="1"/>
       <c r="B708" s="1" t="s">
         <v>1892</v>
@@ -17859,7 +17873,7 @@
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
     </row>
-    <row r="709" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A709" s="1"/>
       <c r="B709" s="1" t="s">
         <v>1893</v>
@@ -17873,7 +17887,7 @@
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
     </row>
-    <row r="710" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A710" s="1"/>
       <c r="B710" s="1" t="s">
         <v>1894</v>
@@ -17887,7 +17901,7 @@
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
     </row>
-    <row r="711" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A711" s="1"/>
       <c r="B711" s="1" t="s">
         <v>1895</v>
@@ -17901,7 +17915,7 @@
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
     </row>
-    <row r="712" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A712" s="1"/>
       <c r="B712" s="1" t="s">
         <v>1896</v>
@@ -17915,7 +17929,7 @@
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
     </row>
-    <row r="713" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A713" s="1"/>
       <c r="B713" s="1" t="s">
         <v>1897</v>
@@ -17929,7 +17943,7 @@
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
     </row>
-    <row r="714" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A714" s="1"/>
       <c r="B714" s="1" t="s">
         <v>1898</v>
@@ -17943,7 +17957,7 @@
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
     </row>
-    <row r="715" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A715" s="1"/>
       <c r="B715" s="1" t="s">
         <v>1899</v>
@@ -17957,7 +17971,7 @@
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
     </row>
-    <row r="716" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A716" s="1"/>
       <c r="B716" s="1" t="s">
         <v>1900</v>
@@ -17971,7 +17985,7 @@
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
     </row>
-    <row r="717" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A717" s="1"/>
       <c r="B717" s="1" t="s">
         <v>1901</v>
@@ -17985,7 +17999,7 @@
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
     </row>
-    <row r="718" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A718" s="1"/>
       <c r="B718" s="1" t="s">
         <v>1902</v>
@@ -17999,7 +18013,7 @@
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
     </row>
-    <row r="719" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A719" s="1"/>
       <c r="B719" s="1" t="s">
         <v>1903</v>
@@ -18013,7 +18027,7 @@
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
     </row>
-    <row r="720" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A720" s="1"/>
       <c r="B720" s="1" t="s">
         <v>1904</v>
@@ -18027,7 +18041,7 @@
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
     </row>
-    <row r="721" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A721" s="1"/>
       <c r="B721" s="1" t="s">
         <v>1905</v>
@@ -18041,7 +18055,7 @@
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
     </row>
-    <row r="722" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A722" s="1">
         <v>46</v>
       </c>
@@ -18051,7 +18065,7 @@
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
     </row>
-    <row r="723" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A723" s="1"/>
       <c r="B723" s="1" t="s">
         <v>1936</v>
@@ -18065,7 +18079,7 @@
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
     </row>
-    <row r="724" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A724" s="1"/>
       <c r="B724" s="1" t="s">
         <v>1937</v>
@@ -18079,7 +18093,7 @@
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
     </row>
-    <row r="725" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A725" s="1"/>
       <c r="B725" s="1" t="s">
         <v>1938</v>
@@ -18093,7 +18107,7 @@
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
     </row>
-    <row r="726" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A726" s="1"/>
       <c r="B726" s="1" t="s">
         <v>1939</v>
@@ -18107,7 +18121,7 @@
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
     </row>
-    <row r="727" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A727" s="1"/>
       <c r="B727" s="1" t="s">
         <v>1940</v>
@@ -18121,7 +18135,7 @@
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
     </row>
-    <row r="728" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A728" s="1"/>
       <c r="B728" s="1" t="s">
         <v>1941</v>
@@ -18135,7 +18149,7 @@
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
     </row>
-    <row r="729" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A729" s="1"/>
       <c r="B729" s="1" t="s">
         <v>1942</v>
@@ -18149,7 +18163,7 @@
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
     </row>
-    <row r="730" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A730" s="1"/>
       <c r="B730" s="1" t="s">
         <v>1943</v>
@@ -18163,7 +18177,7 @@
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
     </row>
-    <row r="731" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A731" s="1"/>
       <c r="B731" s="1" t="s">
         <v>1944</v>
@@ -18177,7 +18191,7 @@
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
     </row>
-    <row r="732" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A732" s="1"/>
       <c r="B732" s="1" t="s">
         <v>1945</v>
@@ -18191,7 +18205,7 @@
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
     </row>
-    <row r="733" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A733" s="1"/>
       <c r="B733" s="1" t="s">
         <v>1946</v>
@@ -18205,7 +18219,7 @@
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
     </row>
-    <row r="734" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A734" s="1"/>
       <c r="B734" s="1" t="s">
         <v>1947</v>
@@ -18219,7 +18233,7 @@
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
     </row>
-    <row r="735" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A735" s="1"/>
       <c r="B735" s="1" t="s">
         <v>1948</v>
@@ -18233,7 +18247,7 @@
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
     </row>
-    <row r="736" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A736" s="1"/>
       <c r="B736" s="1" t="s">
         <v>1949</v>
@@ -18247,7 +18261,7 @@
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
     </row>
-    <row r="737" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A737" s="1"/>
       <c r="B737" s="1" t="s">
         <v>1950</v>
@@ -18261,7 +18275,7 @@
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
     </row>
-    <row r="738" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A738" s="1">
         <v>47</v>
       </c>
@@ -18271,7 +18285,7 @@
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
     </row>
-    <row r="739" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A739" s="1"/>
       <c r="B739" s="1" t="s">
         <v>1981</v>
@@ -18285,7 +18299,7 @@
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
     </row>
-    <row r="740" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A740" s="1"/>
       <c r="B740" s="1" t="s">
         <v>1982</v>
@@ -18299,7 +18313,7 @@
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
     </row>
-    <row r="741" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A741" s="1"/>
       <c r="B741" s="1" t="s">
         <v>1983</v>
@@ -18313,7 +18327,7 @@
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
     </row>
-    <row r="742" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A742" s="1"/>
       <c r="B742" s="1" t="s">
         <v>1984</v>
@@ -18327,7 +18341,7 @@
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
     </row>
-    <row r="743" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A743" s="1"/>
       <c r="B743" s="1" t="s">
         <v>1985</v>
@@ -18341,7 +18355,7 @@
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
     </row>
-    <row r="744" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A744" s="1"/>
       <c r="B744" s="1" t="s">
         <v>1986</v>
@@ -18355,7 +18369,7 @@
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
     </row>
-    <row r="745" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A745" s="1"/>
       <c r="B745" s="1" t="s">
         <v>1987</v>
@@ -18369,7 +18383,7 @@
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
     </row>
-    <row r="746" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A746" s="1"/>
       <c r="B746" s="1" t="s">
         <v>1988</v>
@@ -18383,7 +18397,7 @@
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
     </row>
-    <row r="747" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A747" s="1"/>
       <c r="B747" s="1" t="s">
         <v>1989</v>
@@ -18397,7 +18411,7 @@
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
     </row>
-    <row r="748" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A748" s="1"/>
       <c r="B748" s="1" t="s">
         <v>1990</v>
@@ -18411,7 +18425,7 @@
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
     </row>
-    <row r="749" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A749" s="1"/>
       <c r="B749" s="1" t="s">
         <v>1991</v>
@@ -18425,7 +18439,7 @@
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
     </row>
-    <row r="750" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A750" s="1"/>
       <c r="B750" s="1" t="s">
         <v>1992</v>
@@ -18439,7 +18453,7 @@
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
     </row>
-    <row r="751" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A751" s="1"/>
       <c r="B751" s="1" t="s">
         <v>1993</v>
@@ -18453,7 +18467,7 @@
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
     </row>
-    <row r="752" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A752" s="1"/>
       <c r="B752" s="1" t="s">
         <v>1994</v>
@@ -18467,7 +18481,7 @@
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
     </row>
-    <row r="753" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A753" s="1"/>
       <c r="B753" s="1" t="s">
         <v>1995</v>
@@ -18481,7 +18495,7 @@
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
     </row>
-    <row r="754" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A754" s="1">
         <v>48</v>
       </c>
@@ -18491,7 +18505,7 @@
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
     </row>
-    <row r="755" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A755" s="1"/>
       <c r="B755" s="1" t="s">
         <v>2025</v>
@@ -18505,7 +18519,7 @@
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
     </row>
-    <row r="756" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A756" s="1"/>
       <c r="B756" s="1" t="s">
         <v>2026</v>
@@ -18519,7 +18533,7 @@
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
     </row>
-    <row r="757" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A757" s="1"/>
       <c r="B757" s="1" t="s">
         <v>2027</v>
@@ -18533,7 +18547,7 @@
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
     </row>
-    <row r="758" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A758" s="1"/>
       <c r="B758" s="1" t="s">
         <v>2028</v>
@@ -18547,7 +18561,7 @@
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
     </row>
-    <row r="759" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A759" s="1"/>
       <c r="B759" s="1" t="s">
         <v>2029</v>
@@ -18561,7 +18575,7 @@
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
     </row>
-    <row r="760" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A760" s="1"/>
       <c r="B760" s="1" t="s">
         <v>2030</v>
@@ -18575,7 +18589,7 @@
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
     </row>
-    <row r="761" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A761" s="1"/>
       <c r="B761" s="1" t="s">
         <v>2031</v>
@@ -18589,7 +18603,7 @@
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
     </row>
-    <row r="762" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A762" s="1"/>
       <c r="B762" s="1" t="s">
         <v>2032</v>
@@ -18603,7 +18617,7 @@
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
     </row>
-    <row r="763" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A763" s="1"/>
       <c r="B763" s="1" t="s">
         <v>2033</v>
@@ -18617,7 +18631,7 @@
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
     </row>
-    <row r="764" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A764" s="1"/>
       <c r="B764" s="1" t="s">
         <v>2034</v>
@@ -18631,7 +18645,7 @@
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
     </row>
-    <row r="765" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A765" s="1"/>
       <c r="B765" s="1" t="s">
         <v>2035</v>
@@ -18645,7 +18659,7 @@
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
     </row>
-    <row r="766" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A766" s="1"/>
       <c r="B766" s="1" t="s">
         <v>2036</v>
@@ -18659,7 +18673,7 @@
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
     </row>
-    <row r="767" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A767" s="1"/>
       <c r="B767" s="1" t="s">
         <v>2037</v>
@@ -18673,7 +18687,7 @@
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
     </row>
-    <row r="768" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A768" s="1"/>
       <c r="B768" s="1" t="s">
         <v>2038</v>
@@ -18687,7 +18701,7 @@
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
     </row>
-    <row r="769" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A769" s="1"/>
       <c r="B769" s="1" t="s">
         <v>2039</v>
@@ -18701,7 +18715,7 @@
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
     </row>
-    <row r="770" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A770" s="1">
         <v>49</v>
       </c>
@@ -18711,7 +18725,7 @@
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
     </row>
-    <row r="771" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A771" s="1"/>
       <c r="B771" s="1" t="s">
         <v>2064</v>
@@ -18725,7 +18739,7 @@
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
     </row>
-    <row r="772" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A772" s="1"/>
       <c r="B772" s="1" t="s">
         <v>2065</v>
@@ -18739,7 +18753,7 @@
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
     </row>
-    <row r="773" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A773" s="1"/>
       <c r="B773" s="1" t="s">
         <v>2066</v>
@@ -18753,7 +18767,7 @@
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
     </row>
-    <row r="774" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A774" s="1"/>
       <c r="B774" s="1" t="s">
         <v>2067</v>
@@ -18767,7 +18781,7 @@
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
     </row>
-    <row r="775" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A775" s="1"/>
       <c r="B775" s="1" t="s">
         <v>2068</v>
@@ -18781,7 +18795,7 @@
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
     </row>
-    <row r="776" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A776" s="1"/>
       <c r="B776" s="1" t="s">
         <v>2069</v>
@@ -18795,7 +18809,7 @@
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
     </row>
-    <row r="777" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A777" s="1"/>
       <c r="B777" s="1" t="s">
         <v>2070</v>
@@ -18809,7 +18823,7 @@
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
     </row>
-    <row r="778" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A778" s="1"/>
       <c r="B778" s="1" t="s">
         <v>2071</v>
@@ -18823,7 +18837,7 @@
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
     </row>
-    <row r="779" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A779" s="1"/>
       <c r="B779" s="1" t="s">
         <v>2072</v>
@@ -18837,7 +18851,7 @@
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
     </row>
-    <row r="780" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A780" s="1"/>
       <c r="B780" s="1" t="s">
         <v>2073</v>
@@ -18851,7 +18865,7 @@
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
     </row>
-    <row r="781" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A781" s="1"/>
       <c r="B781" s="1" t="s">
         <v>2074</v>
@@ -18865,7 +18879,7 @@
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
     </row>
-    <row r="782" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A782" s="1"/>
       <c r="B782" s="1" t="s">
         <v>2075</v>
@@ -18879,7 +18893,7 @@
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
     </row>
-    <row r="783" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A783" s="1"/>
       <c r="B783" s="1" t="s">
         <v>2076</v>
@@ -18893,7 +18907,7 @@
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
     </row>
-    <row r="784" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A784" s="1"/>
       <c r="B784" s="1" t="s">
         <v>2077</v>
@@ -18907,7 +18921,7 @@
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
     </row>
-    <row r="785" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A785" s="1"/>
       <c r="B785" s="1" t="s">
         <v>2078</v>
@@ -18921,7 +18935,7 @@
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
     </row>
-    <row r="786" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A786" s="1">
         <v>50</v>
       </c>
@@ -18931,7 +18945,7 @@
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
     </row>
-    <row r="787" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A787" s="1"/>
       <c r="B787" s="1" t="s">
         <v>2109</v>
@@ -18945,7 +18959,7 @@
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
     </row>
-    <row r="788" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A788" s="1"/>
       <c r="B788" s="1" t="s">
         <v>2110</v>
@@ -18959,7 +18973,7 @@
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
     </row>
-    <row r="789" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A789" s="1"/>
       <c r="B789" s="1" t="s">
         <v>2111</v>
@@ -18973,7 +18987,7 @@
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
     </row>
-    <row r="790" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A790" s="1"/>
       <c r="B790" s="1" t="s">
         <v>2112</v>
@@ -18987,7 +19001,7 @@
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
     </row>
-    <row r="791" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A791" s="1"/>
       <c r="B791" s="1" t="s">
         <v>2113</v>
@@ -19001,7 +19015,7 @@
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
     </row>
-    <row r="792" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A792" s="1"/>
       <c r="B792" s="1" t="s">
         <v>2114</v>
@@ -19015,7 +19029,7 @@
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
     </row>
-    <row r="793" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A793" s="1"/>
       <c r="B793" s="1" t="s">
         <v>2115</v>
@@ -19029,7 +19043,7 @@
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
     </row>
-    <row r="794" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A794" s="1"/>
       <c r="B794" s="1" t="s">
         <v>2116</v>
@@ -19043,7 +19057,7 @@
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
     </row>
-    <row r="795" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A795" s="1"/>
       <c r="B795" s="1" t="s">
         <v>2117</v>
@@ -19057,7 +19071,7 @@
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
     </row>
-    <row r="796" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A796" s="1"/>
       <c r="B796" s="1" t="s">
         <v>2118</v>
@@ -19071,7 +19085,7 @@
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
     </row>
-    <row r="797" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A797" s="1"/>
       <c r="B797" s="1" t="s">
         <v>2119</v>
@@ -19085,7 +19099,7 @@
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
     </row>
-    <row r="798" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A798" s="1"/>
       <c r="B798" s="1" t="s">
         <v>2120</v>
@@ -19099,7 +19113,7 @@
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
     </row>
-    <row r="799" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A799" s="1"/>
       <c r="B799" s="1" t="s">
         <v>2121</v>
@@ -19113,7 +19127,7 @@
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
     </row>
-    <row r="800" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A800" s="1"/>
       <c r="B800" s="1" t="s">
         <v>2122</v>
@@ -19127,7 +19141,7 @@
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
     </row>
-    <row r="801" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A801" s="1"/>
       <c r="B801" s="1" t="s">
         <v>2123</v>
@@ -19141,7 +19155,7 @@
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
     </row>
-    <row r="802" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A802" s="1">
         <v>51</v>
       </c>
@@ -19151,7 +19165,7 @@
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
     </row>
-    <row r="803" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A803" s="1"/>
       <c r="B803" s="1" t="s">
         <v>2153</v>
@@ -19165,7 +19179,7 @@
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
     </row>
-    <row r="804" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A804" s="1"/>
       <c r="B804" s="1" t="s">
         <v>2154</v>
@@ -19179,7 +19193,7 @@
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
     </row>
-    <row r="805" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A805" s="1"/>
       <c r="B805" s="1" t="s">
         <v>2155</v>
@@ -19193,7 +19207,7 @@
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
     </row>
-    <row r="806" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A806" s="1"/>
       <c r="B806" s="1" t="s">
         <v>2156</v>
@@ -19207,7 +19221,7 @@
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
     </row>
-    <row r="807" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A807" s="1"/>
       <c r="B807" s="1" t="s">
         <v>2157</v>
@@ -19221,7 +19235,7 @@
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
     </row>
-    <row r="808" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A808" s="1"/>
       <c r="B808" s="1" t="s">
         <v>2135</v>
@@ -19235,7 +19249,7 @@
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
     </row>
-    <row r="809" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A809" s="1"/>
       <c r="B809" s="1" t="s">
         <v>2158</v>
@@ -19249,7 +19263,7 @@
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
     </row>
-    <row r="810" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A810" s="1"/>
       <c r="B810" s="1" t="s">
         <v>2139</v>
@@ -19263,7 +19277,7 @@
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
     </row>
-    <row r="811" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A811" s="1"/>
       <c r="B811" s="1" t="s">
         <v>2159</v>
@@ -19277,7 +19291,7 @@
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
     </row>
-    <row r="812" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A812" s="1"/>
       <c r="B812" s="1" t="s">
         <v>2160</v>
@@ -19291,7 +19305,7 @@
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
     </row>
-    <row r="813" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A813" s="1"/>
       <c r="B813" s="1" t="s">
         <v>2161</v>
@@ -19305,7 +19319,7 @@
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
     </row>
-    <row r="814" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A814" s="1"/>
       <c r="B814" s="1" t="s">
         <v>2162</v>
@@ -19319,7 +19333,7 @@
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
     </row>
-    <row r="815" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A815" s="1"/>
       <c r="B815" s="1" t="s">
         <v>2163</v>
@@ -19333,7 +19347,7 @@
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
     </row>
-    <row r="816" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A816" s="1"/>
       <c r="B816" s="1" t="s">
         <v>2164</v>
@@ -19347,7 +19361,7 @@
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
     </row>
-    <row r="817" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A817" s="1"/>
       <c r="B817" s="1" t="s">
         <v>2165</v>
@@ -19361,7 +19375,7 @@
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
     </row>
-    <row r="818" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A818" s="1">
         <v>52</v>
       </c>
@@ -19371,7 +19385,7 @@
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
     </row>
-    <row r="819" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A819" s="1"/>
       <c r="B819" s="1" t="s">
         <v>2194</v>
@@ -19385,7 +19399,7 @@
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
     </row>
-    <row r="820" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A820" s="1"/>
       <c r="B820" s="1" t="s">
         <v>2195</v>
@@ -19399,7 +19413,7 @@
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
     </row>
-    <row r="821" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A821" s="1"/>
       <c r="B821" s="1" t="s">
         <v>2196</v>
@@ -19413,7 +19427,7 @@
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
     </row>
-    <row r="822" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A822" s="1"/>
       <c r="B822" s="1" t="s">
         <v>2171</v>
@@ -19427,7 +19441,7 @@
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
     </row>
-    <row r="823" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A823" s="1"/>
       <c r="B823" s="1" t="s">
         <v>2173</v>
@@ -19441,7 +19455,7 @@
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
     </row>
-    <row r="824" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A824" s="1"/>
       <c r="B824" s="1" t="s">
         <v>2175</v>
@@ -19455,7 +19469,7 @@
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
     </row>
-    <row r="825" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A825" s="1"/>
       <c r="B825" s="1" t="s">
         <v>2197</v>
@@ -19469,7 +19483,7 @@
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
     </row>
-    <row r="826" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A826" s="1"/>
       <c r="B826" s="1" t="s">
         <v>2198</v>
@@ -19483,7 +19497,7 @@
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
     </row>
-    <row r="827" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A827" s="1"/>
       <c r="B827" s="1" t="s">
         <v>2199</v>
@@ -19497,7 +19511,7 @@
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
     </row>
-    <row r="828" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A828" s="1"/>
       <c r="B828" s="1" t="s">
         <v>2183</v>
@@ -19511,7 +19525,7 @@
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
     </row>
-    <row r="829" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A829" s="1"/>
       <c r="B829" s="1" t="s">
         <v>2185</v>
@@ -19525,7 +19539,7 @@
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
     </row>
-    <row r="830" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A830" s="1"/>
       <c r="B830" s="1" t="s">
         <v>2200</v>
@@ -19539,7 +19553,7 @@
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
     </row>
-    <row r="831" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A831" s="1"/>
       <c r="B831" s="1" t="s">
         <v>2201</v>
@@ -19553,7 +19567,7 @@
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
     </row>
-    <row r="832" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A832" s="1"/>
       <c r="B832" s="1" t="s">
         <v>2202</v>
@@ -19567,7 +19581,7 @@
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
     </row>
-    <row r="833" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A833" s="1"/>
       <c r="B833" s="1" t="s">
         <v>2203</v>
@@ -19581,7 +19595,7 @@
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
     </row>
-    <row r="834" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A834" s="1">
         <v>53</v>
       </c>
@@ -19591,7 +19605,7 @@
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
     </row>
-    <row r="835" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="s">
         <v>2439</v>
@@ -19605,7 +19619,7 @@
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
     </row>
-    <row r="836" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A836" s="1"/>
       <c r="B836" s="1" t="s">
         <v>2231</v>
@@ -19619,7 +19633,7 @@
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
     </row>
-    <row r="837" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A837" s="1"/>
       <c r="B837" s="1" t="s">
         <v>2232</v>
@@ -19633,7 +19647,7 @@
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
     </row>
-    <row r="838" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A838" s="1"/>
       <c r="B838" s="1" t="s">
         <v>2233</v>
@@ -19647,7 +19661,7 @@
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
     </row>
-    <row r="839" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A839" s="1"/>
       <c r="B839" s="1" t="s">
         <v>2234</v>
@@ -19661,7 +19675,7 @@
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
     </row>
-    <row r="840" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A840" s="1"/>
       <c r="B840" s="1" t="s">
         <v>2235</v>
@@ -19675,7 +19689,7 @@
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
     </row>
-    <row r="841" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A841" s="1"/>
       <c r="B841" s="1" t="s">
         <v>2236</v>
@@ -19689,7 +19703,7 @@
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
     </row>
-    <row r="842" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A842" s="1"/>
       <c r="B842" s="1" t="s">
         <v>2237</v>
@@ -19703,7 +19717,7 @@
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
     </row>
-    <row r="843" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A843" s="1"/>
       <c r="B843" s="1" t="s">
         <v>2238</v>
@@ -19717,7 +19731,7 @@
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
     </row>
-    <row r="844" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A844" s="1"/>
       <c r="B844" s="1" t="s">
         <v>2239</v>
@@ -19731,7 +19745,7 @@
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
     </row>
-    <row r="845" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A845" s="1"/>
       <c r="B845" s="1" t="s">
         <v>2240</v>
@@ -19745,7 +19759,7 @@
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
     </row>
-    <row r="846" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A846" s="1"/>
       <c r="B846" s="1" t="s">
         <v>2241</v>
@@ -19759,7 +19773,7 @@
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
     </row>
-    <row r="847" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A847" s="1"/>
       <c r="B847" s="1" t="s">
         <v>2242</v>
@@ -19773,7 +19787,7 @@
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
     </row>
-    <row r="848" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A848" s="1"/>
       <c r="B848" s="1" t="s">
         <v>2228</v>
@@ -19787,7 +19801,7 @@
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
     </row>
-    <row r="849" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A849" s="1"/>
       <c r="B849" s="1" t="s">
         <v>2230</v>
@@ -19801,7 +19815,7 @@
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
     </row>
-    <row r="850" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A850" s="1">
         <v>54</v>
       </c>
@@ -19811,7 +19825,7 @@
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
     </row>
-    <row r="851" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A851" s="1"/>
       <c r="B851" s="1" t="s">
         <v>2244</v>
@@ -19825,7 +19839,7 @@
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
     </row>
-    <row r="852" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A852" s="1"/>
       <c r="B852" s="1" t="s">
         <v>2246</v>
@@ -19839,7 +19853,7 @@
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
     </row>
-    <row r="853" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A853" s="1"/>
       <c r="B853" s="1" t="s">
         <v>2248</v>
@@ -19853,7 +19867,7 @@
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A854" s="1"/>
       <c r="B854" s="1" t="s">
         <v>2250</v>
@@ -19867,7 +19881,7 @@
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
     </row>
-    <row r="855" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A855" s="1"/>
       <c r="B855" s="1" t="s">
         <v>2252</v>
@@ -19881,7 +19895,7 @@
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
     </row>
-    <row r="856" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A856" s="1"/>
       <c r="B856" s="1" t="s">
         <v>2254</v>
@@ -19895,7 +19909,7 @@
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
     </row>
-    <row r="857" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A857" s="1"/>
       <c r="B857" s="1" t="s">
         <v>2256</v>
@@ -19909,7 +19923,7 @@
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A858" s="1"/>
       <c r="B858" s="1" t="s">
         <v>2258</v>
@@ -19923,7 +19937,7 @@
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A859" s="1"/>
       <c r="B859" s="1" t="s">
         <v>2260</v>
@@ -19937,7 +19951,7 @@
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A860" s="1"/>
       <c r="B860" s="1" t="s">
         <v>2262</v>
@@ -19951,7 +19965,7 @@
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A861" s="1"/>
       <c r="B861" s="1" t="s">
         <v>2264</v>
@@ -19965,7 +19979,7 @@
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
     </row>
-    <row r="862" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A862" s="1"/>
       <c r="B862" s="1" t="s">
         <v>2266</v>
@@ -19979,7 +19993,7 @@
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
     </row>
-    <row r="863" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A863" s="1"/>
       <c r="B863" s="1" t="s">
         <v>2268</v>
@@ -19993,7 +20007,7 @@
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A864" s="1"/>
       <c r="B864" s="1" t="s">
         <v>2270</v>
@@ -20007,7 +20021,7 @@
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
     </row>
-    <row r="865" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A865" s="1"/>
       <c r="B865" s="1" t="s">
         <v>2272</v>
@@ -20021,7 +20035,7 @@
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
     </row>
-    <row r="866" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A866" s="1">
         <v>55</v>
       </c>
@@ -20031,7 +20045,7 @@
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
     </row>
-    <row r="867" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A867" s="1"/>
       <c r="B867" s="1" t="s">
         <v>2274</v>
@@ -20045,7 +20059,7 @@
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
     </row>
-    <row r="868" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A868" s="1"/>
       <c r="B868" s="1" t="s">
         <v>2275</v>
@@ -20059,7 +20073,7 @@
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
     </row>
-    <row r="869" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A869" s="1"/>
       <c r="B869" s="1" t="s">
         <v>2277</v>
@@ -20073,7 +20087,7 @@
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
     </row>
-    <row r="870" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A870" s="1"/>
       <c r="B870" s="1" t="s">
         <v>2279</v>
@@ -20087,7 +20101,7 @@
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
     </row>
-    <row r="871" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A871" s="1"/>
       <c r="B871" s="1" t="s">
         <v>2281</v>
@@ -20101,7 +20115,7 @@
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
     </row>
-    <row r="872" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A872" s="1"/>
       <c r="B872" s="1" t="s">
         <v>2282</v>
@@ -20115,7 +20129,7 @@
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
     </row>
-    <row r="873" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A873" s="1"/>
       <c r="B873" s="1" t="s">
         <v>2284</v>
@@ -20129,7 +20143,7 @@
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
     </row>
-    <row r="874" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A874" s="1"/>
       <c r="B874" s="1" t="s">
         <v>2286</v>
@@ -20143,7 +20157,7 @@
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
     </row>
-    <row r="875" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A875" s="1"/>
       <c r="B875" s="1" t="s">
         <v>2288</v>
@@ -20157,7 +20171,7 @@
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
     </row>
-    <row r="876" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A876" s="1"/>
       <c r="B876" s="1" t="s">
         <v>2290</v>
@@ -20171,7 +20185,7 @@
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
     </row>
-    <row r="877" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A877" s="1"/>
       <c r="B877" s="1" t="s">
         <v>2292</v>
@@ -20185,7 +20199,7 @@
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
     </row>
-    <row r="878" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A878" s="1"/>
       <c r="B878" s="1" t="s">
         <v>2294</v>
@@ -20199,7 +20213,7 @@
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
     </row>
-    <row r="879" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A879" s="1"/>
       <c r="B879" s="1" t="s">
         <v>2296</v>
@@ -20213,7 +20227,7 @@
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
     </row>
-    <row r="880" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A880" s="1"/>
       <c r="B880" s="1" t="s">
         <v>2298</v>
@@ -20227,7 +20241,7 @@
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
     </row>
-    <row r="881" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A881" s="1"/>
       <c r="B881" s="1" t="s">
         <v>2300</v>
@@ -20241,7 +20255,7 @@
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
     </row>
-    <row r="882" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A882" s="1">
         <v>56</v>
       </c>
@@ -20251,7 +20265,7 @@
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
     </row>
-    <row r="883" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A883" s="1"/>
       <c r="B883" s="1" t="s">
         <v>2302</v>
@@ -20265,7 +20279,7 @@
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
     </row>
-    <row r="884" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A884" s="1"/>
       <c r="B884" s="1" t="s">
         <v>2304</v>
@@ -20279,7 +20293,7 @@
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
     </row>
-    <row r="885" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A885" s="1"/>
       <c r="B885" s="1" t="s">
         <v>2306</v>
@@ -20293,7 +20307,7 @@
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
     </row>
-    <row r="886" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A886" s="1"/>
       <c r="B886" s="1" t="s">
         <v>2308</v>
@@ -20307,7 +20321,7 @@
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
     </row>
-    <row r="887" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A887" s="1"/>
       <c r="B887" s="1" t="s">
         <v>2310</v>
@@ -20321,7 +20335,7 @@
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
     </row>
-    <row r="888" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A888" s="1"/>
       <c r="B888" s="1" t="s">
         <v>2312</v>
@@ -20335,7 +20349,7 @@
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
     </row>
-    <row r="889" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="s">
         <v>2314</v>
@@ -20349,7 +20363,7 @@
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
     </row>
-    <row r="890" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="s">
         <v>2316</v>
@@ -20363,7 +20377,7 @@
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
     </row>
-    <row r="891" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="s">
         <v>2329</v>
@@ -20377,7 +20391,7 @@
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
     </row>
-    <row r="892" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="s">
         <v>2330</v>
@@ -20391,7 +20405,7 @@
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
     </row>
-    <row r="893" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="s">
         <v>2331</v>
@@ -20405,7 +20419,7 @@
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
     </row>
-    <row r="894" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="s">
         <v>2332</v>
@@ -20419,7 +20433,7 @@
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
     </row>
-    <row r="895" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="s">
         <v>2333</v>
@@ -20433,7 +20447,7 @@
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
     </row>
-    <row r="896" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="s">
         <v>2334</v>
@@ -20447,7 +20461,7 @@
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
     </row>
-    <row r="897" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="s">
         <v>2335</v>
@@ -20461,7 +20475,7 @@
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
     </row>
-    <row r="898" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A898" s="1">
         <v>57</v>
       </c>
@@ -20471,7 +20485,7 @@
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
     </row>
-    <row r="899" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="s">
         <v>2337</v>
@@ -20485,7 +20499,7 @@
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
     </row>
-    <row r="900" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="s">
         <v>2365</v>
@@ -20499,7 +20513,7 @@
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
     </row>
-    <row r="901" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="s">
         <v>2366</v>
@@ -20513,7 +20527,7 @@
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
     </row>
-    <row r="902" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="s">
         <v>2343</v>
@@ -20527,7 +20541,7 @@
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
     </row>
-    <row r="903" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="s">
         <v>2345</v>
@@ -20541,7 +20555,7 @@
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
     </row>
-    <row r="904" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="s">
         <v>2367</v>
@@ -20555,7 +20569,7 @@
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
     </row>
-    <row r="905" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="s">
         <v>2349</v>
@@ -20569,7 +20583,7 @@
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
     </row>
-    <row r="906" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A906" s="1"/>
       <c r="B906" s="1" t="s">
         <v>2351</v>
@@ -20583,7 +20597,7 @@
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
     </row>
-    <row r="907" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A907" s="1"/>
       <c r="B907" s="1" t="s">
         <v>2353</v>
@@ -20597,7 +20611,7 @@
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
     </row>
-    <row r="908" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A908" s="1"/>
       <c r="B908" s="1" t="s">
         <v>2368</v>
@@ -20611,7 +20625,7 @@
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
     </row>
-    <row r="909" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A909" s="1"/>
       <c r="B909" s="1" t="s">
         <v>2357</v>
@@ -20625,7 +20639,7 @@
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
     </row>
-    <row r="910" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A910" s="1"/>
       <c r="B910" s="1" t="s">
         <v>2369</v>
@@ -20639,7 +20653,7 @@
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
     </row>
-    <row r="911" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A911" s="1"/>
       <c r="B911" s="1" t="s">
         <v>2370</v>
@@ -20653,7 +20667,7 @@
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
     </row>
-    <row r="912" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A912" s="1"/>
       <c r="B912" s="1" t="s">
         <v>2371</v>
@@ -20667,7 +20681,7 @@
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
     </row>
-    <row r="913" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A913" s="1"/>
       <c r="B913" s="1" t="s">
         <v>2372</v>
@@ -20681,7 +20695,7 @@
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
     </row>
-    <row r="914" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A914" s="1">
         <v>58</v>
       </c>
@@ -20691,7 +20705,7 @@
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
     </row>
-    <row r="915" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A915" s="1"/>
       <c r="B915" s="1" t="s">
         <v>2403</v>
@@ -20705,7 +20719,7 @@
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
     </row>
-    <row r="916" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A916" s="1"/>
       <c r="B916" s="1" t="s">
         <v>2404</v>
@@ -20719,7 +20733,7 @@
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
     </row>
-    <row r="917" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A917" s="1"/>
       <c r="B917" s="1" t="s">
         <v>2405</v>
@@ -20733,7 +20747,7 @@
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
     </row>
-    <row r="918" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A918" s="1"/>
       <c r="B918" s="1" t="s">
         <v>2406</v>
@@ -20747,7 +20761,7 @@
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
     </row>
-    <row r="919" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A919" s="1"/>
       <c r="B919" s="1" t="s">
         <v>2407</v>
@@ -20761,7 +20775,7 @@
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
     </row>
-    <row r="920" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A920" s="1"/>
       <c r="B920" s="1" t="s">
         <v>2408</v>
@@ -20775,7 +20789,7 @@
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
     </row>
-    <row r="921" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A921" s="1"/>
       <c r="B921" s="1" t="s">
         <v>2386</v>
@@ -20789,7 +20803,7 @@
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
     </row>
-    <row r="922" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A922" s="1"/>
       <c r="B922" s="1" t="s">
         <v>2409</v>
@@ -20803,7 +20817,7 @@
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
     </row>
-    <row r="923" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A923" s="1"/>
       <c r="B923" s="1" t="s">
         <v>2390</v>
@@ -20817,7 +20831,7 @@
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
     </row>
-    <row r="924" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A924" s="1"/>
       <c r="B924" s="1" t="s">
         <v>2392</v>
@@ -20831,7 +20845,7 @@
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
     </row>
-    <row r="925" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A925" s="1"/>
       <c r="B925" s="1" t="s">
         <v>2394</v>
@@ -20845,7 +20859,7 @@
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
     </row>
-    <row r="926" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A926" s="1"/>
       <c r="B926" s="1" t="s">
         <v>2410</v>
@@ -20859,7 +20873,7 @@
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
     </row>
-    <row r="927" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A927" s="1"/>
       <c r="B927" s="1" t="s">
         <v>2411</v>
@@ -20873,7 +20887,7 @@
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
     </row>
-    <row r="928" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A928" s="1"/>
       <c r="B928" s="1" t="s">
         <v>2412</v>
@@ -20887,7 +20901,7 @@
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
     </row>
-    <row r="929" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A929" s="1"/>
       <c r="B929" s="1" t="s">
         <v>2402</v>
@@ -20901,7 +20915,7 @@
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
     </row>
-    <row r="930" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A930" s="1">
         <v>59</v>
       </c>
@@ -20911,7 +20925,7 @@
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
     </row>
-    <row r="931" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A931" s="1"/>
       <c r="B931" s="1" t="s">
         <v>2414</v>
@@ -20925,7 +20939,7 @@
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
     </row>
-    <row r="932" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A932" s="1"/>
       <c r="B932" s="1" t="s">
         <v>2416</v>
@@ -20939,7 +20953,7 @@
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
     </row>
-    <row r="933" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A933" s="1"/>
       <c r="B933" s="1" t="s">
         <v>2418</v>
@@ -20953,7 +20967,7 @@
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
     </row>
-    <row r="934" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A934" s="1"/>
       <c r="B934" s="1" t="s">
         <v>2420</v>
@@ -20967,7 +20981,7 @@
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
     </row>
-    <row r="935" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A935" s="1"/>
       <c r="B935" s="1" t="s">
         <v>2422</v>
@@ -20981,7 +20995,7 @@
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
     </row>
-    <row r="936" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A936" s="1"/>
       <c r="B936" s="1" t="s">
         <v>2424</v>
@@ -20995,7 +21009,7 @@
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
     </row>
-    <row r="937" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A937" s="1"/>
       <c r="B937" s="1" t="s">
         <v>2426</v>
@@ -21009,7 +21023,7 @@
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
     </row>
-    <row r="938" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A938" s="1"/>
       <c r="B938" s="1" t="s">
         <v>2428</v>
@@ -21023,7 +21037,7 @@
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
     </row>
-    <row r="939" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A939" s="1"/>
       <c r="B939" s="1" t="s">
         <v>2429</v>
@@ -21037,7 +21051,7 @@
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
     </row>
-    <row r="940" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A940" s="1"/>
       <c r="B940" s="1" t="s">
         <v>2430</v>
@@ -21051,7 +21065,7 @@
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
     </row>
-    <row r="941" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A941" s="1"/>
       <c r="B941" s="1" t="s">
         <v>2418</v>
@@ -21065,7 +21079,7 @@
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
     </row>
-    <row r="942" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A942" s="1"/>
       <c r="B942" s="1" t="s">
         <v>2431</v>
@@ -21079,7 +21093,7 @@
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
     </row>
-    <row r="943" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A943" s="1"/>
       <c r="B943" s="1" t="s">
         <v>2422</v>
@@ -21093,7 +21107,7 @@
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
     </row>
-    <row r="944" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A944" s="1"/>
       <c r="B944" s="1" t="s">
         <v>2424</v>
@@ -21107,13 +21121,13 @@
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
     </row>
-    <row r="945" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A945" s="1"/>
       <c r="B945" s="1" t="s">
-        <v>2426</v>
+        <v>2501</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2426</v>
+        <v>2501</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>2425</v>
@@ -21121,7 +21135,7 @@
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
     </row>
-    <row r="946" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A946" s="1"/>
       <c r="B946" s="1" t="s">
         <v>2428</v>

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Data History" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="2502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="2503">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -6941,9 +6941,6 @@
     <t>energy</t>
   </si>
   <si>
-    <t>エネルジー</t>
-  </si>
-  <si>
     <t>digital</t>
   </si>
   <si>
@@ -7521,6 +7518,12 @@
   </si>
   <si>
     <t>それとも</t>
+  </si>
+  <si>
+    <t>エネルギー</t>
+  </si>
+  <si>
+    <t>Part 56 : Missing Katakana is corrected</t>
   </si>
 </sst>
 </file>
@@ -7908,8 +7911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7921,16 +7924,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2490</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2491</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2492</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7938,13 +7941,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7955,10 +7958,10 @@
         <v>43368</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7969,10 +7972,10 @@
         <v>43373</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7983,17 +7986,25 @@
         <v>43374</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43376</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -8035,8 +8046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
-      <selection activeCell="C945" sqref="C945"/>
+    <sheetView topLeftCell="A875" workbookViewId="0">
+      <selection activeCell="C886" sqref="C886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8051,22 +8062,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2442</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -9729,7 +9740,7 @@
         <v>328</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -9745,7 +9756,7 @@
         <v>330</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -9817,7 +9828,7 @@
         <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F128" s="1"/>
     </row>
@@ -9857,7 +9868,7 @@
         <v>359</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F131" s="1"/>
     </row>
@@ -9873,7 +9884,7 @@
         <v>361</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="F132" s="1"/>
     </row>
@@ -9889,7 +9900,7 @@
         <v>363</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -9905,7 +9916,7 @@
         <v>365</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -9921,7 +9932,7 @@
         <v>367</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -9937,7 +9948,7 @@
         <v>369</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -9953,7 +9964,7 @@
         <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -9966,10 +9977,10 @@
         <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -9985,7 +9996,7 @@
         <v>374</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -10001,7 +10012,7 @@
         <v>376</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -10017,7 +10028,7 @@
         <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="F141" s="1"/>
     </row>
@@ -10033,7 +10044,7 @@
         <v>380</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -10049,7 +10060,7 @@
         <v>382</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -10065,7 +10076,7 @@
         <v>384</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -10081,7 +10092,7 @@
         <v>386</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -10135,7 +10146,7 @@
         <v>405</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -10151,7 +10162,7 @@
         <v>407</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="F150" s="1"/>
     </row>
@@ -10181,7 +10192,7 @@
         <v>411</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -10281,7 +10292,7 @@
         <v>425</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F159" s="1"/>
     </row>
@@ -11285,7 +11296,7 @@
         <v>627</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F232" s="1"/>
     </row>
@@ -11301,7 +11312,7 @@
         <v>629</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="F233" s="1"/>
     </row>
@@ -11632,7 +11643,7 @@
         <v>690</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -11782,7 +11793,7 @@
         <v>724</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -11799,7 +11810,7 @@
         <v>725</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F269" s="1"/>
     </row>
@@ -13290,10 +13301,10 @@
     <row r="378" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1024</v>
@@ -13374,7 +13385,7 @@
     <row r="384" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1036</v>
@@ -13594,10 +13605,10 @@
     <row r="400" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1078</v>
@@ -13928,7 +13939,7 @@
         <v>1148</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -14563,14 +14574,14 @@
         <v>1274</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F470" s="1"/>
     </row>
     <row r="471" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1277</v>
@@ -14607,7 +14618,7 @@
         <v>1280</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F473" s="1"/>
     </row>
@@ -14623,7 +14634,7 @@
         <v>1282</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F474" s="1"/>
     </row>
@@ -14639,7 +14650,7 @@
         <v>1284</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F475" s="1"/>
     </row>
@@ -14655,7 +14666,7 @@
         <v>1286</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F476" s="1"/>
     </row>
@@ -14671,7 +14682,7 @@
         <v>1288</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="F477" s="1"/>
     </row>
@@ -14701,7 +14712,7 @@
         <v>1292</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F479" s="1"/>
     </row>
@@ -14717,7 +14728,7 @@
         <v>1294</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F480" s="1"/>
     </row>
@@ -14733,7 +14744,7 @@
         <v>1296</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="F481" s="1"/>
     </row>
@@ -14759,7 +14770,7 @@
         <v>1311</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F483" s="1"/>
     </row>
@@ -15037,7 +15048,7 @@
         <v>1362</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F503" s="1"/>
     </row>
@@ -15053,7 +15064,7 @@
         <v>1364</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F504" s="1"/>
     </row>
@@ -16759,7 +16770,7 @@
         <v>1663</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="F628" s="1"/>
     </row>
@@ -16775,7 +16786,7 @@
         <v>1665</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F629" s="1"/>
     </row>
@@ -16791,7 +16802,7 @@
         <v>1667</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="F630" s="1"/>
     </row>
@@ -16849,7 +16860,7 @@
         <v>1675</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F634" s="1"/>
     </row>
@@ -16865,7 +16876,7 @@
         <v>1675</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F635" s="1"/>
     </row>
@@ -16881,7 +16892,7 @@
         <v>1678</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="F636" s="1"/>
     </row>
@@ -17743,7 +17754,7 @@
         <v>1854</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>1833</v>
@@ -19608,7 +19619,7 @@
     <row r="835" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2205</v>
@@ -20309,11 +20320,11 @@
     </row>
     <row r="886" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A886" s="1"/>
-      <c r="B886" s="1" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C886" s="1" t="s">
-        <v>2308</v>
+      <c r="B886" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C886" t="s">
+        <v>2501</v>
       </c>
       <c r="D886" s="1" t="s">
         <v>2307</v>
@@ -20324,13 +20335,13 @@
     <row r="887" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A887" s="1"/>
       <c r="B887" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
@@ -20338,13 +20349,13 @@
     <row r="888" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A888" s="1"/>
       <c r="B888" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
@@ -20352,13 +20363,13 @@
     <row r="889" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
@@ -20366,13 +20377,13 @@
     <row r="890" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
@@ -20380,13 +20391,13 @@
     <row r="891" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
@@ -20394,13 +20405,13 @@
     <row r="892" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
@@ -20408,13 +20419,13 @@
     <row r="893" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
@@ -20422,7 +20433,7 @@
     <row r="894" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>1233</v>
@@ -20436,13 +20447,13 @@
     <row r="895" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
@@ -20450,13 +20461,13 @@
     <row r="896" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
@@ -20464,13 +20475,13 @@
     <row r="897" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
@@ -20488,13 +20499,13 @@
     <row r="899" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
@@ -20502,13 +20513,13 @@
     <row r="900" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
@@ -20516,13 +20527,13 @@
     <row r="901" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
@@ -20530,13 +20541,13 @@
     <row r="902" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
@@ -20544,13 +20555,13 @@
     <row r="903" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
@@ -20558,13 +20569,13 @@
     <row r="904" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
@@ -20572,13 +20583,13 @@
     <row r="905" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
@@ -20586,13 +20597,13 @@
     <row r="906" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A906" s="1"/>
       <c r="B906" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
@@ -20600,13 +20611,13 @@
     <row r="907" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A907" s="1"/>
       <c r="B907" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
@@ -20614,13 +20625,13 @@
     <row r="908" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A908" s="1"/>
       <c r="B908" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
@@ -20628,13 +20639,13 @@
     <row r="909" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A909" s="1"/>
       <c r="B909" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
@@ -20642,13 +20653,13 @@
     <row r="910" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A910" s="1"/>
       <c r="B910" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
@@ -20656,13 +20667,13 @@
     <row r="911" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A911" s="1"/>
       <c r="B911" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
@@ -20670,13 +20681,13 @@
     <row r="912" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A912" s="1"/>
       <c r="B912" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
@@ -20684,10 +20695,10 @@
     <row r="913" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A913" s="1"/>
       <c r="B913" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>1750</v>
@@ -20708,13 +20719,13 @@
     <row r="915" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A915" s="1"/>
       <c r="B915" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
@@ -20722,13 +20733,13 @@
     <row r="916" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A916" s="1"/>
       <c r="B916" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
@@ -20736,13 +20747,13 @@
     <row r="917" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A917" s="1"/>
       <c r="B917" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
@@ -20750,13 +20761,13 @@
     <row r="918" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A918" s="1"/>
       <c r="B918" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
@@ -20764,13 +20775,13 @@
     <row r="919" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A919" s="1"/>
       <c r="B919" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
@@ -20778,13 +20789,13 @@
     <row r="920" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A920" s="1"/>
       <c r="B920" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
@@ -20792,13 +20803,13 @@
     <row r="921" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A921" s="1"/>
       <c r="B921" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
@@ -20806,13 +20817,13 @@
     <row r="922" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A922" s="1"/>
       <c r="B922" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
@@ -20820,13 +20831,13 @@
     <row r="923" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A923" s="1"/>
       <c r="B923" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
@@ -20834,13 +20845,13 @@
     <row r="924" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A924" s="1"/>
       <c r="B924" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
@@ -20848,13 +20859,13 @@
     <row r="925" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A925" s="1"/>
       <c r="B925" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
@@ -20862,13 +20873,13 @@
     <row r="926" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A926" s="1"/>
       <c r="B926" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
@@ -20876,13 +20887,13 @@
     <row r="927" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A927" s="1"/>
       <c r="B927" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
@@ -20890,13 +20901,13 @@
     <row r="928" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A928" s="1"/>
       <c r="B928" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
@@ -20904,13 +20915,13 @@
     <row r="929" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A929" s="1"/>
       <c r="B929" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
@@ -20928,13 +20939,13 @@
     <row r="931" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A931" s="1"/>
       <c r="B931" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
@@ -20942,13 +20953,13 @@
     <row r="932" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A932" s="1"/>
       <c r="B932" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
@@ -20956,13 +20967,13 @@
     <row r="933" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A933" s="1"/>
       <c r="B933" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
@@ -20970,13 +20981,13 @@
     <row r="934" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A934" s="1"/>
       <c r="B934" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
@@ -20984,13 +20995,13 @@
     <row r="935" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A935" s="1"/>
       <c r="B935" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
@@ -20998,13 +21009,13 @@
     <row r="936" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A936" s="1"/>
       <c r="B936" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
@@ -21012,13 +21023,13 @@
     <row r="937" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A937" s="1"/>
       <c r="B937" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
@@ -21026,13 +21037,13 @@
     <row r="938" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A938" s="1"/>
       <c r="B938" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
@@ -21040,13 +21051,13 @@
     <row r="939" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A939" s="1"/>
       <c r="B939" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
@@ -21054,13 +21065,13 @@
     <row r="940" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A940" s="1"/>
       <c r="B940" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
@@ -21068,13 +21079,13 @@
     <row r="941" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A941" s="1"/>
       <c r="B941" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
@@ -21082,13 +21093,13 @@
     <row r="942" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A942" s="1"/>
       <c r="B942" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
@@ -21096,13 +21107,13 @@
     <row r="943" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A943" s="1"/>
       <c r="B943" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
@@ -21110,13 +21121,13 @@
     <row r="944" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A944" s="1"/>
       <c r="B944" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
@@ -21124,13 +21135,13 @@
     <row r="945" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A945" s="1"/>
       <c r="B945" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
@@ -21138,13 +21149,13 @@
     <row r="946" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A946" s="1"/>
       <c r="B946" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Data History" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="2503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="2504">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -6836,12 +6836,6 @@
     <t>プライブシー</t>
   </si>
   <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>オラィス</t>
-  </si>
-  <si>
     <t>ルール</t>
   </si>
   <si>
@@ -6896,12 +6890,6 @@
     <t>レンタル</t>
   </si>
   <si>
-    <t>recycling</t>
-  </si>
-  <si>
-    <t>レサイクル</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -7524,6 +7512,21 @@
   </si>
   <si>
     <t>Part 56 : Missing Katakana is corrected</t>
+  </si>
+  <si>
+    <t>Part 55 : Missing Katakana is corrected</t>
+  </si>
+  <si>
+    <t>オフィス</t>
+  </si>
+  <si>
+    <t>office (katakana)</t>
+  </si>
+  <si>
+    <t>リサイクリング</t>
+  </si>
+  <si>
+    <t>recycling (katakana)</t>
   </si>
 </sst>
 </file>
@@ -7912,45 +7915,45 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -7958,13 +7961,13 @@
         <v>43368</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -7972,13 +7975,13 @@
         <v>43373</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -7986,13 +7989,13 @@
         <v>43374</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -8000,37 +8003,45 @@
         <v>43376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43377</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8046,41 +8057,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView topLeftCell="A875" workbookViewId="0">
-      <selection activeCell="C886" sqref="C886"/>
+    <sheetView topLeftCell="A865" workbookViewId="0">
+      <selection activeCell="D879" sqref="D879"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8090,7 +8101,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -8104,7 +8115,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -8118,7 +8129,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -8132,7 +8143,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -8146,7 +8157,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -8160,7 +8171,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -8174,7 +8185,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -8188,7 +8199,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -8202,7 +8213,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -8216,7 +8227,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -8230,7 +8241,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -8244,7 +8255,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>41</v>
@@ -8258,7 +8269,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -8272,7 +8283,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -8286,7 +8297,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -8300,7 +8311,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -8310,7 +8321,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>75</v>
@@ -8324,7 +8335,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>76</v>
@@ -8338,7 +8349,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>77</v>
@@ -8352,7 +8363,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>78</v>
@@ -8366,7 +8377,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>79</v>
@@ -8380,7 +8391,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>80</v>
@@ -8394,7 +8405,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>81</v>
@@ -8408,7 +8419,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>82</v>
@@ -8422,7 +8433,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>83</v>
@@ -8436,7 +8447,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>84</v>
@@ -8450,7 +8461,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>85</v>
@@ -8464,7 +8475,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>86</v>
@@ -8478,7 +8489,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>87</v>
@@ -8492,7 +8503,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>88</v>
@@ -8506,7 +8517,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>89</v>
@@ -8520,7 +8531,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -8530,7 +8541,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>120</v>
@@ -8544,7 +8555,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>121</v>
@@ -8558,7 +8569,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>122</v>
@@ -8572,7 +8583,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>123</v>
@@ -8586,7 +8597,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>124</v>
@@ -8600,7 +8611,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -8614,7 +8625,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>126</v>
@@ -8628,7 +8639,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>127</v>
@@ -8642,7 +8653,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>128</v>
@@ -8656,7 +8667,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>129</v>
@@ -8670,7 +8681,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>130</v>
@@ -8684,7 +8695,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>131</v>
@@ -8698,7 +8709,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>132</v>
@@ -8712,7 +8723,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>133</v>
@@ -8726,7 +8737,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>134</v>
@@ -8740,7 +8751,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -8750,7 +8761,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>165</v>
@@ -8764,7 +8775,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>166</v>
@@ -8778,7 +8789,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>167</v>
@@ -8792,7 +8803,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>168</v>
@@ -8806,7 +8817,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
@@ -8820,7 +8831,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>170</v>
@@ -8834,7 +8845,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
@@ -8848,7 +8859,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>172</v>
@@ -8862,7 +8873,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>173</v>
@@ -8876,7 +8887,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>174</v>
@@ -8890,7 +8901,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>175</v>
@@ -8904,7 +8915,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>176</v>
@@ -8918,7 +8929,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>177</v>
@@ -8932,7 +8943,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>178</v>
@@ -8946,7 +8957,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>179</v>
@@ -8960,7 +8971,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -8970,7 +8981,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>210</v>
@@ -8984,7 +8995,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>183</v>
@@ -8998,7 +9009,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>211</v>
@@ -9012,7 +9023,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>212</v>
@@ -9026,7 +9037,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>213</v>
@@ -9040,7 +9051,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>214</v>
@@ -9054,7 +9065,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>215</v>
@@ -9068,7 +9079,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>216</v>
@@ -9082,7 +9093,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>217</v>
@@ -9096,7 +9107,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>218</v>
@@ -9110,7 +9121,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>219</v>
@@ -9124,7 +9135,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>220</v>
@@ -9138,7 +9149,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>221</v>
@@ -9152,7 +9163,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>222</v>
@@ -9166,7 +9177,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>223</v>
@@ -9180,7 +9191,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>6</v>
       </c>
@@ -9190,7 +9201,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>254</v>
@@ -9204,7 +9215,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>255</v>
@@ -9218,7 +9229,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>256</v>
@@ -9232,7 +9243,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>257</v>
@@ -9246,7 +9257,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>258</v>
@@ -9260,7 +9271,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>259</v>
@@ -9274,7 +9285,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>260</v>
@@ -9288,7 +9299,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>261</v>
@@ -9302,7 +9313,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>262</v>
@@ -9316,7 +9327,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>263</v>
@@ -9330,7 +9341,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>264</v>
@@ -9344,7 +9355,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>265</v>
@@ -9358,7 +9369,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>266</v>
@@ -9372,7 +9383,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>267</v>
@@ -9386,7 +9397,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>268</v>
@@ -9400,7 +9411,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>7</v>
       </c>
@@ -9410,7 +9421,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>299</v>
@@ -9424,7 +9435,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>300</v>
@@ -9438,7 +9449,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>301</v>
@@ -9452,7 +9463,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>302</v>
@@ -9466,7 +9477,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>303</v>
@@ -9480,7 +9491,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>304</v>
@@ -9494,7 +9505,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>305</v>
@@ -9508,7 +9519,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>306</v>
@@ -9522,7 +9533,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>307</v>
@@ -9536,7 +9547,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>308</v>
@@ -9550,7 +9561,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>309</v>
@@ -9564,7 +9575,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>310</v>
@@ -9578,7 +9589,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>311</v>
@@ -9592,7 +9603,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>312</v>
@@ -9606,7 +9617,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>313</v>
@@ -9620,7 +9631,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -9630,7 +9641,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>344</v>
@@ -9644,7 +9655,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>345</v>
@@ -9658,7 +9669,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>346</v>
@@ -9672,7 +9683,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>347</v>
@@ -9686,7 +9697,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>348</v>
@@ -9700,7 +9711,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>349</v>
@@ -9714,7 +9725,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>350</v>
@@ -9728,7 +9739,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>351</v>
@@ -9740,11 +9751,11 @@
         <v>328</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>352</v>
@@ -9756,11 +9767,11 @@
         <v>330</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>353</v>
@@ -9774,7 +9785,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>354</v>
@@ -9788,7 +9799,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>355</v>
@@ -9802,7 +9813,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>356</v>
@@ -9816,7 +9827,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>357</v>
@@ -9828,11 +9839,11 @@
         <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>358</v>
@@ -9846,7 +9857,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>9</v>
       </c>
@@ -9856,7 +9867,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>388</v>
@@ -9868,11 +9879,11 @@
         <v>359</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>389</v>
@@ -9884,11 +9895,11 @@
         <v>361</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>390</v>
@@ -9900,11 +9911,11 @@
         <v>363</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>391</v>
@@ -9916,11 +9927,11 @@
         <v>365</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>368</v>
@@ -9932,11 +9943,11 @@
         <v>367</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>392</v>
@@ -9948,11 +9959,11 @@
         <v>369</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>393</v>
@@ -9964,11 +9975,11 @@
         <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>394</v>
@@ -9977,14 +9988,14 @@
         <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>395</v>
@@ -9996,11 +10007,11 @@
         <v>374</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>396</v>
@@ -10012,11 +10023,11 @@
         <v>376</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>397</v>
@@ -10028,11 +10039,11 @@
         <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>398</v>
@@ -10044,11 +10055,11 @@
         <v>380</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>399</v>
@@ -10060,11 +10071,11 @@
         <v>382</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>400</v>
@@ -10076,11 +10087,11 @@
         <v>384</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>401</v>
@@ -10092,11 +10103,11 @@
         <v>386</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>10</v>
       </c>
@@ -10106,7 +10117,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>431</v>
@@ -10120,7 +10131,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>432</v>
@@ -10134,7 +10145,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>433</v>
@@ -10146,11 +10157,11 @@
         <v>405</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>434</v>
@@ -10162,11 +10173,11 @@
         <v>407</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>435</v>
@@ -10180,7 +10191,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>412</v>
@@ -10192,11 +10203,11 @@
         <v>411</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>436</v>
@@ -10210,7 +10221,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>437</v>
@@ -10224,7 +10235,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>438</v>
@@ -10238,7 +10249,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>439</v>
@@ -10252,7 +10263,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>440</v>
@@ -10266,7 +10277,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>441</v>
@@ -10280,7 +10291,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>442</v>
@@ -10292,11 +10303,11 @@
         <v>425</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>443</v>
@@ -10310,7 +10321,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>444</v>
@@ -10324,7 +10335,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>11</v>
       </c>
@@ -10334,7 +10345,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>473</v>
@@ -10348,7 +10359,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>474</v>
@@ -10362,7 +10373,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>475</v>
@@ -10376,7 +10387,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>476</v>
@@ -10390,7 +10401,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>477</v>
@@ -10404,7 +10415,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>478</v>
@@ -10418,7 +10429,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>479</v>
@@ -10432,7 +10443,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>480</v>
@@ -10446,7 +10457,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>481</v>
@@ -10460,7 +10471,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>482</v>
@@ -10474,7 +10485,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>483</v>
@@ -10488,7 +10499,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>484</v>
@@ -10502,7 +10513,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>485</v>
@@ -10516,7 +10527,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>486</v>
@@ -10530,7 +10541,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>487</v>
@@ -10544,7 +10555,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>12</v>
       </c>
@@ -10554,7 +10565,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>517</v>
@@ -10568,7 +10579,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>518</v>
@@ -10582,7 +10593,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>519</v>
@@ -10596,7 +10607,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>520</v>
@@ -10610,7 +10621,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>521</v>
@@ -10624,7 +10635,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>522</v>
@@ -10638,7 +10649,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>523</v>
@@ -10652,7 +10663,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>524</v>
@@ -10666,7 +10677,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>525</v>
@@ -10680,7 +10691,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>526</v>
@@ -10694,7 +10705,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>527</v>
@@ -10708,7 +10719,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
         <v>528</v>
@@ -10722,7 +10733,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>529</v>
@@ -10736,7 +10747,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>530</v>
@@ -10750,7 +10761,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>531</v>
@@ -10764,7 +10775,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>13</v>
       </c>
@@ -10774,7 +10785,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>560</v>
@@ -10788,7 +10799,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>561</v>
@@ -10802,7 +10813,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>562</v>
@@ -10816,7 +10827,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>563</v>
@@ -10830,7 +10841,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>541</v>
@@ -10844,7 +10855,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>564</v>
@@ -10858,7 +10869,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>545</v>
@@ -10872,7 +10883,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>547</v>
@@ -10886,7 +10897,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>565</v>
@@ -10900,7 +10911,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>566</v>
@@ -10914,7 +10925,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>567</v>
@@ -10928,7 +10939,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>568</v>
@@ -10942,7 +10953,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>569</v>
@@ -10956,7 +10967,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>570</v>
@@ -10970,7 +10981,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>571</v>
@@ -10984,7 +10995,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>14</v>
       </c>
@@ -10994,7 +11005,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>602</v>
@@ -11008,7 +11019,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>603</v>
@@ -11022,7 +11033,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>604</v>
@@ -11036,7 +11047,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>605</v>
@@ -11050,7 +11061,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>606</v>
@@ -11064,7 +11075,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>607</v>
@@ -11078,7 +11089,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>608</v>
@@ -11092,7 +11103,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>609</v>
@@ -11106,7 +11117,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
         <v>610</v>
@@ -11120,7 +11131,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>611</v>
@@ -11134,7 +11145,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>612</v>
@@ -11148,7 +11159,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>613</v>
@@ -11162,7 +11173,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
         <v>614</v>
@@ -11176,7 +11187,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>615</v>
@@ -11190,7 +11201,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>616</v>
@@ -11204,7 +11215,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>15</v>
       </c>
@@ -11214,7 +11225,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>647</v>
@@ -11228,7 +11239,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>648</v>
@@ -11242,7 +11253,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>649</v>
@@ -11256,7 +11267,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>650</v>
@@ -11270,7 +11281,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>651</v>
@@ -11284,7 +11295,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
         <v>652</v>
@@ -11296,11 +11307,11 @@
         <v>627</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>653</v>
@@ -11312,11 +11323,11 @@
         <v>629</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>654</v>
@@ -11330,7 +11341,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>655</v>
@@ -11344,7 +11355,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>656</v>
@@ -11358,7 +11369,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>657</v>
@@ -11372,7 +11383,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
         <v>658</v>
@@ -11386,7 +11397,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>659</v>
@@ -11400,7 +11411,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>660</v>
@@ -11414,7 +11425,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
         <v>661</v>
@@ -11428,7 +11439,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>16</v>
       </c>
@@ -11438,7 +11449,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>691</v>
@@ -11452,7 +11463,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>692</v>
@@ -11466,7 +11477,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>693</v>
@@ -11480,7 +11491,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>694</v>
@@ -11494,7 +11505,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>695</v>
@@ -11508,7 +11519,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>696</v>
@@ -11522,7 +11533,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>697</v>
@@ -11536,7 +11547,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>698</v>
@@ -11550,7 +11561,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>699</v>
@@ -11564,7 +11575,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>700</v>
@@ -11578,7 +11589,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>701</v>
@@ -11592,7 +11603,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>702</v>
@@ -11606,7 +11617,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>703</v>
@@ -11620,7 +11631,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>704</v>
@@ -11634,7 +11645,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>705</v>
@@ -11643,12 +11654,12 @@
         <v>690</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>17</v>
       </c>
@@ -11658,7 +11669,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>735</v>
@@ -11672,7 +11683,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>736</v>
@@ -11686,7 +11697,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>737</v>
@@ -11700,7 +11711,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>738</v>
@@ -11714,7 +11725,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>739</v>
@@ -11728,7 +11739,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>740</v>
@@ -11742,7 +11753,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>741</v>
@@ -11756,7 +11767,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
         <v>742</v>
@@ -11770,7 +11781,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>743</v>
@@ -11784,7 +11795,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
         <v>744</v>
@@ -11793,12 +11804,12 @@
         <v>724</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
         <v>745</v>
@@ -11810,11 +11821,11 @@
         <v>725</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
         <v>746</v>
@@ -11828,7 +11839,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>747</v>
@@ -11842,7 +11853,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>748</v>
@@ -11856,7 +11867,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>749</v>
@@ -11870,7 +11881,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>18</v>
       </c>
@@ -11880,7 +11891,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>780</v>
@@ -11894,7 +11905,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1"/>
       <c r="B276" s="1" t="s">
         <v>781</v>
@@ -11908,7 +11919,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>755</v>
@@ -11922,7 +11933,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>782</v>
@@ -11936,7 +11947,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>783</v>
@@ -11950,7 +11961,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>784</v>
@@ -11964,7 +11975,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>785</v>
@@ -11978,7 +11989,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
         <v>786</v>
@@ -11992,7 +12003,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
         <v>787</v>
@@ -12006,7 +12017,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>788</v>
@@ -12020,7 +12031,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>789</v>
@@ -12034,7 +12045,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>790</v>
@@ -12048,7 +12059,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
         <v>775</v>
@@ -12062,7 +12073,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
         <v>791</v>
@@ -12076,7 +12087,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
         <v>792</v>
@@ -12090,7 +12101,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>19</v>
       </c>
@@ -12100,7 +12111,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1"/>
       <c r="B291" s="1" t="s">
         <v>823</v>
@@ -12114,7 +12125,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1"/>
       <c r="B292" s="1" t="s">
         <v>824</v>
@@ -12128,7 +12139,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>798</v>
@@ -12142,7 +12153,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="s">
         <v>800</v>
@@ -12156,7 +12167,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="s">
         <v>825</v>
@@ -12170,7 +12181,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="s">
         <v>826</v>
@@ -12184,7 +12195,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
         <v>827</v>
@@ -12198,7 +12209,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>828</v>
@@ -12212,7 +12223,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>829</v>
@@ -12226,7 +12237,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>830</v>
@@ -12240,7 +12251,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>831</v>
@@ -12254,7 +12265,7 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
         <v>832</v>
@@ -12268,7 +12279,7 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
         <v>833</v>
@@ -12282,7 +12293,7 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>834</v>
@@ -12296,7 +12307,7 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
         <v>835</v>
@@ -12310,7 +12321,7 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>20</v>
       </c>
@@ -12320,7 +12331,7 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
         <v>866</v>
@@ -12334,7 +12345,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>867</v>
@@ -12348,7 +12359,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
         <v>868</v>
@@ -12362,7 +12373,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>869</v>
@@ -12376,7 +12387,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>870</v>
@@ -12390,7 +12401,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>847</v>
@@ -12404,7 +12415,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="s">
         <v>871</v>
@@ -12418,7 +12429,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>872</v>
@@ -12432,7 +12443,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
         <v>853</v>
@@ -12446,7 +12457,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>855</v>
@@ -12460,7 +12471,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>873</v>
@@ -12474,7 +12485,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>874</v>
@@ -12488,7 +12499,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>875</v>
@@ -12502,7 +12513,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>876</v>
@@ -12516,7 +12527,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>877</v>
@@ -12530,7 +12541,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>21</v>
       </c>
@@ -12540,7 +12551,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
         <v>908</v>
@@ -12554,7 +12565,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>909</v>
@@ -12568,7 +12579,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>910</v>
@@ -12582,7 +12593,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>911</v>
@@ -12596,7 +12607,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
         <v>912</v>
@@ -12610,7 +12621,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>913</v>
@@ -12624,7 +12635,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="s">
         <v>914</v>
@@ -12638,7 +12649,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>915</v>
@@ -12652,7 +12663,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>916</v>
@@ -12666,7 +12677,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>917</v>
@@ -12680,7 +12691,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
         <v>918</v>
@@ -12694,7 +12705,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
         <v>919</v>
@@ -12708,7 +12719,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>920</v>
@@ -12722,7 +12733,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>921</v>
@@ -12736,7 +12747,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>922</v>
@@ -12750,7 +12761,7 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>22</v>
       </c>
@@ -12760,7 +12771,7 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
         <v>953</v>
@@ -12774,7 +12785,7 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>954</v>
@@ -12788,7 +12799,7 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>928</v>
@@ -12802,7 +12813,7 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
         <v>930</v>
@@ -12816,7 +12827,7 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>955</v>
@@ -12830,7 +12841,7 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
         <v>956</v>
@@ -12844,7 +12855,7 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
         <v>957</v>
@@ -12858,7 +12869,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>958</v>
@@ -12872,7 +12883,7 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>959</v>
@@ -12886,7 +12897,7 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
         <v>960</v>
@@ -12900,7 +12911,7 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>961</v>
@@ -12914,7 +12925,7 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>962</v>
@@ -12928,7 +12939,7 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>963</v>
@@ -12942,7 +12953,7 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>964</v>
@@ -12956,7 +12967,7 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
         <v>965</v>
@@ -12970,7 +12981,7 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>23</v>
       </c>
@@ -12980,7 +12991,7 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
         <v>996</v>
@@ -12994,7 +13005,7 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>997</v>
@@ -13008,7 +13019,7 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
         <v>998</v>
@@ -13022,7 +13033,7 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
         <v>973</v>
@@ -13036,7 +13047,7 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
         <v>999</v>
@@ -13050,7 +13061,7 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>1000</v>
@@ -13064,7 +13075,7 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>1001</v>
@@ -13078,7 +13089,7 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
         <v>1002</v>
@@ -13092,7 +13103,7 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
         <v>1003</v>
@@ -13106,7 +13117,7 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
         <v>1004</v>
@@ -13120,7 +13131,7 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
         <v>1005</v>
@@ -13134,7 +13145,7 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
         <v>1006</v>
@@ -13148,7 +13159,7 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
         <v>1007</v>
@@ -13162,7 +13173,7 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
         <v>1008</v>
@@ -13176,7 +13187,7 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
         <v>1009</v>
@@ -13190,7 +13201,7 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>24</v>
       </c>
@@ -13200,7 +13211,7 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>1039</v>
@@ -13214,7 +13225,7 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
         <v>1040</v>
@@ -13228,7 +13239,7 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
         <v>1041</v>
@@ -13242,7 +13253,7 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1"/>
       <c r="B374" s="1" t="s">
         <v>1042</v>
@@ -13256,7 +13267,7 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>1043</v>
@@ -13270,7 +13281,7 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
         <v>1044</v>
@@ -13284,7 +13295,7 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="s">
         <v>1045</v>
@@ -13298,13 +13309,13 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1024</v>
@@ -13312,7 +13323,7 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1"/>
       <c r="B379" s="1" t="s">
         <v>1046</v>
@@ -13326,7 +13337,7 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
         <v>1047</v>
@@ -13340,7 +13351,7 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
         <v>1048</v>
@@ -13354,7 +13365,7 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1"/>
       <c r="B382" s="1" t="s">
         <v>1049</v>
@@ -13368,7 +13379,7 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1"/>
       <c r="B383" s="1" t="s">
         <v>1050</v>
@@ -13382,10 +13393,10 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1036</v>
@@ -13396,7 +13407,7 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
         <v>1051</v>
@@ -13410,7 +13421,7 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>25</v>
       </c>
@@ -13420,7 +13431,7 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
         <v>1081</v>
@@ -13434,7 +13445,7 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
         <v>1082</v>
@@ -13448,7 +13459,7 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
         <v>1083</v>
@@ -13462,7 +13473,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="s">
         <v>1084</v>
@@ -13476,7 +13487,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
         <v>1085</v>
@@ -13490,7 +13501,7 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
         <v>1086</v>
@@ -13504,7 +13515,7 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="s">
         <v>1087</v>
@@ -13518,7 +13529,7 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
         <v>1088</v>
@@ -13532,7 +13543,7 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1"/>
       <c r="B395" s="1" t="s">
         <v>1089</v>
@@ -13546,7 +13557,7 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1"/>
       <c r="B396" s="1" t="s">
         <v>1090</v>
@@ -13560,7 +13571,7 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1"/>
       <c r="B397" s="1" t="s">
         <v>1091</v>
@@ -13574,7 +13585,7 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
         <v>1092</v>
@@ -13588,7 +13599,7 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
         <v>1093</v>
@@ -13602,13 +13613,13 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1078</v>
@@ -13616,7 +13627,7 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1"/>
       <c r="B401" s="1" t="s">
         <v>1094</v>
@@ -13630,7 +13641,7 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>26</v>
       </c>
@@ -13640,7 +13651,7 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1"/>
       <c r="B403" s="1" t="s">
         <v>1125</v>
@@ -13654,7 +13665,7 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1"/>
       <c r="B404" s="1" t="s">
         <v>1126</v>
@@ -13668,7 +13679,7 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1"/>
       <c r="B405" s="1" t="s">
         <v>1127</v>
@@ -13682,7 +13693,7 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1"/>
       <c r="B406" s="1" t="s">
         <v>1128</v>
@@ -13696,7 +13707,7 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1"/>
       <c r="B407" s="1" t="s">
         <v>1129</v>
@@ -13710,7 +13721,7 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1"/>
       <c r="B408" s="1" t="s">
         <v>1130</v>
@@ -13724,7 +13735,7 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
         <v>1131</v>
@@ -13738,7 +13749,7 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1"/>
       <c r="B410" s="1" t="s">
         <v>1132</v>
@@ -13752,7 +13763,7 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
     </row>
-    <row r="411" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1"/>
       <c r="B411" s="1" t="s">
         <v>1133</v>
@@ -13766,7 +13777,7 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
         <v>1134</v>
@@ -13780,7 +13791,7 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1"/>
       <c r="B413" s="1" t="s">
         <v>1116</v>
@@ -13794,7 +13805,7 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1"/>
       <c r="B414" s="1" t="s">
         <v>1118</v>
@@ -13808,7 +13819,7 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
         <v>1135</v>
@@ -13822,7 +13833,7 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1"/>
       <c r="B416" s="1" t="s">
         <v>1136</v>
@@ -13836,7 +13847,7 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
         <v>1137</v>
@@ -13850,7 +13861,7 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>27</v>
       </c>
@@ -13860,7 +13871,7 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1"/>
       <c r="B419" s="1" t="s">
         <v>1167</v>
@@ -13874,7 +13885,7 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1"/>
       <c r="B420" s="1" t="s">
         <v>1168</v>
@@ -13888,7 +13899,7 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1"/>
       <c r="B421" s="1" t="s">
         <v>1169</v>
@@ -13902,7 +13913,7 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
     </row>
-    <row r="422" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1"/>
       <c r="B422" s="1" t="s">
         <v>1170</v>
@@ -13916,7 +13927,7 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
     </row>
-    <row r="423" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
         <v>1171</v>
@@ -13930,7 +13941,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
         <v>1172</v>
@@ -13939,12 +13950,12 @@
         <v>1148</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
     </row>
-    <row r="425" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
         <v>1173</v>
@@ -13958,7 +13969,7 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
     </row>
-    <row r="426" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
         <v>1174</v>
@@ -13972,7 +13983,7 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1"/>
       <c r="B427" s="1" t="s">
         <v>1175</v>
@@ -13986,7 +13997,7 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
-    <row r="428" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
         <v>1176</v>
@@ -14000,7 +14011,7 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
     </row>
-    <row r="429" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1"/>
       <c r="B429" s="1" t="s">
         <v>1177</v>
@@ -14014,7 +14025,7 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
         <v>1178</v>
@@ -14028,7 +14039,7 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
         <v>1179</v>
@@ -14042,7 +14053,7 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1"/>
       <c r="B432" s="1" t="s">
         <v>1180</v>
@@ -14056,7 +14067,7 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
         <v>1181</v>
@@ -14070,7 +14081,7 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>28</v>
       </c>
@@ -14080,7 +14091,7 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1"/>
       <c r="B435" s="1" t="s">
         <v>1212</v>
@@ -14094,7 +14105,7 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1"/>
       <c r="B436" s="1" t="s">
         <v>1213</v>
@@ -14108,7 +14119,7 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
         <v>1214</v>
@@ -14122,7 +14133,7 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1"/>
       <c r="B438" s="1" t="s">
         <v>1215</v>
@@ -14136,7 +14147,7 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
         <v>1216</v>
@@ -14150,7 +14161,7 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
         <v>1217</v>
@@ -14164,7 +14175,7 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
         <v>1218</v>
@@ -14178,7 +14189,7 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1"/>
       <c r="B442" s="1" t="s">
         <v>1197</v>
@@ -14192,7 +14203,7 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="s">
         <v>1219</v>
@@ -14206,7 +14217,7 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="s">
         <v>1220</v>
@@ -14220,7 +14231,7 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
         <v>1221</v>
@@ -14234,7 +14245,7 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1"/>
       <c r="B446" s="1" t="s">
         <v>1222</v>
@@ -14248,7 +14259,7 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1"/>
       <c r="B447" s="1" t="s">
         <v>1223</v>
@@ -14262,7 +14273,7 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
         <v>1224</v>
@@ -14276,7 +14287,7 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
         <v>1225</v>
@@ -14290,7 +14301,7 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>29</v>
       </c>
@@ -14300,7 +14311,7 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
         <v>1255</v>
@@ -14314,7 +14325,7 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="s">
         <v>1256</v>
@@ -14328,7 +14339,7 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="s">
         <v>1257</v>
@@ -14342,7 +14353,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="s">
         <v>1258</v>
@@ -14356,7 +14367,7 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="s">
         <v>1259</v>
@@ -14370,7 +14381,7 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="s">
         <v>1260</v>
@@ -14384,7 +14395,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1"/>
       <c r="B457" s="1" t="s">
         <v>1261</v>
@@ -14398,7 +14409,7 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1"/>
       <c r="B458" s="1" t="s">
         <v>1262</v>
@@ -14412,7 +14423,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1"/>
       <c r="B459" s="1" t="s">
         <v>1263</v>
@@ -14426,7 +14437,7 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1"/>
       <c r="B460" s="1" t="s">
         <v>1264</v>
@@ -14440,7 +14451,7 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
         <v>1265</v>
@@ -14454,7 +14465,7 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
         <v>1266</v>
@@ -14468,7 +14479,7 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
         <v>1267</v>
@@ -14482,7 +14493,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1"/>
       <c r="B464" s="1" t="s">
         <v>1268</v>
@@ -14496,7 +14507,7 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1"/>
       <c r="B465" s="1" t="s">
         <v>1269</v>
@@ -14510,7 +14521,7 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1">
         <v>30</v>
       </c>
@@ -14520,7 +14531,7 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1"/>
       <c r="B467" s="1" t="s">
         <v>1298</v>
@@ -14534,7 +14545,7 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
     </row>
-    <row r="468" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1"/>
       <c r="B468" s="1" t="s">
         <v>1299</v>
@@ -14548,7 +14559,7 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
     </row>
-    <row r="469" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
         <v>1300</v>
@@ -14562,7 +14573,7 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
     </row>
-    <row r="470" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1"/>
       <c r="B470" s="1" t="s">
         <v>1301</v>
@@ -14574,14 +14585,14 @@
         <v>1274</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="F470" s="1"/>
     </row>
-    <row r="471" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1277</v>
@@ -14592,7 +14603,7 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
     </row>
-    <row r="472" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1"/>
       <c r="B472" s="1" t="s">
         <v>1302</v>
@@ -14606,7 +14617,7 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
         <v>1303</v>
@@ -14618,11 +14629,11 @@
         <v>1280</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
         <v>1283</v>
@@ -14634,11 +14645,11 @@
         <v>1282</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1"/>
       <c r="B475" s="1" t="s">
         <v>1304</v>
@@ -14650,11 +14661,11 @@
         <v>1284</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1"/>
       <c r="B476" s="1" t="s">
         <v>1305</v>
@@ -14666,11 +14677,11 @@
         <v>1286</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1"/>
       <c r="B477" s="1" t="s">
         <v>1306</v>
@@ -14682,11 +14693,11 @@
         <v>1288</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1"/>
       <c r="B478" s="1" t="s">
         <v>1307</v>
@@ -14700,7 +14711,7 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
         <v>1308</v>
@@ -14712,11 +14723,11 @@
         <v>1292</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="F479" s="1"/>
     </row>
-    <row r="480" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1"/>
       <c r="B480" s="1" t="s">
         <v>1309</v>
@@ -14728,11 +14739,11 @@
         <v>1294</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="F480" s="1"/>
     </row>
-    <row r="481" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1"/>
       <c r="B481" s="1" t="s">
         <v>1310</v>
@@ -14744,11 +14755,11 @@
         <v>1296</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="F481" s="1"/>
     </row>
-    <row r="482" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1">
         <v>31</v>
       </c>
@@ -14758,7 +14769,7 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1"/>
       <c r="B483" s="1" t="s">
         <v>1341</v>
@@ -14770,11 +14781,11 @@
         <v>1311</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="F483" s="1"/>
     </row>
-    <row r="484" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1"/>
       <c r="B484" s="1" t="s">
         <v>1342</v>
@@ -14788,7 +14799,7 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
     </row>
-    <row r="485" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1"/>
       <c r="B485" s="1" t="s">
         <v>1343</v>
@@ -14802,7 +14813,7 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
     </row>
-    <row r="486" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
         <v>1344</v>
@@ -14816,7 +14827,7 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
     </row>
-    <row r="487" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
         <v>611</v>
@@ -14830,7 +14841,7 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
     </row>
-    <row r="488" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
         <v>1345</v>
@@ -14844,7 +14855,7 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1"/>
       <c r="B489" s="1" t="s">
         <v>1346</v>
@@ -14858,7 +14869,7 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
     </row>
-    <row r="490" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1"/>
       <c r="B490" s="1" t="s">
         <v>1347</v>
@@ -14872,7 +14883,7 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
     </row>
-    <row r="491" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1"/>
       <c r="B491" s="1" t="s">
         <v>1348</v>
@@ -14886,7 +14897,7 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
     </row>
-    <row r="492" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1"/>
       <c r="B492" s="1" t="s">
         <v>1330</v>
@@ -14900,7 +14911,7 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
     </row>
-    <row r="493" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1"/>
       <c r="B493" s="1" t="s">
         <v>1349</v>
@@ -14914,7 +14925,7 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
     </row>
-    <row r="494" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1"/>
       <c r="B494" s="1" t="s">
         <v>1350</v>
@@ -14928,7 +14939,7 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
     </row>
-    <row r="495" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1"/>
       <c r="B495" s="1" t="s">
         <v>1351</v>
@@ -14942,7 +14953,7 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1"/>
       <c r="B496" s="1" t="s">
         <v>1352</v>
@@ -14956,7 +14967,7 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1"/>
       <c r="B497" s="1" t="s">
         <v>1353</v>
@@ -14970,7 +14981,7 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>32</v>
       </c>
@@ -14980,7 +14991,7 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1"/>
       <c r="B499" s="1" t="s">
         <v>1380</v>
@@ -14994,7 +15005,7 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1"/>
       <c r="B500" s="1" t="s">
         <v>1381</v>
@@ -15008,7 +15019,7 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1"/>
       <c r="B501" s="1" t="s">
         <v>1382</v>
@@ -15022,7 +15033,7 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1"/>
       <c r="B502" s="1" t="s">
         <v>1383</v>
@@ -15036,7 +15047,7 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
     </row>
-    <row r="503" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1"/>
       <c r="B503" s="1" t="s">
         <v>1384</v>
@@ -15048,11 +15059,11 @@
         <v>1362</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="F503" s="1"/>
     </row>
-    <row r="504" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1"/>
       <c r="B504" s="1" t="s">
         <v>1385</v>
@@ -15064,11 +15075,11 @@
         <v>1364</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="F504" s="1"/>
     </row>
-    <row r="505" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1"/>
       <c r="B505" s="1" t="s">
         <v>1386</v>
@@ -15082,7 +15093,7 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
     </row>
-    <row r="506" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1"/>
       <c r="B506" s="1" t="s">
         <v>1387</v>
@@ -15096,7 +15107,7 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
     </row>
-    <row r="507" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="s">
         <v>1388</v>
@@ -15110,7 +15121,7 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
     </row>
-    <row r="508" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1"/>
       <c r="B508" s="1" t="s">
         <v>1389</v>
@@ -15124,7 +15135,7 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
     </row>
-    <row r="509" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="s">
         <v>1390</v>
@@ -15138,7 +15149,7 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
     </row>
-    <row r="510" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
         <v>1391</v>
@@ -15152,7 +15163,7 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
     </row>
-    <row r="511" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1"/>
       <c r="B511" s="1" t="s">
         <v>1392</v>
@@ -15166,7 +15177,7 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
     </row>
-    <row r="512" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1"/>
       <c r="B512" s="1" t="s">
         <v>1393</v>
@@ -15180,7 +15191,7 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
     </row>
-    <row r="513" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1"/>
       <c r="B513" s="1" t="s">
         <v>1394</v>
@@ -15194,7 +15205,7 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
     </row>
-    <row r="514" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>33</v>
       </c>
@@ -15204,7 +15215,7 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
     </row>
-    <row r="515" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1"/>
       <c r="B515" s="1" t="s">
         <v>1425</v>
@@ -15218,7 +15229,7 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
     </row>
-    <row r="516" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1"/>
       <c r="B516" s="1" t="s">
         <v>1426</v>
@@ -15232,7 +15243,7 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
     </row>
-    <row r="517" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1"/>
       <c r="B517" s="1" t="s">
         <v>1427</v>
@@ -15246,7 +15257,7 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
     </row>
-    <row r="518" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1"/>
       <c r="B518" s="1" t="s">
         <v>1428</v>
@@ -15260,7 +15271,7 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
     </row>
-    <row r="519" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1"/>
       <c r="B519" s="1" t="s">
         <v>1429</v>
@@ -15274,7 +15285,7 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
     </row>
-    <row r="520" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1"/>
       <c r="B520" s="1" t="s">
         <v>1430</v>
@@ -15288,7 +15299,7 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
     </row>
-    <row r="521" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1"/>
       <c r="B521" s="1" t="s">
         <v>1431</v>
@@ -15302,7 +15313,7 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
     </row>
-    <row r="522" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1"/>
       <c r="B522" s="1" t="s">
         <v>1432</v>
@@ -15316,7 +15327,7 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
     </row>
-    <row r="523" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1"/>
       <c r="B523" s="1" t="s">
         <v>1433</v>
@@ -15330,7 +15341,7 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
     </row>
-    <row r="524" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1"/>
       <c r="B524" s="1" t="s">
         <v>1434</v>
@@ -15344,7 +15355,7 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
     </row>
-    <row r="525" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1"/>
       <c r="B525" s="1" t="s">
         <v>1435</v>
@@ -15358,7 +15369,7 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
     </row>
-    <row r="526" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1"/>
       <c r="B526" s="1" t="s">
         <v>1436</v>
@@ -15372,7 +15383,7 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
     </row>
-    <row r="527" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1"/>
       <c r="B527" s="1" t="s">
         <v>1437</v>
@@ -15386,7 +15397,7 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1"/>
       <c r="B528" s="1" t="s">
         <v>1438</v>
@@ -15400,7 +15411,7 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
     </row>
-    <row r="529" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1"/>
       <c r="B529" s="1" t="s">
         <v>1439</v>
@@ -15414,7 +15425,7 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
     </row>
-    <row r="530" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>34</v>
       </c>
@@ -15424,7 +15435,7 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
     </row>
-    <row r="531" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1"/>
       <c r="B531" s="1" t="s">
         <v>1468</v>
@@ -15438,7 +15449,7 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1"/>
       <c r="B532" s="1" t="s">
         <v>1469</v>
@@ -15452,7 +15463,7 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
     </row>
-    <row r="533" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1"/>
       <c r="B533" s="1" t="s">
         <v>1470</v>
@@ -15466,7 +15477,7 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
     </row>
-    <row r="534" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1"/>
       <c r="B534" s="1" t="s">
         <v>1471</v>
@@ -15480,7 +15491,7 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
     </row>
-    <row r="535" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1"/>
       <c r="B535" s="1" t="s">
         <v>1472</v>
@@ -15494,7 +15505,7 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
     </row>
-    <row r="536" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1"/>
       <c r="B536" s="1" t="s">
         <v>1473</v>
@@ -15508,7 +15519,7 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
     </row>
-    <row r="537" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1"/>
       <c r="B537" s="1" t="s">
         <v>1474</v>
@@ -15522,7 +15533,7 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
     </row>
-    <row r="538" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1"/>
       <c r="B538" s="1" t="s">
         <v>1475</v>
@@ -15536,7 +15547,7 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
     </row>
-    <row r="539" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1"/>
       <c r="B539" s="1" t="s">
         <v>1476</v>
@@ -15550,7 +15561,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
     </row>
-    <row r="540" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1"/>
       <c r="B540" s="1" t="s">
         <v>1477</v>
@@ -15564,7 +15575,7 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
     </row>
-    <row r="541" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1"/>
       <c r="B541" s="1" t="s">
         <v>1478</v>
@@ -15578,7 +15589,7 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
     </row>
-    <row r="542" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1"/>
       <c r="B542" s="1" t="s">
         <v>1479</v>
@@ -15592,7 +15603,7 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
     </row>
-    <row r="543" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1"/>
       <c r="B543" s="1" t="s">
         <v>1480</v>
@@ -15606,7 +15617,7 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
     </row>
-    <row r="544" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1"/>
       <c r="B544" s="1" t="s">
         <v>1466</v>
@@ -15620,7 +15631,7 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
     </row>
-    <row r="545" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
         <v>1467</v>
@@ -15634,7 +15645,7 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
     </row>
-    <row r="546" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>35</v>
       </c>
@@ -15644,7 +15655,7 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
     </row>
-    <row r="547" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1"/>
       <c r="B547" s="1" t="s">
         <v>1482</v>
@@ -15658,7 +15669,7 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
     </row>
-    <row r="548" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1"/>
       <c r="B548" s="1" t="s">
         <v>1484</v>
@@ -15672,7 +15683,7 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
     </row>
-    <row r="549" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1"/>
       <c r="B549" s="1" t="s">
         <v>1486</v>
@@ -15686,7 +15697,7 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
     </row>
-    <row r="550" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1"/>
       <c r="B550" s="1" t="s">
         <v>1488</v>
@@ -15700,7 +15711,7 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
     </row>
-    <row r="551" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1"/>
       <c r="B551" s="1" t="s">
         <v>1490</v>
@@ -15714,7 +15725,7 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
     </row>
-    <row r="552" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1"/>
       <c r="B552" s="1" t="s">
         <v>1492</v>
@@ -15728,7 +15739,7 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
     </row>
-    <row r="553" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1"/>
       <c r="B553" s="1" t="s">
         <v>1494</v>
@@ -15742,7 +15753,7 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
     </row>
-    <row r="554" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1"/>
       <c r="B554" s="1" t="s">
         <v>1496</v>
@@ -15756,7 +15767,7 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
     </row>
-    <row r="555" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1"/>
       <c r="B555" s="1" t="s">
         <v>1498</v>
@@ -15770,7 +15781,7 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
     </row>
-    <row r="556" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1"/>
       <c r="B556" s="1" t="s">
         <v>1500</v>
@@ -15784,7 +15795,7 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
     </row>
-    <row r="557" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1"/>
       <c r="B557" s="1" t="s">
         <v>1502</v>
@@ -15798,7 +15809,7 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
     </row>
-    <row r="558" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1"/>
       <c r="B558" s="1" t="s">
         <v>1504</v>
@@ -15812,7 +15823,7 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
     </row>
-    <row r="559" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1"/>
       <c r="B559" s="1" t="s">
         <v>1506</v>
@@ -15826,7 +15837,7 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
     </row>
-    <row r="560" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1"/>
       <c r="B560" s="1" t="s">
         <v>1508</v>
@@ -15840,7 +15851,7 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
     </row>
-    <row r="561" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1"/>
       <c r="B561" s="1" t="s">
         <v>1510</v>
@@ -15854,7 +15865,7 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
     </row>
-    <row r="562" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>36</v>
       </c>
@@ -15864,7 +15875,7 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
     </row>
-    <row r="563" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1"/>
       <c r="B563" s="1" t="s">
         <v>1512</v>
@@ -15878,7 +15889,7 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
     </row>
-    <row r="564" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1"/>
       <c r="B564" s="1" t="s">
         <v>1514</v>
@@ -15892,7 +15903,7 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
     </row>
-    <row r="565" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1"/>
       <c r="B565" s="1" t="s">
         <v>1516</v>
@@ -15906,7 +15917,7 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
     </row>
-    <row r="566" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1"/>
       <c r="B566" s="1" t="s">
         <v>1518</v>
@@ -15920,7 +15931,7 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
     </row>
-    <row r="567" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1"/>
       <c r="B567" s="1" t="s">
         <v>1520</v>
@@ -15934,7 +15945,7 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
     </row>
-    <row r="568" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1"/>
       <c r="B568" s="1" t="s">
         <v>1522</v>
@@ -15948,7 +15959,7 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
     </row>
-    <row r="569" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1"/>
       <c r="B569" s="1" t="s">
         <v>1524</v>
@@ -15962,7 +15973,7 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
     </row>
-    <row r="570" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1"/>
       <c r="B570" s="1" t="s">
         <v>1526</v>
@@ -15976,7 +15987,7 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
     </row>
-    <row r="571" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1"/>
       <c r="B571" s="1" t="s">
         <v>1528</v>
@@ -15990,7 +16001,7 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
     </row>
-    <row r="572" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="s">
         <v>1530</v>
@@ -16004,7 +16015,7 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
     </row>
-    <row r="573" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="s">
         <v>1532</v>
@@ -16018,7 +16029,7 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
     </row>
-    <row r="574" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="s">
         <v>1534</v>
@@ -16032,7 +16043,7 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
     </row>
-    <row r="575" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1"/>
       <c r="B575" s="1" t="s">
         <v>1536</v>
@@ -16046,7 +16057,7 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
     </row>
-    <row r="576" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1"/>
       <c r="B576" s="1" t="s">
         <v>1538</v>
@@ -16060,7 +16071,7 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
     </row>
-    <row r="577" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1"/>
       <c r="B577" s="1" t="s">
         <v>1540</v>
@@ -16074,7 +16085,7 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
     </row>
-    <row r="578" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1">
         <v>37</v>
       </c>
@@ -16084,7 +16095,7 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
     </row>
-    <row r="579" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1"/>
       <c r="B579" s="1" t="s">
         <v>1542</v>
@@ -16098,7 +16109,7 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
     </row>
-    <row r="580" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1"/>
       <c r="B580" s="1" t="s">
         <v>1543</v>
@@ -16112,7 +16123,7 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
     </row>
-    <row r="581" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1"/>
       <c r="B581" s="1" t="s">
         <v>1545</v>
@@ -16126,7 +16137,7 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
     </row>
-    <row r="582" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="s">
         <v>1547</v>
@@ -16140,7 +16151,7 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
     </row>
-    <row r="583" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1"/>
       <c r="B583" s="1" t="s">
         <v>1548</v>
@@ -16154,7 +16165,7 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
     </row>
-    <row r="584" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1"/>
       <c r="B584" s="1" t="s">
         <v>1550</v>
@@ -16168,7 +16179,7 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
     </row>
-    <row r="585" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1"/>
       <c r="B585" s="1" t="s">
         <v>1552</v>
@@ -16182,7 +16193,7 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
     </row>
-    <row r="586" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1"/>
       <c r="B586" s="1" t="s">
         <v>1554</v>
@@ -16196,7 +16207,7 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
     </row>
-    <row r="587" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
         <v>1569</v>
@@ -16210,7 +16221,7 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
     </row>
-    <row r="588" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1"/>
       <c r="B588" s="1" t="s">
         <v>1570</v>
@@ -16224,7 +16235,7 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
     </row>
-    <row r="589" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1"/>
       <c r="B589" s="1" t="s">
         <v>1571</v>
@@ -16238,7 +16249,7 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
     </row>
-    <row r="590" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1"/>
       <c r="B590" s="1" t="s">
         <v>1572</v>
@@ -16252,7 +16263,7 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
     </row>
-    <row r="591" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1"/>
       <c r="B591" s="1" t="s">
         <v>1573</v>
@@ -16266,7 +16277,7 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
     </row>
-    <row r="592" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1"/>
       <c r="B592" s="1" t="s">
         <v>1566</v>
@@ -16280,7 +16291,7 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
     </row>
-    <row r="593" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1"/>
       <c r="B593" s="1" t="s">
         <v>1568</v>
@@ -16294,7 +16305,7 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
     </row>
-    <row r="594" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1">
         <v>38</v>
       </c>
@@ -16304,7 +16315,7 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
     </row>
-    <row r="595" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1"/>
       <c r="B595" s="1" t="s">
         <v>1604</v>
@@ -16318,7 +16329,7 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
     </row>
-    <row r="596" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1"/>
       <c r="B596" s="1" t="s">
         <v>1605</v>
@@ -16332,7 +16343,7 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
     </row>
-    <row r="597" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1"/>
       <c r="B597" s="1" t="s">
         <v>1606</v>
@@ -16346,7 +16357,7 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
     </row>
-    <row r="598" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1"/>
       <c r="B598" s="1" t="s">
         <v>1607</v>
@@ -16360,7 +16371,7 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
     </row>
-    <row r="599" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1"/>
       <c r="B599" s="1" t="s">
         <v>1608</v>
@@ -16374,7 +16385,7 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
     </row>
-    <row r="600" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1"/>
       <c r="B600" s="1" t="s">
         <v>1585</v>
@@ -16388,7 +16399,7 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
     </row>
-    <row r="601" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1"/>
       <c r="B601" s="1" t="s">
         <v>1609</v>
@@ -16402,7 +16413,7 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
     </row>
-    <row r="602" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1"/>
       <c r="B602" s="1" t="s">
         <v>1610</v>
@@ -16416,7 +16427,7 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
     </row>
-    <row r="603" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1"/>
       <c r="B603" s="1" t="s">
         <v>1611</v>
@@ -16430,7 +16441,7 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
     </row>
-    <row r="604" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1"/>
       <c r="B604" s="1" t="s">
         <v>1612</v>
@@ -16444,7 +16455,7 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
     </row>
-    <row r="605" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1"/>
       <c r="B605" s="1" t="s">
         <v>1613</v>
@@ -16458,7 +16469,7 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
     </row>
-    <row r="606" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1"/>
       <c r="B606" s="1" t="s">
         <v>1614</v>
@@ -16472,7 +16483,7 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
     </row>
-    <row r="607" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1"/>
       <c r="B607" s="1" t="s">
         <v>1615</v>
@@ -16486,7 +16497,7 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
     </row>
-    <row r="608" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1"/>
       <c r="B608" s="1" t="s">
         <v>1616</v>
@@ -16500,7 +16511,7 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
     </row>
-    <row r="609" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>1617</v>
@@ -16514,7 +16525,7 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
     </row>
-    <row r="610" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1">
         <v>39</v>
       </c>
@@ -16524,7 +16535,7 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
     </row>
-    <row r="611" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1"/>
       <c r="B611" s="1" t="s">
         <v>1648</v>
@@ -16538,7 +16549,7 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
     </row>
-    <row r="612" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1"/>
       <c r="B612" s="1" t="s">
         <v>1621</v>
@@ -16552,7 +16563,7 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
     </row>
-    <row r="613" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1"/>
       <c r="B613" s="1" t="s">
         <v>1649</v>
@@ -16566,7 +16577,7 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
     </row>
-    <row r="614" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1"/>
       <c r="B614" s="1" t="s">
         <v>1650</v>
@@ -16580,7 +16591,7 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
     </row>
-    <row r="615" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1"/>
       <c r="B615" s="1" t="s">
         <v>1651</v>
@@ -16594,7 +16605,7 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
     </row>
-    <row r="616" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1"/>
       <c r="B616" s="1" t="s">
         <v>1629</v>
@@ -16608,7 +16619,7 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
     </row>
-    <row r="617" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1"/>
       <c r="B617" s="1" t="s">
         <v>1652</v>
@@ -16622,7 +16633,7 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
     </row>
-    <row r="618" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1"/>
       <c r="B618" s="1" t="s">
         <v>1653</v>
@@ -16636,7 +16647,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1"/>
       <c r="B619" s="1" t="s">
         <v>1654</v>
@@ -16650,7 +16661,7 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
     </row>
-    <row r="620" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1"/>
       <c r="B620" s="1" t="s">
         <v>1655</v>
@@ -16664,7 +16675,7 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
     </row>
-    <row r="621" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1"/>
       <c r="B621" s="1" t="s">
         <v>1656</v>
@@ -16678,7 +16689,7 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
     </row>
-    <row r="622" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1"/>
       <c r="B622" s="1" t="s">
         <v>1657</v>
@@ -16692,7 +16703,7 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
     </row>
-    <row r="623" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
         <v>1658</v>
@@ -16706,7 +16717,7 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
     </row>
-    <row r="624" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1"/>
       <c r="B624" s="1" t="s">
         <v>1659</v>
@@ -16720,7 +16731,7 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
     </row>
-    <row r="625" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1"/>
       <c r="B625" s="1" t="s">
         <v>1660</v>
@@ -16734,7 +16745,7 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
     </row>
-    <row r="626" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1">
         <v>40</v>
       </c>
@@ -16744,7 +16755,7 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
     </row>
-    <row r="627" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
         <v>1690</v>
@@ -16758,7 +16769,7 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
     </row>
-    <row r="628" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
         <v>1664</v>
@@ -16770,11 +16781,11 @@
         <v>1663</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="F628" s="1"/>
     </row>
-    <row r="629" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="1"/>
       <c r="B629" s="1" t="s">
         <v>1666</v>
@@ -16786,11 +16797,11 @@
         <v>1665</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="F629" s="1"/>
     </row>
-    <row r="630" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>1691</v>
@@ -16802,11 +16813,11 @@
         <v>1667</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="F630" s="1"/>
     </row>
-    <row r="631" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1"/>
       <c r="B631" s="1" t="s">
         <v>1692</v>
@@ -16820,7 +16831,7 @@
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
     </row>
-    <row r="632" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
         <v>1693</v>
@@ -16834,7 +16845,7 @@
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
     </row>
-    <row r="633" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1"/>
       <c r="B633" s="1" t="s">
         <v>1694</v>
@@ -16848,7 +16859,7 @@
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
     </row>
-    <row r="634" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
         <v>1695</v>
@@ -16860,11 +16871,11 @@
         <v>1675</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="F634" s="1"/>
     </row>
-    <row r="635" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1"/>
       <c r="B635" s="1" t="s">
         <v>1677</v>
@@ -16876,11 +16887,11 @@
         <v>1675</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="F635" s="1"/>
     </row>
-    <row r="636" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="s">
         <v>1679</v>
@@ -16892,11 +16903,11 @@
         <v>1678</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="F636" s="1"/>
     </row>
-    <row r="637" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1"/>
       <c r="B637" s="1" t="s">
         <v>1696</v>
@@ -16910,7 +16921,7 @@
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
     </row>
-    <row r="638" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1"/>
       <c r="B638" s="1" t="s">
         <v>1683</v>
@@ -16924,7 +16935,7 @@
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
     </row>
-    <row r="639" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1"/>
       <c r="B639" s="1" t="s">
         <v>1685</v>
@@ -16938,7 +16949,7 @@
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
     </row>
-    <row r="640" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1"/>
       <c r="B640" s="1" t="s">
         <v>1697</v>
@@ -16952,7 +16963,7 @@
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
     </row>
-    <row r="641" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1"/>
       <c r="B641" s="1" t="s">
         <v>1689</v>
@@ -16966,7 +16977,7 @@
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
     </row>
-    <row r="642" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1">
         <v>41</v>
       </c>
@@ -16976,7 +16987,7 @@
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
     </row>
-    <row r="643" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="s">
         <v>1728</v>
@@ -16990,7 +17001,7 @@
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
     </row>
-    <row r="644" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1"/>
       <c r="B644" s="1" t="s">
         <v>1729</v>
@@ -17004,7 +17015,7 @@
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
     </row>
-    <row r="645" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="s">
         <v>1730</v>
@@ -17018,7 +17029,7 @@
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
     </row>
-    <row r="646" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>1731</v>
@@ -17032,7 +17043,7 @@
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
     </row>
-    <row r="647" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1"/>
       <c r="B647" s="1" t="s">
         <v>1707</v>
@@ -17046,7 +17057,7 @@
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
     </row>
-    <row r="648" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1"/>
       <c r="B648" s="1" t="s">
         <v>1709</v>
@@ -17060,7 +17071,7 @@
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
     </row>
-    <row r="649" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1"/>
       <c r="B649" s="1" t="s">
         <v>1711</v>
@@ -17074,7 +17085,7 @@
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
     </row>
-    <row r="650" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1"/>
       <c r="B650" s="1" t="s">
         <v>1732</v>
@@ -17088,7 +17099,7 @@
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
     </row>
-    <row r="651" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1"/>
       <c r="B651" s="1" t="s">
         <v>1733</v>
@@ -17102,7 +17113,7 @@
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
     </row>
-    <row r="652" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1"/>
       <c r="B652" s="1" t="s">
         <v>1734</v>
@@ -17116,7 +17127,7 @@
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
     </row>
-    <row r="653" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1"/>
       <c r="B653" s="1" t="s">
         <v>1719</v>
@@ -17130,7 +17141,7 @@
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
     </row>
-    <row r="654" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1"/>
       <c r="B654" s="1" t="s">
         <v>1735</v>
@@ -17144,7 +17155,7 @@
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
     </row>
-    <row r="655" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1"/>
       <c r="B655" s="1" t="s">
         <v>1736</v>
@@ -17158,7 +17169,7 @@
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
     </row>
-    <row r="656" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1"/>
       <c r="B656" s="1" t="s">
         <v>1725</v>
@@ -17172,7 +17183,7 @@
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
     </row>
-    <row r="657" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1"/>
       <c r="B657" s="1" t="s">
         <v>1737</v>
@@ -17186,7 +17197,7 @@
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
     </row>
-    <row r="658" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1">
         <v>42</v>
       </c>
@@ -17196,7 +17207,7 @@
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
     </row>
-    <row r="659" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1"/>
       <c r="B659" s="1" t="s">
         <v>1739</v>
@@ -17210,7 +17221,7 @@
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
     </row>
-    <row r="660" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>1741</v>
@@ -17224,7 +17235,7 @@
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
     </row>
-    <row r="661" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1"/>
       <c r="B661" s="1" t="s">
         <v>1743</v>
@@ -17238,7 +17249,7 @@
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
     </row>
-    <row r="662" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>1768</v>
@@ -17252,7 +17263,7 @@
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
     </row>
-    <row r="663" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1"/>
       <c r="B663" s="1" t="s">
         <v>1747</v>
@@ -17266,7 +17277,7 @@
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
     </row>
-    <row r="664" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1"/>
       <c r="B664" s="1" t="s">
         <v>1769</v>
@@ -17280,7 +17291,7 @@
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
     </row>
-    <row r="665" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1"/>
       <c r="B665" s="1" t="s">
         <v>1770</v>
@@ -17294,7 +17305,7 @@
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
     </row>
-    <row r="666" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1"/>
       <c r="B666" s="1" t="s">
         <v>1771</v>
@@ -17308,7 +17319,7 @@
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
     </row>
-    <row r="667" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>1772</v>
@@ -17322,7 +17333,7 @@
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
     </row>
-    <row r="668" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1"/>
       <c r="B668" s="1" t="s">
         <v>1757</v>
@@ -17336,7 +17347,7 @@
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
     </row>
-    <row r="669" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1"/>
       <c r="B669" s="1" t="s">
         <v>1759</v>
@@ -17350,7 +17361,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
     </row>
-    <row r="670" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>1761</v>
@@ -17364,7 +17375,7 @@
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
     </row>
-    <row r="671" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1"/>
       <c r="B671" s="1" t="s">
         <v>1763</v>
@@ -17378,7 +17389,7 @@
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
     </row>
-    <row r="672" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>1773</v>
@@ -17392,7 +17403,7 @@
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
     </row>
-    <row r="673" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1"/>
       <c r="B673" s="1" t="s">
         <v>1767</v>
@@ -17406,7 +17417,7 @@
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
     </row>
-    <row r="674" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1">
         <v>43</v>
       </c>
@@ -17416,7 +17427,7 @@
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
     </row>
-    <row r="675" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1"/>
       <c r="B675" s="1" t="s">
         <v>1775</v>
@@ -17430,7 +17441,7 @@
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
     </row>
-    <row r="676" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1"/>
       <c r="B676" s="1" t="s">
         <v>1777</v>
@@ -17444,7 +17455,7 @@
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
     </row>
-    <row r="677" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1"/>
       <c r="B677" s="1" t="s">
         <v>1804</v>
@@ -17458,7 +17469,7 @@
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
     </row>
-    <row r="678" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1"/>
       <c r="B678" s="1" t="s">
         <v>1805</v>
@@ -17472,7 +17483,7 @@
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
     </row>
-    <row r="679" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1"/>
       <c r="B679" s="1" t="s">
         <v>1806</v>
@@ -17486,7 +17497,7 @@
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
     </row>
-    <row r="680" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1"/>
       <c r="B680" s="1" t="s">
         <v>1807</v>
@@ -17500,7 +17511,7 @@
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
     </row>
-    <row r="681" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
         <v>1808</v>
@@ -17514,7 +17525,7 @@
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
     </row>
-    <row r="682" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="1"/>
       <c r="B682" s="1" t="s">
         <v>1809</v>
@@ -17528,7 +17539,7 @@
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
     </row>
-    <row r="683" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="1"/>
       <c r="B683" s="1" t="s">
         <v>1810</v>
@@ -17542,7 +17553,7 @@
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
     </row>
-    <row r="684" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1"/>
       <c r="B684" s="1" t="s">
         <v>1811</v>
@@ -17556,7 +17567,7 @@
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
     </row>
-    <row r="685" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1"/>
       <c r="B685" s="1" t="s">
         <v>1812</v>
@@ -17570,7 +17581,7 @@
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
     </row>
-    <row r="686" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1"/>
       <c r="B686" s="1" t="s">
         <v>1813</v>
@@ -17584,7 +17595,7 @@
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
     </row>
-    <row r="687" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1"/>
       <c r="B687" s="1" t="s">
         <v>1814</v>
@@ -17598,7 +17609,7 @@
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
     </row>
-    <row r="688" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1"/>
       <c r="B688" s="1" t="s">
         <v>1815</v>
@@ -17612,7 +17623,7 @@
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
     </row>
-    <row r="689" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
         <v>1816</v>
@@ -17626,7 +17637,7 @@
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
     </row>
-    <row r="690" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1">
         <v>44</v>
       </c>
@@ -17636,7 +17647,7 @@
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
     </row>
-    <row r="691" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1"/>
       <c r="B691" s="1" t="s">
         <v>1846</v>
@@ -17650,7 +17661,7 @@
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
     </row>
-    <row r="692" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1"/>
       <c r="B692" s="1" t="s">
         <v>1847</v>
@@ -17664,7 +17675,7 @@
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
     </row>
-    <row r="693" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1"/>
       <c r="B693" s="1" t="s">
         <v>1848</v>
@@ -17678,7 +17689,7 @@
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
     </row>
-    <row r="694" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1"/>
       <c r="B694" s="1" t="s">
         <v>1849</v>
@@ -17692,7 +17703,7 @@
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
     </row>
-    <row r="695" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1"/>
       <c r="B695" s="1" t="s">
         <v>1850</v>
@@ -17706,7 +17717,7 @@
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
     </row>
-    <row r="696" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1"/>
       <c r="B696" s="1" t="s">
         <v>1851</v>
@@ -17720,7 +17731,7 @@
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
     </row>
-    <row r="697" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1"/>
       <c r="B697" s="1" t="s">
         <v>1852</v>
@@ -17734,7 +17745,7 @@
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
     </row>
-    <row r="698" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="s">
         <v>1853</v>
@@ -17748,13 +17759,13 @@
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
     </row>
-    <row r="699" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="699" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="1"/>
       <c r="B699" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>1833</v>
@@ -17762,7 +17773,7 @@
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
     </row>
-    <row r="700" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="700" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>1855</v>
@@ -17776,7 +17787,7 @@
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
     </row>
-    <row r="701" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="701" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1"/>
       <c r="B701" s="1" t="s">
         <v>1856</v>
@@ -17790,7 +17801,7 @@
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
     </row>
-    <row r="702" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="702" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1"/>
       <c r="B702" s="1" t="s">
         <v>1857</v>
@@ -17804,7 +17815,7 @@
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
     </row>
-    <row r="703" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="703" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1"/>
       <c r="B703" s="1" t="s">
         <v>1858</v>
@@ -17818,7 +17829,7 @@
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
     </row>
-    <row r="704" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="704" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1"/>
       <c r="B704" s="1" t="s">
         <v>1859</v>
@@ -17832,7 +17843,7 @@
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
     </row>
-    <row r="705" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="705" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1"/>
       <c r="B705" s="1" t="s">
         <v>1860</v>
@@ -17846,7 +17857,7 @@
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
     </row>
-    <row r="706" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="706" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1">
         <v>45</v>
       </c>
@@ -17856,7 +17867,7 @@
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
     </row>
-    <row r="707" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="707" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1"/>
       <c r="B707" s="1" t="s">
         <v>1891</v>
@@ -17870,7 +17881,7 @@
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
     </row>
-    <row r="708" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="708" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1"/>
       <c r="B708" s="1" t="s">
         <v>1892</v>
@@ -17884,7 +17895,7 @@
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
     </row>
-    <row r="709" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="709" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1"/>
       <c r="B709" s="1" t="s">
         <v>1893</v>
@@ -17898,7 +17909,7 @@
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
     </row>
-    <row r="710" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="710" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1"/>
       <c r="B710" s="1" t="s">
         <v>1894</v>
@@ -17912,7 +17923,7 @@
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
     </row>
-    <row r="711" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="711" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="1"/>
       <c r="B711" s="1" t="s">
         <v>1895</v>
@@ -17926,7 +17937,7 @@
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
     </row>
-    <row r="712" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="712" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1"/>
       <c r="B712" s="1" t="s">
         <v>1896</v>
@@ -17940,7 +17951,7 @@
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
     </row>
-    <row r="713" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="713" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1"/>
       <c r="B713" s="1" t="s">
         <v>1897</v>
@@ -17954,7 +17965,7 @@
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
     </row>
-    <row r="714" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="714" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1"/>
       <c r="B714" s="1" t="s">
         <v>1898</v>
@@ -17968,7 +17979,7 @@
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
     </row>
-    <row r="715" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="715" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1"/>
       <c r="B715" s="1" t="s">
         <v>1899</v>
@@ -17982,7 +17993,7 @@
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
     </row>
-    <row r="716" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="716" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1"/>
       <c r="B716" s="1" t="s">
         <v>1900</v>
@@ -17996,7 +18007,7 @@
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
     </row>
-    <row r="717" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="717" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1"/>
       <c r="B717" s="1" t="s">
         <v>1901</v>
@@ -18010,7 +18021,7 @@
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
     </row>
-    <row r="718" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="718" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1"/>
       <c r="B718" s="1" t="s">
         <v>1902</v>
@@ -18024,7 +18035,7 @@
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
     </row>
-    <row r="719" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="719" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1"/>
       <c r="B719" s="1" t="s">
         <v>1903</v>
@@ -18038,7 +18049,7 @@
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
     </row>
-    <row r="720" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="720" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1"/>
       <c r="B720" s="1" t="s">
         <v>1904</v>
@@ -18052,7 +18063,7 @@
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
     </row>
-    <row r="721" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="721" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1"/>
       <c r="B721" s="1" t="s">
         <v>1905</v>
@@ -18066,7 +18077,7 @@
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
     </row>
-    <row r="722" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="722" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>46</v>
       </c>
@@ -18076,7 +18087,7 @@
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
     </row>
-    <row r="723" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="723" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1"/>
       <c r="B723" s="1" t="s">
         <v>1936</v>
@@ -18090,7 +18101,7 @@
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
     </row>
-    <row r="724" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="724" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1"/>
       <c r="B724" s="1" t="s">
         <v>1937</v>
@@ -18104,7 +18115,7 @@
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
     </row>
-    <row r="725" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="725" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1"/>
       <c r="B725" s="1" t="s">
         <v>1938</v>
@@ -18118,7 +18129,7 @@
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
     </row>
-    <row r="726" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="726" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1"/>
       <c r="B726" s="1" t="s">
         <v>1939</v>
@@ -18132,7 +18143,7 @@
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
     </row>
-    <row r="727" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="727" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1"/>
       <c r="B727" s="1" t="s">
         <v>1940</v>
@@ -18146,7 +18157,7 @@
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
     </row>
-    <row r="728" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="728" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1"/>
       <c r="B728" s="1" t="s">
         <v>1941</v>
@@ -18160,7 +18171,7 @@
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
     </row>
-    <row r="729" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="729" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1"/>
       <c r="B729" s="1" t="s">
         <v>1942</v>
@@ -18174,7 +18185,7 @@
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
     </row>
-    <row r="730" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="730" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1"/>
       <c r="B730" s="1" t="s">
         <v>1943</v>
@@ -18188,7 +18199,7 @@
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
     </row>
-    <row r="731" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="731" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1"/>
       <c r="B731" s="1" t="s">
         <v>1944</v>
@@ -18202,7 +18213,7 @@
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
     </row>
-    <row r="732" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="732" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1"/>
       <c r="B732" s="1" t="s">
         <v>1945</v>
@@ -18216,7 +18227,7 @@
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
     </row>
-    <row r="733" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="733" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1"/>
       <c r="B733" s="1" t="s">
         <v>1946</v>
@@ -18230,7 +18241,7 @@
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
     </row>
-    <row r="734" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="734" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1"/>
       <c r="B734" s="1" t="s">
         <v>1947</v>
@@ -18244,7 +18255,7 @@
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
     </row>
-    <row r="735" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="735" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1"/>
       <c r="B735" s="1" t="s">
         <v>1948</v>
@@ -18258,7 +18269,7 @@
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
     </row>
-    <row r="736" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="736" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1"/>
       <c r="B736" s="1" t="s">
         <v>1949</v>
@@ -18272,7 +18283,7 @@
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
     </row>
-    <row r="737" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="737" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1"/>
       <c r="B737" s="1" t="s">
         <v>1950</v>
@@ -18286,7 +18297,7 @@
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
     </row>
-    <row r="738" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="738" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
         <v>47</v>
       </c>
@@ -18296,7 +18307,7 @@
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
     </row>
-    <row r="739" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="739" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1"/>
       <c r="B739" s="1" t="s">
         <v>1981</v>
@@ -18310,7 +18321,7 @@
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
     </row>
-    <row r="740" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="740" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1"/>
       <c r="B740" s="1" t="s">
         <v>1982</v>
@@ -18324,7 +18335,7 @@
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
     </row>
-    <row r="741" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="741" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1"/>
       <c r="B741" s="1" t="s">
         <v>1983</v>
@@ -18338,7 +18349,7 @@
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
     </row>
-    <row r="742" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="742" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1"/>
       <c r="B742" s="1" t="s">
         <v>1984</v>
@@ -18352,7 +18363,7 @@
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
     </row>
-    <row r="743" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="743" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1"/>
       <c r="B743" s="1" t="s">
         <v>1985</v>
@@ -18366,7 +18377,7 @@
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
     </row>
-    <row r="744" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="744" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1"/>
       <c r="B744" s="1" t="s">
         <v>1986</v>
@@ -18380,7 +18391,7 @@
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
     </row>
-    <row r="745" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="745" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1"/>
       <c r="B745" s="1" t="s">
         <v>1987</v>
@@ -18394,7 +18405,7 @@
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
     </row>
-    <row r="746" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="746" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1"/>
       <c r="B746" s="1" t="s">
         <v>1988</v>
@@ -18408,7 +18419,7 @@
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
     </row>
-    <row r="747" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="747" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1"/>
       <c r="B747" s="1" t="s">
         <v>1989</v>
@@ -18422,7 +18433,7 @@
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
     </row>
-    <row r="748" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="748" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1"/>
       <c r="B748" s="1" t="s">
         <v>1990</v>
@@ -18436,7 +18447,7 @@
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
     </row>
-    <row r="749" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="749" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1"/>
       <c r="B749" s="1" t="s">
         <v>1991</v>
@@ -18450,7 +18461,7 @@
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
     </row>
-    <row r="750" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="750" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1"/>
       <c r="B750" s="1" t="s">
         <v>1992</v>
@@ -18464,7 +18475,7 @@
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
     </row>
-    <row r="751" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="751" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="1"/>
       <c r="B751" s="1" t="s">
         <v>1993</v>
@@ -18478,7 +18489,7 @@
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
     </row>
-    <row r="752" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="752" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1"/>
       <c r="B752" s="1" t="s">
         <v>1994</v>
@@ -18492,7 +18503,7 @@
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
     </row>
-    <row r="753" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="753" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1"/>
       <c r="B753" s="1" t="s">
         <v>1995</v>
@@ -18506,7 +18517,7 @@
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
     </row>
-    <row r="754" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="754" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1">
         <v>48</v>
       </c>
@@ -18516,7 +18527,7 @@
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
     </row>
-    <row r="755" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="755" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1"/>
       <c r="B755" s="1" t="s">
         <v>2025</v>
@@ -18530,7 +18541,7 @@
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
     </row>
-    <row r="756" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="756" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1"/>
       <c r="B756" s="1" t="s">
         <v>2026</v>
@@ -18544,7 +18555,7 @@
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
     </row>
-    <row r="757" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="757" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1"/>
       <c r="B757" s="1" t="s">
         <v>2027</v>
@@ -18558,7 +18569,7 @@
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
     </row>
-    <row r="758" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="758" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1"/>
       <c r="B758" s="1" t="s">
         <v>2028</v>
@@ -18572,7 +18583,7 @@
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
     </row>
-    <row r="759" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="759" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1"/>
       <c r="B759" s="1" t="s">
         <v>2029</v>
@@ -18586,7 +18597,7 @@
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
     </row>
-    <row r="760" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="760" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1"/>
       <c r="B760" s="1" t="s">
         <v>2030</v>
@@ -18600,7 +18611,7 @@
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
     </row>
-    <row r="761" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="761" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1"/>
       <c r="B761" s="1" t="s">
         <v>2031</v>
@@ -18614,7 +18625,7 @@
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
     </row>
-    <row r="762" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="762" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1"/>
       <c r="B762" s="1" t="s">
         <v>2032</v>
@@ -18628,7 +18639,7 @@
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
     </row>
-    <row r="763" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="763" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1"/>
       <c r="B763" s="1" t="s">
         <v>2033</v>
@@ -18642,7 +18653,7 @@
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
     </row>
-    <row r="764" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="764" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1"/>
       <c r="B764" s="1" t="s">
         <v>2034</v>
@@ -18656,7 +18667,7 @@
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
     </row>
-    <row r="765" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="765" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1"/>
       <c r="B765" s="1" t="s">
         <v>2035</v>
@@ -18670,7 +18681,7 @@
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
     </row>
-    <row r="766" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="766" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="1"/>
       <c r="B766" s="1" t="s">
         <v>2036</v>
@@ -18684,7 +18695,7 @@
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
     </row>
-    <row r="767" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="767" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="1"/>
       <c r="B767" s="1" t="s">
         <v>2037</v>
@@ -18698,7 +18709,7 @@
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
     </row>
-    <row r="768" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="768" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="1"/>
       <c r="B768" s="1" t="s">
         <v>2038</v>
@@ -18712,7 +18723,7 @@
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
     </row>
-    <row r="769" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="769" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="1"/>
       <c r="B769" s="1" t="s">
         <v>2039</v>
@@ -18726,7 +18737,7 @@
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
     </row>
-    <row r="770" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="770" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="1">
         <v>49</v>
       </c>
@@ -18736,7 +18747,7 @@
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
     </row>
-    <row r="771" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="771" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="1"/>
       <c r="B771" s="1" t="s">
         <v>2064</v>
@@ -18750,7 +18761,7 @@
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
     </row>
-    <row r="772" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="772" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="1"/>
       <c r="B772" s="1" t="s">
         <v>2065</v>
@@ -18764,7 +18775,7 @@
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
     </row>
-    <row r="773" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="773" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="1"/>
       <c r="B773" s="1" t="s">
         <v>2066</v>
@@ -18778,7 +18789,7 @@
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
     </row>
-    <row r="774" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="774" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="1"/>
       <c r="B774" s="1" t="s">
         <v>2067</v>
@@ -18792,7 +18803,7 @@
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
     </row>
-    <row r="775" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="775" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="1"/>
       <c r="B775" s="1" t="s">
         <v>2068</v>
@@ -18806,7 +18817,7 @@
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
     </row>
-    <row r="776" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="776" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="1"/>
       <c r="B776" s="1" t="s">
         <v>2069</v>
@@ -18820,7 +18831,7 @@
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
     </row>
-    <row r="777" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="777" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="1"/>
       <c r="B777" s="1" t="s">
         <v>2070</v>
@@ -18834,7 +18845,7 @@
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
     </row>
-    <row r="778" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="778" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="1"/>
       <c r="B778" s="1" t="s">
         <v>2071</v>
@@ -18848,7 +18859,7 @@
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
     </row>
-    <row r="779" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="779" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="1"/>
       <c r="B779" s="1" t="s">
         <v>2072</v>
@@ -18862,7 +18873,7 @@
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
     </row>
-    <row r="780" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="780" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="1"/>
       <c r="B780" s="1" t="s">
         <v>2073</v>
@@ -18876,7 +18887,7 @@
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
     </row>
-    <row r="781" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="781" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="1"/>
       <c r="B781" s="1" t="s">
         <v>2074</v>
@@ -18890,7 +18901,7 @@
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
     </row>
-    <row r="782" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="782" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="1"/>
       <c r="B782" s="1" t="s">
         <v>2075</v>
@@ -18904,7 +18915,7 @@
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
     </row>
-    <row r="783" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="783" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="1"/>
       <c r="B783" s="1" t="s">
         <v>2076</v>
@@ -18918,7 +18929,7 @@
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
     </row>
-    <row r="784" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="784" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="1"/>
       <c r="B784" s="1" t="s">
         <v>2077</v>
@@ -18932,7 +18943,7 @@
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
     </row>
-    <row r="785" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="785" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="1"/>
       <c r="B785" s="1" t="s">
         <v>2078</v>
@@ -18946,7 +18957,7 @@
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
     </row>
-    <row r="786" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="786" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="1">
         <v>50</v>
       </c>
@@ -18956,7 +18967,7 @@
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
     </row>
-    <row r="787" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="787" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="1"/>
       <c r="B787" s="1" t="s">
         <v>2109</v>
@@ -18970,7 +18981,7 @@
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
     </row>
-    <row r="788" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="788" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="1"/>
       <c r="B788" s="1" t="s">
         <v>2110</v>
@@ -18984,7 +18995,7 @@
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
     </row>
-    <row r="789" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="789" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="1"/>
       <c r="B789" s="1" t="s">
         <v>2111</v>
@@ -18998,7 +19009,7 @@
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
     </row>
-    <row r="790" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="790" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="1"/>
       <c r="B790" s="1" t="s">
         <v>2112</v>
@@ -19012,7 +19023,7 @@
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
     </row>
-    <row r="791" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="791" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="1"/>
       <c r="B791" s="1" t="s">
         <v>2113</v>
@@ -19026,7 +19037,7 @@
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
     </row>
-    <row r="792" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="792" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="1"/>
       <c r="B792" s="1" t="s">
         <v>2114</v>
@@ -19040,7 +19051,7 @@
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
     </row>
-    <row r="793" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="793" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="1"/>
       <c r="B793" s="1" t="s">
         <v>2115</v>
@@ -19054,7 +19065,7 @@
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
     </row>
-    <row r="794" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="794" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="1"/>
       <c r="B794" s="1" t="s">
         <v>2116</v>
@@ -19068,7 +19079,7 @@
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
     </row>
-    <row r="795" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="795" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="1"/>
       <c r="B795" s="1" t="s">
         <v>2117</v>
@@ -19082,7 +19093,7 @@
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
     </row>
-    <row r="796" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="796" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="1"/>
       <c r="B796" s="1" t="s">
         <v>2118</v>
@@ -19096,7 +19107,7 @@
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
     </row>
-    <row r="797" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="797" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="1"/>
       <c r="B797" s="1" t="s">
         <v>2119</v>
@@ -19110,7 +19121,7 @@
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
     </row>
-    <row r="798" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="798" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="1"/>
       <c r="B798" s="1" t="s">
         <v>2120</v>
@@ -19124,7 +19135,7 @@
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
     </row>
-    <row r="799" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="799" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="1"/>
       <c r="B799" s="1" t="s">
         <v>2121</v>
@@ -19138,7 +19149,7 @@
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
     </row>
-    <row r="800" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="800" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="1"/>
       <c r="B800" s="1" t="s">
         <v>2122</v>
@@ -19152,7 +19163,7 @@
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
     </row>
-    <row r="801" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="801" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="1"/>
       <c r="B801" s="1" t="s">
         <v>2123</v>
@@ -19166,7 +19177,7 @@
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
     </row>
-    <row r="802" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="802" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="1">
         <v>51</v>
       </c>
@@ -19176,7 +19187,7 @@
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
     </row>
-    <row r="803" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="803" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="1"/>
       <c r="B803" s="1" t="s">
         <v>2153</v>
@@ -19190,7 +19201,7 @@
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
     </row>
-    <row r="804" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="804" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="1"/>
       <c r="B804" s="1" t="s">
         <v>2154</v>
@@ -19204,7 +19215,7 @@
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
     </row>
-    <row r="805" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="805" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="1"/>
       <c r="B805" s="1" t="s">
         <v>2155</v>
@@ -19218,7 +19229,7 @@
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
     </row>
-    <row r="806" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="806" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="1"/>
       <c r="B806" s="1" t="s">
         <v>2156</v>
@@ -19232,7 +19243,7 @@
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
     </row>
-    <row r="807" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="807" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="1"/>
       <c r="B807" s="1" t="s">
         <v>2157</v>
@@ -19246,7 +19257,7 @@
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
     </row>
-    <row r="808" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="808" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="1"/>
       <c r="B808" s="1" t="s">
         <v>2135</v>
@@ -19260,7 +19271,7 @@
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
     </row>
-    <row r="809" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="809" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="1"/>
       <c r="B809" s="1" t="s">
         <v>2158</v>
@@ -19274,7 +19285,7 @@
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
     </row>
-    <row r="810" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="810" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="1"/>
       <c r="B810" s="1" t="s">
         <v>2139</v>
@@ -19288,7 +19299,7 @@
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
     </row>
-    <row r="811" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="811" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="1"/>
       <c r="B811" s="1" t="s">
         <v>2159</v>
@@ -19302,7 +19313,7 @@
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
     </row>
-    <row r="812" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="812" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="1"/>
       <c r="B812" s="1" t="s">
         <v>2160</v>
@@ -19316,7 +19327,7 @@
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
     </row>
-    <row r="813" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="813" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="1"/>
       <c r="B813" s="1" t="s">
         <v>2161</v>
@@ -19330,7 +19341,7 @@
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
     </row>
-    <row r="814" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="814" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="1"/>
       <c r="B814" s="1" t="s">
         <v>2162</v>
@@ -19344,7 +19355,7 @@
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
     </row>
-    <row r="815" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="815" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="1"/>
       <c r="B815" s="1" t="s">
         <v>2163</v>
@@ -19358,7 +19369,7 @@
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
     </row>
-    <row r="816" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="816" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="1"/>
       <c r="B816" s="1" t="s">
         <v>2164</v>
@@ -19372,7 +19383,7 @@
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
     </row>
-    <row r="817" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="817" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="1"/>
       <c r="B817" s="1" t="s">
         <v>2165</v>
@@ -19386,7 +19397,7 @@
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
     </row>
-    <row r="818" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="818" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="1">
         <v>52</v>
       </c>
@@ -19396,7 +19407,7 @@
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
     </row>
-    <row r="819" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="819" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="1"/>
       <c r="B819" s="1" t="s">
         <v>2194</v>
@@ -19410,7 +19421,7 @@
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
     </row>
-    <row r="820" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="820" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="1"/>
       <c r="B820" s="1" t="s">
         <v>2195</v>
@@ -19424,7 +19435,7 @@
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
     </row>
-    <row r="821" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="821" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="1"/>
       <c r="B821" s="1" t="s">
         <v>2196</v>
@@ -19438,7 +19449,7 @@
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
     </row>
-    <row r="822" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="822" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="1"/>
       <c r="B822" s="1" t="s">
         <v>2171</v>
@@ -19452,7 +19463,7 @@
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
     </row>
-    <row r="823" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="823" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="1"/>
       <c r="B823" s="1" t="s">
         <v>2173</v>
@@ -19466,7 +19477,7 @@
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
     </row>
-    <row r="824" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="824" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="1"/>
       <c r="B824" s="1" t="s">
         <v>2175</v>
@@ -19480,7 +19491,7 @@
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
     </row>
-    <row r="825" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="825" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="1"/>
       <c r="B825" s="1" t="s">
         <v>2197</v>
@@ -19494,7 +19505,7 @@
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
     </row>
-    <row r="826" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="826" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="1"/>
       <c r="B826" s="1" t="s">
         <v>2198</v>
@@ -19508,7 +19519,7 @@
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
     </row>
-    <row r="827" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="827" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="1"/>
       <c r="B827" s="1" t="s">
         <v>2199</v>
@@ -19522,7 +19533,7 @@
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
     </row>
-    <row r="828" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="828" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="1"/>
       <c r="B828" s="1" t="s">
         <v>2183</v>
@@ -19536,7 +19547,7 @@
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
     </row>
-    <row r="829" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="829" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="1"/>
       <c r="B829" s="1" t="s">
         <v>2185</v>
@@ -19550,7 +19561,7 @@
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
     </row>
-    <row r="830" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="830" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="1"/>
       <c r="B830" s="1" t="s">
         <v>2200</v>
@@ -19564,7 +19575,7 @@
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
     </row>
-    <row r="831" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="831" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="1"/>
       <c r="B831" s="1" t="s">
         <v>2201</v>
@@ -19578,7 +19589,7 @@
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
     </row>
-    <row r="832" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="832" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="1"/>
       <c r="B832" s="1" t="s">
         <v>2202</v>
@@ -19592,7 +19603,7 @@
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
     </row>
-    <row r="833" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="833" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="1"/>
       <c r="B833" s="1" t="s">
         <v>2203</v>
@@ -19606,7 +19617,7 @@
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
     </row>
-    <row r="834" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="834" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="1">
         <v>53</v>
       </c>
@@ -19616,10 +19627,10 @@
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
     </row>
-    <row r="835" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="835" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2205</v>
@@ -19630,7 +19641,7 @@
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
     </row>
-    <row r="836" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="836" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="1"/>
       <c r="B836" s="1" t="s">
         <v>2231</v>
@@ -19644,7 +19655,7 @@
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
     </row>
-    <row r="837" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="837" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="1"/>
       <c r="B837" s="1" t="s">
         <v>2232</v>
@@ -19658,7 +19669,7 @@
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
     </row>
-    <row r="838" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="838" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="1"/>
       <c r="B838" s="1" t="s">
         <v>2233</v>
@@ -19672,7 +19683,7 @@
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
     </row>
-    <row r="839" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="839" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="1"/>
       <c r="B839" s="1" t="s">
         <v>2234</v>
@@ -19686,7 +19697,7 @@
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
     </row>
-    <row r="840" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="840" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="1"/>
       <c r="B840" s="1" t="s">
         <v>2235</v>
@@ -19700,7 +19711,7 @@
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
     </row>
-    <row r="841" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="841" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="1"/>
       <c r="B841" s="1" t="s">
         <v>2236</v>
@@ -19714,7 +19725,7 @@
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
     </row>
-    <row r="842" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="842" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="1"/>
       <c r="B842" s="1" t="s">
         <v>2237</v>
@@ -19728,7 +19739,7 @@
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
     </row>
-    <row r="843" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="843" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="1"/>
       <c r="B843" s="1" t="s">
         <v>2238</v>
@@ -19742,7 +19753,7 @@
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
     </row>
-    <row r="844" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="844" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="1"/>
       <c r="B844" s="1" t="s">
         <v>2239</v>
@@ -19756,7 +19767,7 @@
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
     </row>
-    <row r="845" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="845" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="1"/>
       <c r="B845" s="1" t="s">
         <v>2240</v>
@@ -19770,7 +19781,7 @@
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
     </row>
-    <row r="846" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="846" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="1"/>
       <c r="B846" s="1" t="s">
         <v>2241</v>
@@ -19784,7 +19795,7 @@
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
     </row>
-    <row r="847" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="847" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="1"/>
       <c r="B847" s="1" t="s">
         <v>2242</v>
@@ -19798,7 +19809,7 @@
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
     </row>
-    <row r="848" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="848" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="1"/>
       <c r="B848" s="1" t="s">
         <v>2228</v>
@@ -19812,7 +19823,7 @@
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
     </row>
-    <row r="849" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="849" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="1"/>
       <c r="B849" s="1" t="s">
         <v>2230</v>
@@ -19826,7 +19837,7 @@
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
     </row>
-    <row r="850" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="850" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="1">
         <v>54</v>
       </c>
@@ -19836,7 +19847,7 @@
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
     </row>
-    <row r="851" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="851" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="1"/>
       <c r="B851" s="1" t="s">
         <v>2244</v>
@@ -19850,7 +19861,7 @@
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
     </row>
-    <row r="852" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="852" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="1"/>
       <c r="B852" s="1" t="s">
         <v>2246</v>
@@ -19864,7 +19875,7 @@
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
     </row>
-    <row r="853" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="853" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="1"/>
       <c r="B853" s="1" t="s">
         <v>2248</v>
@@ -19878,7 +19889,7 @@
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="854" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="1"/>
       <c r="B854" s="1" t="s">
         <v>2250</v>
@@ -19892,7 +19903,7 @@
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
     </row>
-    <row r="855" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="855" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="1"/>
       <c r="B855" s="1" t="s">
         <v>2252</v>
@@ -19906,7 +19917,7 @@
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
     </row>
-    <row r="856" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="856" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="1"/>
       <c r="B856" s="1" t="s">
         <v>2254</v>
@@ -19920,7 +19931,7 @@
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
     </row>
-    <row r="857" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="857" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="1"/>
       <c r="B857" s="1" t="s">
         <v>2256</v>
@@ -19934,7 +19945,7 @@
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="858" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="1"/>
       <c r="B858" s="1" t="s">
         <v>2258</v>
@@ -19948,7 +19959,7 @@
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="859" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="1"/>
       <c r="B859" s="1" t="s">
         <v>2260</v>
@@ -19962,7 +19973,7 @@
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="860" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="1"/>
       <c r="B860" s="1" t="s">
         <v>2262</v>
@@ -19976,7 +19987,7 @@
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="861" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" s="1"/>
       <c r="B861" s="1" t="s">
         <v>2264</v>
@@ -19990,7 +20001,7 @@
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
     </row>
-    <row r="862" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="862" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" s="1"/>
       <c r="B862" s="1" t="s">
         <v>2266</v>
@@ -20004,7 +20015,7 @@
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
     </row>
-    <row r="863" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="863" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" s="1"/>
       <c r="B863" s="1" t="s">
         <v>2268</v>
@@ -20018,7 +20029,7 @@
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="864" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" s="1"/>
       <c r="B864" s="1" t="s">
         <v>2270</v>
@@ -20032,7 +20043,7 @@
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
     </row>
-    <row r="865" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="865" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" s="1"/>
       <c r="B865" s="1" t="s">
         <v>2272</v>
@@ -20046,7 +20057,7 @@
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
     </row>
-    <row r="866" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="866" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" s="1">
         <v>55</v>
       </c>
@@ -20056,27 +20067,27 @@
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
     </row>
-    <row r="867" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="867" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" s="1"/>
       <c r="B867" s="1" t="s">
-        <v>2274</v>
+        <v>2500</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>2274</v>
+        <v>2500</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>2273</v>
+        <v>2501</v>
       </c>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
     </row>
-    <row r="868" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="868" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" s="1"/>
       <c r="B868" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>670</v>
@@ -20084,55 +20095,55 @@
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
     </row>
-    <row r="869" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="869" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" s="1"/>
       <c r="B869" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
     </row>
-    <row r="870" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="870" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" s="1"/>
       <c r="B870" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
     </row>
-    <row r="871" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="871" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" s="1"/>
       <c r="B871" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
     </row>
-    <row r="872" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="872" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" s="1"/>
       <c r="B872" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>1105</v>
@@ -20140,133 +20151,133 @@
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
     </row>
-    <row r="873" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="873" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" s="1"/>
       <c r="B873" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
     </row>
-    <row r="874" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="874" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" s="1"/>
       <c r="B874" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
     </row>
-    <row r="875" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="875" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" s="1"/>
       <c r="B875" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
     </row>
-    <row r="876" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="876" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" s="1"/>
       <c r="B876" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
     </row>
-    <row r="877" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="877" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" s="1"/>
       <c r="B877" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
     </row>
-    <row r="878" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="878" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" s="1"/>
-      <c r="B878" s="1" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C878" s="1" t="s">
-        <v>2294</v>
+      <c r="B878" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C878" t="s">
+        <v>2502</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>2293</v>
+        <v>2503</v>
       </c>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
     </row>
-    <row r="879" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="879" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" s="1"/>
       <c r="B879" s="1" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
     </row>
-    <row r="880" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="880" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" s="1"/>
       <c r="B880" s="1" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
     </row>
-    <row r="881" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="881" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" s="1"/>
       <c r="B881" s="1" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
     </row>
-    <row r="882" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="882" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" s="1">
         <v>56</v>
       </c>
@@ -20276,164 +20287,164 @@
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
     </row>
-    <row r="883" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="883" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" s="1"/>
       <c r="B883" s="1" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
     </row>
-    <row r="884" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="884" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" s="1"/>
       <c r="B884" s="1" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
     </row>
-    <row r="885" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="885" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" s="1"/>
       <c r="B885" s="1" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
     </row>
-    <row r="886" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="886" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" s="1"/>
       <c r="B886" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="C886" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
     </row>
-    <row r="887" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="887" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" s="1"/>
       <c r="B887" s="1" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
     </row>
-    <row r="888" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="888" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" s="1"/>
       <c r="B888" s="1" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
     </row>
-    <row r="889" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="889" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
     </row>
-    <row r="890" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="890" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
     </row>
-    <row r="891" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="891" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
     </row>
-    <row r="892" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="892" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
     </row>
-    <row r="893" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="893" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
     </row>
-    <row r="894" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="894" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>1233</v>
@@ -20444,49 +20455,49 @@
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
     </row>
-    <row r="895" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="895" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
     </row>
-    <row r="896" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="896" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
     </row>
-    <row r="897" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="897" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
     </row>
-    <row r="898" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="898" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" s="1">
         <v>57</v>
       </c>
@@ -20496,209 +20507,209 @@
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
     </row>
-    <row r="899" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="899" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
     </row>
-    <row r="900" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="900" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
     </row>
-    <row r="901" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="901" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
     </row>
-    <row r="902" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="902" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
     </row>
-    <row r="903" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="903" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
     </row>
-    <row r="904" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="904" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
     </row>
-    <row r="905" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="905" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
     </row>
-    <row r="906" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="906" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" s="1"/>
       <c r="B906" s="1" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
     </row>
-    <row r="907" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="907" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" s="1"/>
       <c r="B907" s="1" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
     </row>
-    <row r="908" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="908" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" s="1"/>
       <c r="B908" s="1" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
     </row>
-    <row r="909" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="909" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" s="1"/>
       <c r="B909" s="1" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
     </row>
-    <row r="910" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="910" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" s="1"/>
       <c r="B910" s="1" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
     </row>
-    <row r="911" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="911" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" s="1"/>
       <c r="B911" s="1" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
     </row>
-    <row r="912" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="912" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" s="1"/>
       <c r="B912" s="1" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
     </row>
-    <row r="913" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="913" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" s="1"/>
       <c r="B913" s="1" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>1750</v>
@@ -20706,7 +20717,7 @@
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
     </row>
-    <row r="914" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="914" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" s="1">
         <v>58</v>
       </c>
@@ -20716,217 +20727,217 @@
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
     </row>
-    <row r="915" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="915" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" s="1"/>
       <c r="B915" s="1" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
     </row>
-    <row r="916" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="916" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" s="1"/>
       <c r="B916" s="1" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
     </row>
-    <row r="917" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="917" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" s="1"/>
       <c r="B917" s="1" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
     </row>
-    <row r="918" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="918" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" s="1"/>
       <c r="B918" s="1" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
     </row>
-    <row r="919" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="919" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" s="1"/>
       <c r="B919" s="1" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
     </row>
-    <row r="920" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="920" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" s="1"/>
       <c r="B920" s="1" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
     </row>
-    <row r="921" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="921" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" s="1"/>
       <c r="B921" s="1" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
     </row>
-    <row r="922" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="922" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" s="1"/>
       <c r="B922" s="1" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
     </row>
-    <row r="923" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="923" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" s="1"/>
       <c r="B923" s="1" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
     </row>
-    <row r="924" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="924" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" s="1"/>
       <c r="B924" s="1" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
     </row>
-    <row r="925" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="925" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" s="1"/>
       <c r="B925" s="1" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
     </row>
-    <row r="926" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="926" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" s="1"/>
       <c r="B926" s="1" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
     </row>
-    <row r="927" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="927" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" s="1"/>
       <c r="B927" s="1" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
     </row>
-    <row r="928" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="928" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" s="1"/>
       <c r="B928" s="1" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
     </row>
-    <row r="929" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="929" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" s="1"/>
       <c r="B929" s="1" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
     </row>
-    <row r="930" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="930" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" s="1">
         <v>59</v>
       </c>
@@ -20936,226 +20947,226 @@
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
     </row>
-    <row r="931" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="931" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A931" s="1"/>
       <c r="B931" s="1" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
     </row>
-    <row r="932" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="932" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" s="1"/>
       <c r="B932" s="1" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
     </row>
-    <row r="933" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="933" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A933" s="1"/>
       <c r="B933" s="1" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
     </row>
-    <row r="934" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="934" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" s="1"/>
       <c r="B934" s="1" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
     </row>
-    <row r="935" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="935" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" s="1"/>
       <c r="B935" s="1" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
     </row>
-    <row r="936" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="936" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" s="1"/>
       <c r="B936" s="1" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
     </row>
-    <row r="937" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="937" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A937" s="1"/>
       <c r="B937" s="1" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
     </row>
-    <row r="938" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="938" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A938" s="1"/>
       <c r="B938" s="1" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
     </row>
-    <row r="939" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="939" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A939" s="1"/>
       <c r="B939" s="1" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
     </row>
-    <row r="940" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="940" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A940" s="1"/>
       <c r="B940" s="1" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
     </row>
-    <row r="941" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="941" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A941" s="1"/>
       <c r="B941" s="1" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
     </row>
-    <row r="942" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="942" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A942" s="1"/>
       <c r="B942" s="1" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
     </row>
-    <row r="943" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="943" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A943" s="1"/>
       <c r="B943" s="1" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
     </row>
-    <row r="944" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="944" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A944" s="1"/>
       <c r="B944" s="1" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
     </row>
-    <row r="945" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="945" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A945" s="1"/>
       <c r="B945" s="1" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
     </row>
-    <row r="946" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
+    <row r="946" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A946" s="1"/>
       <c r="B946" s="1" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Data History" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="2504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="2504">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -6662,9 +6662,6 @@
     <t>appear; (signs) are shown</t>
   </si>
   <si>
-    <t>あらわる</t>
-  </si>
-  <si>
     <t>appear; show (signs)</t>
   </si>
   <si>
@@ -7527,6 +7524,9 @@
   </si>
   <si>
     <t>recycling (katakana)</t>
+  </si>
+  <si>
+    <t>Part 53 : Missing Hiragana is corrected</t>
   </si>
 </sst>
 </file>
@@ -7915,45 +7915,45 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2486</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2487</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -7961,13 +7961,13 @@
         <v>43368</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -7975,13 +7975,13 @@
         <v>43373</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -7989,13 +7989,13 @@
         <v>43374</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -8003,13 +8003,13 @@
         <v>43376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -8017,31 +8017,39 @@
         <v>43377</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43378</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8057,41 +8065,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView topLeftCell="A865" workbookViewId="0">
-      <selection activeCell="D879" sqref="D879"/>
+    <sheetView topLeftCell="A832" workbookViewId="0">
+      <selection activeCell="C840" sqref="C840"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2437</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8101,7 +8109,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -8115,7 +8123,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -8129,7 +8137,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -8143,7 +8151,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -8157,7 +8165,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -8171,7 +8179,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>35</v>
@@ -8185,7 +8193,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -8199,7 +8207,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -8213,7 +8221,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -8227,7 +8235,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -8241,7 +8249,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -8255,7 +8263,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>41</v>
@@ -8269,7 +8277,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -8283,7 +8291,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -8297,7 +8305,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -8311,7 +8319,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -8321,7 +8329,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>75</v>
@@ -8335,7 +8343,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>76</v>
@@ -8349,7 +8357,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>77</v>
@@ -8363,7 +8371,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>78</v>
@@ -8377,7 +8385,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>79</v>
@@ -8391,7 +8399,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>80</v>
@@ -8405,7 +8413,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>81</v>
@@ -8419,7 +8427,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>82</v>
@@ -8433,7 +8441,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>83</v>
@@ -8447,7 +8455,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>84</v>
@@ -8461,7 +8469,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>85</v>
@@ -8475,7 +8483,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>86</v>
@@ -8489,7 +8497,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>87</v>
@@ -8503,7 +8511,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>88</v>
@@ -8517,7 +8525,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>89</v>
@@ -8531,7 +8539,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -8541,7 +8549,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>120</v>
@@ -8555,7 +8563,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>121</v>
@@ -8569,7 +8577,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>122</v>
@@ -8583,7 +8591,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>123</v>
@@ -8597,7 +8605,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>124</v>
@@ -8611,7 +8619,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -8625,7 +8633,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>126</v>
@@ -8639,7 +8647,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>127</v>
@@ -8653,7 +8661,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>128</v>
@@ -8667,7 +8675,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>129</v>
@@ -8681,7 +8689,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>130</v>
@@ -8695,7 +8703,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>131</v>
@@ -8709,7 +8717,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>132</v>
@@ -8723,7 +8731,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>133</v>
@@ -8737,7 +8745,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>134</v>
@@ -8751,7 +8759,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -8761,7 +8769,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>165</v>
@@ -8775,7 +8783,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>166</v>
@@ -8789,7 +8797,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>167</v>
@@ -8803,7 +8811,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>168</v>
@@ -8817,7 +8825,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>169</v>
@@ -8831,7 +8839,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>170</v>
@@ -8845,7 +8853,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
@@ -8859,7 +8867,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>172</v>
@@ -8873,7 +8881,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>173</v>
@@ -8887,7 +8895,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>174</v>
@@ -8901,7 +8909,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>175</v>
@@ -8915,7 +8923,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>176</v>
@@ -8929,7 +8937,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>177</v>
@@ -8943,7 +8951,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>178</v>
@@ -8957,7 +8965,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>179</v>
@@ -8971,7 +8979,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -8981,7 +8989,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>210</v>
@@ -8995,7 +9003,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>183</v>
@@ -9009,7 +9017,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>211</v>
@@ -9023,7 +9031,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>212</v>
@@ -9037,7 +9045,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>213</v>
@@ -9051,7 +9059,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>214</v>
@@ -9065,7 +9073,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>215</v>
@@ -9079,7 +9087,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>216</v>
@@ -9093,7 +9101,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>217</v>
@@ -9107,7 +9115,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>218</v>
@@ -9121,7 +9129,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>219</v>
@@ -9135,7 +9143,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>220</v>
@@ -9149,7 +9157,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>221</v>
@@ -9163,7 +9171,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>222</v>
@@ -9177,7 +9185,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>223</v>
@@ -9191,7 +9199,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A82" s="1">
         <v>6</v>
       </c>
@@ -9201,7 +9209,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>254</v>
@@ -9215,7 +9223,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>255</v>
@@ -9229,7 +9237,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>256</v>
@@ -9243,7 +9251,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>257</v>
@@ -9257,7 +9265,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>258</v>
@@ -9271,7 +9279,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>259</v>
@@ -9285,7 +9293,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>260</v>
@@ -9299,7 +9307,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>261</v>
@@ -9313,7 +9321,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>262</v>
@@ -9327,7 +9335,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>263</v>
@@ -9341,7 +9349,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>264</v>
@@ -9355,7 +9363,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>265</v>
@@ -9369,7 +9377,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>266</v>
@@ -9383,7 +9391,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>267</v>
@@ -9397,7 +9405,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>268</v>
@@ -9411,7 +9419,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A98" s="1">
         <v>7</v>
       </c>
@@ -9421,7 +9429,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>299</v>
@@ -9435,7 +9443,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>300</v>
@@ -9449,7 +9457,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>301</v>
@@ -9463,7 +9471,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>302</v>
@@ -9477,7 +9485,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>303</v>
@@ -9491,7 +9499,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>304</v>
@@ -9505,7 +9513,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>305</v>
@@ -9519,7 +9527,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>306</v>
@@ -9533,7 +9541,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>307</v>
@@ -9547,7 +9555,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>308</v>
@@ -9561,7 +9569,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>309</v>
@@ -9575,7 +9583,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>310</v>
@@ -9589,7 +9597,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>311</v>
@@ -9603,7 +9611,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>312</v>
@@ -9617,7 +9625,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>313</v>
@@ -9631,7 +9639,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A114" s="1">
         <v>8</v>
       </c>
@@ -9641,7 +9649,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>344</v>
@@ -9655,7 +9663,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>345</v>
@@ -9669,7 +9677,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>346</v>
@@ -9683,7 +9691,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>347</v>
@@ -9697,7 +9705,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>348</v>
@@ -9711,7 +9719,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>349</v>
@@ -9725,7 +9733,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>350</v>
@@ -9739,7 +9747,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>351</v>
@@ -9751,11 +9759,11 @@
         <v>328</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>352</v>
@@ -9767,11 +9775,11 @@
         <v>330</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>353</v>
@@ -9785,7 +9793,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>354</v>
@@ -9799,7 +9807,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>355</v>
@@ -9813,7 +9821,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>356</v>
@@ -9827,7 +9835,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>357</v>
@@ -9839,11 +9847,11 @@
         <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>358</v>
@@ -9857,7 +9865,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A130" s="1">
         <v>9</v>
       </c>
@@ -9867,7 +9875,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>388</v>
@@ -9879,11 +9887,11 @@
         <v>359</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>389</v>
@@ -9895,11 +9903,11 @@
         <v>361</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>390</v>
@@ -9911,11 +9919,11 @@
         <v>363</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>391</v>
@@ -9927,11 +9935,11 @@
         <v>365</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>368</v>
@@ -9943,11 +9951,11 @@
         <v>367</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>392</v>
@@ -9959,11 +9967,11 @@
         <v>369</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>393</v>
@@ -9975,11 +9983,11 @@
         <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>394</v>
@@ -9988,14 +9996,14 @@
         <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>395</v>
@@ -10007,11 +10015,11 @@
         <v>374</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>396</v>
@@ -10023,11 +10031,11 @@
         <v>376</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>397</v>
@@ -10039,11 +10047,11 @@
         <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>398</v>
@@ -10055,11 +10063,11 @@
         <v>380</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>399</v>
@@ -10071,11 +10079,11 @@
         <v>382</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>400</v>
@@ -10087,11 +10095,11 @@
         <v>384</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>401</v>
@@ -10103,11 +10111,11 @@
         <v>386</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A146" s="1">
         <v>10</v>
       </c>
@@ -10117,7 +10125,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>431</v>
@@ -10131,7 +10139,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>432</v>
@@ -10145,7 +10153,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>433</v>
@@ -10157,11 +10165,11 @@
         <v>405</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>434</v>
@@ -10173,11 +10181,11 @@
         <v>407</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>435</v>
@@ -10191,7 +10199,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>412</v>
@@ -10203,11 +10211,11 @@
         <v>411</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>436</v>
@@ -10221,7 +10229,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>437</v>
@@ -10235,7 +10243,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>438</v>
@@ -10249,7 +10257,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>439</v>
@@ -10263,7 +10271,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>440</v>
@@ -10277,7 +10285,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>441</v>
@@ -10291,7 +10299,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>442</v>
@@ -10303,11 +10311,11 @@
         <v>425</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>443</v>
@@ -10321,7 +10329,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>444</v>
@@ -10335,7 +10343,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A162" s="1">
         <v>11</v>
       </c>
@@ -10345,7 +10353,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>473</v>
@@ -10359,7 +10367,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>474</v>
@@ -10373,7 +10381,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>475</v>
@@ -10387,7 +10395,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>476</v>
@@ -10401,7 +10409,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>477</v>
@@ -10415,7 +10423,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>478</v>
@@ -10429,7 +10437,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="s">
         <v>479</v>
@@ -10443,7 +10451,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>480</v>
@@ -10457,7 +10465,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>481</v>
@@ -10471,7 +10479,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>482</v>
@@ -10485,7 +10493,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>483</v>
@@ -10499,7 +10507,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>484</v>
@@ -10513,7 +10521,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>485</v>
@@ -10527,7 +10535,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>486</v>
@@ -10541,7 +10549,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>487</v>
@@ -10555,7 +10563,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A178" s="1">
         <v>12</v>
       </c>
@@ -10565,7 +10573,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>517</v>
@@ -10579,7 +10587,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>518</v>
@@ -10593,7 +10601,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>519</v>
@@ -10607,7 +10615,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>520</v>
@@ -10621,7 +10629,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>521</v>
@@ -10635,7 +10643,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>522</v>
@@ -10649,7 +10657,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>523</v>
@@ -10663,7 +10671,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>524</v>
@@ -10677,7 +10685,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>525</v>
@@ -10691,7 +10699,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>526</v>
@@ -10705,7 +10713,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>527</v>
@@ -10719,7 +10727,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
         <v>528</v>
@@ -10733,7 +10741,7 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>529</v>
@@ -10747,7 +10755,7 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>530</v>
@@ -10761,7 +10769,7 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>531</v>
@@ -10775,7 +10783,7 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A194" s="1">
         <v>13</v>
       </c>
@@ -10785,7 +10793,7 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>560</v>
@@ -10799,7 +10807,7 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>561</v>
@@ -10813,7 +10821,7 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>562</v>
@@ -10827,7 +10835,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>563</v>
@@ -10841,7 +10849,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>541</v>
@@ -10855,7 +10863,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>564</v>
@@ -10869,7 +10877,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>545</v>
@@ -10883,7 +10891,7 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>547</v>
@@ -10897,7 +10905,7 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>565</v>
@@ -10911,7 +10919,7 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>566</v>
@@ -10925,7 +10933,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>567</v>
@@ -10939,7 +10947,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>568</v>
@@ -10953,7 +10961,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>569</v>
@@ -10967,7 +10975,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>570</v>
@@ -10981,7 +10989,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>571</v>
@@ -10995,7 +11003,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A210" s="1">
         <v>14</v>
       </c>
@@ -11005,7 +11013,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>602</v>
@@ -11019,7 +11027,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>603</v>
@@ -11033,7 +11041,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>604</v>
@@ -11047,7 +11055,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>605</v>
@@ -11061,7 +11069,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>606</v>
@@ -11075,7 +11083,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>607</v>
@@ -11089,7 +11097,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>608</v>
@@ -11103,7 +11111,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>609</v>
@@ -11117,7 +11125,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
         <v>610</v>
@@ -11131,7 +11139,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>611</v>
@@ -11145,7 +11153,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>612</v>
@@ -11159,7 +11167,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>613</v>
@@ -11173,7 +11181,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
         <v>614</v>
@@ -11187,7 +11195,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>615</v>
@@ -11201,7 +11209,7 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>616</v>
@@ -11215,7 +11223,7 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A226" s="1">
         <v>15</v>
       </c>
@@ -11225,7 +11233,7 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>647</v>
@@ -11239,7 +11247,7 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>648</v>
@@ -11253,7 +11261,7 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>649</v>
@@ -11267,7 +11275,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>650</v>
@@ -11281,7 +11289,7 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>651</v>
@@ -11295,7 +11303,7 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
         <v>652</v>
@@ -11307,11 +11315,11 @@
         <v>627</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>653</v>
@@ -11323,11 +11331,11 @@
         <v>629</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>654</v>
@@ -11341,7 +11349,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>655</v>
@@ -11355,7 +11363,7 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>656</v>
@@ -11369,7 +11377,7 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>657</v>
@@ -11383,7 +11391,7 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
         <v>658</v>
@@ -11397,7 +11405,7 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>659</v>
@@ -11411,7 +11419,7 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>660</v>
@@ -11425,7 +11433,7 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
         <v>661</v>
@@ -11439,7 +11447,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A242" s="1">
         <v>16</v>
       </c>
@@ -11449,7 +11457,7 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>691</v>
@@ -11463,7 +11471,7 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>692</v>
@@ -11477,7 +11485,7 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>693</v>
@@ -11491,7 +11499,7 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>694</v>
@@ -11505,7 +11513,7 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>695</v>
@@ -11519,7 +11527,7 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>696</v>
@@ -11533,7 +11541,7 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>697</v>
@@ -11547,7 +11555,7 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>698</v>
@@ -11561,7 +11569,7 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>699</v>
@@ -11575,7 +11583,7 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>700</v>
@@ -11589,7 +11597,7 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>701</v>
@@ -11603,7 +11611,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>702</v>
@@ -11617,7 +11625,7 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>703</v>
@@ -11631,7 +11639,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>704</v>
@@ -11645,7 +11653,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>705</v>
@@ -11654,12 +11662,12 @@
         <v>690</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A258" s="1">
         <v>17</v>
       </c>
@@ -11669,7 +11677,7 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>735</v>
@@ -11683,7 +11691,7 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>736</v>
@@ -11697,7 +11705,7 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>737</v>
@@ -11711,7 +11719,7 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>738</v>
@@ -11725,7 +11733,7 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>739</v>
@@ -11739,7 +11747,7 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>740</v>
@@ -11753,7 +11761,7 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>741</v>
@@ -11767,7 +11775,7 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
         <v>742</v>
@@ -11781,7 +11789,7 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>743</v>
@@ -11795,7 +11803,7 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
         <v>744</v>
@@ -11804,12 +11812,12 @@
         <v>724</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
         <v>745</v>
@@ -11821,11 +11829,11 @@
         <v>725</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
         <v>746</v>
@@ -11839,7 +11847,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>747</v>
@@ -11853,7 +11861,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>748</v>
@@ -11867,7 +11875,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>749</v>
@@ -11881,7 +11889,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A274" s="1">
         <v>18</v>
       </c>
@@ -11891,7 +11899,7 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>780</v>
@@ -11905,7 +11913,7 @@
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A276" s="1"/>
       <c r="B276" s="1" t="s">
         <v>781</v>
@@ -11919,7 +11927,7 @@
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>755</v>
@@ -11933,7 +11941,7 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>782</v>
@@ -11947,7 +11955,7 @@
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>783</v>
@@ -11961,7 +11969,7 @@
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>784</v>
@@ -11975,7 +11983,7 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>785</v>
@@ -11989,7 +11997,7 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
         <v>786</v>
@@ -12003,7 +12011,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
         <v>787</v>
@@ -12017,7 +12025,7 @@
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>788</v>
@@ -12031,7 +12039,7 @@
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>789</v>
@@ -12045,7 +12053,7 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>790</v>
@@ -12059,7 +12067,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
         <v>775</v>
@@ -12073,7 +12081,7 @@
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
         <v>791</v>
@@ -12087,7 +12095,7 @@
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
         <v>792</v>
@@ -12101,7 +12109,7 @@
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A290" s="1">
         <v>19</v>
       </c>
@@ -12111,7 +12119,7 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A291" s="1"/>
       <c r="B291" s="1" t="s">
         <v>823</v>
@@ -12125,7 +12133,7 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A292" s="1"/>
       <c r="B292" s="1" t="s">
         <v>824</v>
@@ -12139,7 +12147,7 @@
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>798</v>
@@ -12153,7 +12161,7 @@
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="s">
         <v>800</v>
@@ -12167,7 +12175,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="s">
         <v>825</v>
@@ -12181,7 +12189,7 @@
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="s">
         <v>826</v>
@@ -12195,7 +12203,7 @@
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
         <v>827</v>
@@ -12209,7 +12217,7 @@
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>828</v>
@@ -12223,7 +12231,7 @@
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>829</v>
@@ -12237,7 +12245,7 @@
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>830</v>
@@ -12251,7 +12259,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>831</v>
@@ -12265,7 +12273,7 @@
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
         <v>832</v>
@@ -12279,7 +12287,7 @@
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
         <v>833</v>
@@ -12293,7 +12301,7 @@
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>834</v>
@@ -12307,7 +12315,7 @@
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
         <v>835</v>
@@ -12321,7 +12329,7 @@
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A306" s="1">
         <v>20</v>
       </c>
@@ -12331,7 +12339,7 @@
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
         <v>866</v>
@@ -12345,7 +12353,7 @@
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>867</v>
@@ -12359,7 +12367,7 @@
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
         <v>868</v>
@@ -12373,7 +12381,7 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>869</v>
@@ -12387,7 +12395,7 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>870</v>
@@ -12401,7 +12409,7 @@
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>847</v>
@@ -12415,7 +12423,7 @@
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="s">
         <v>871</v>
@@ -12429,7 +12437,7 @@
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>872</v>
@@ -12443,7 +12451,7 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
         <v>853</v>
@@ -12457,7 +12465,7 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>855</v>
@@ -12471,7 +12479,7 @@
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>873</v>
@@ -12485,7 +12493,7 @@
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>874</v>
@@ -12499,7 +12507,7 @@
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>875</v>
@@ -12513,7 +12521,7 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>876</v>
@@ -12527,7 +12535,7 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>877</v>
@@ -12541,7 +12549,7 @@
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A322" s="1">
         <v>21</v>
       </c>
@@ -12551,7 +12559,7 @@
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
         <v>908</v>
@@ -12565,7 +12573,7 @@
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>909</v>
@@ -12579,7 +12587,7 @@
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>910</v>
@@ -12593,7 +12601,7 @@
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>911</v>
@@ -12607,7 +12615,7 @@
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
         <v>912</v>
@@ -12621,7 +12629,7 @@
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>913</v>
@@ -12635,7 +12643,7 @@
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="s">
         <v>914</v>
@@ -12649,7 +12657,7 @@
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>915</v>
@@ -12663,7 +12671,7 @@
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>916</v>
@@ -12677,7 +12685,7 @@
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>917</v>
@@ -12691,7 +12699,7 @@
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
         <v>918</v>
@@ -12705,7 +12713,7 @@
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
         <v>919</v>
@@ -12719,7 +12727,7 @@
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>920</v>
@@ -12733,7 +12741,7 @@
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>921</v>
@@ -12747,7 +12755,7 @@
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>922</v>
@@ -12761,7 +12769,7 @@
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A338" s="1">
         <v>22</v>
       </c>
@@ -12771,7 +12779,7 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
         <v>953</v>
@@ -12785,7 +12793,7 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>954</v>
@@ -12799,7 +12807,7 @@
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>928</v>
@@ -12813,7 +12821,7 @@
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
         <v>930</v>
@@ -12827,7 +12835,7 @@
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>955</v>
@@ -12841,7 +12849,7 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
         <v>956</v>
@@ -12855,7 +12863,7 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
         <v>957</v>
@@ -12869,7 +12877,7 @@
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>958</v>
@@ -12883,7 +12891,7 @@
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>959</v>
@@ -12897,7 +12905,7 @@
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
         <v>960</v>
@@ -12911,7 +12919,7 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>961</v>
@@ -12925,7 +12933,7 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>962</v>
@@ -12939,7 +12947,7 @@
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>963</v>
@@ -12953,7 +12961,7 @@
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>964</v>
@@ -12967,7 +12975,7 @@
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A353" s="1"/>
       <c r="B353" s="1" t="s">
         <v>965</v>
@@ -12981,7 +12989,7 @@
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A354" s="1">
         <v>23</v>
       </c>
@@ -12991,7 +12999,7 @@
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
         <v>996</v>
@@ -13005,7 +13013,7 @@
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>997</v>
@@ -13019,7 +13027,7 @@
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A357" s="1"/>
       <c r="B357" s="1" t="s">
         <v>998</v>
@@ -13033,7 +13041,7 @@
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A358" s="1"/>
       <c r="B358" s="1" t="s">
         <v>973</v>
@@ -13047,7 +13055,7 @@
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A359" s="1"/>
       <c r="B359" s="1" t="s">
         <v>999</v>
@@ -13061,7 +13069,7 @@
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>1000</v>
@@ -13075,7 +13083,7 @@
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>1001</v>
@@ -13089,7 +13097,7 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
         <v>1002</v>
@@ -13103,7 +13111,7 @@
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
         <v>1003</v>
@@ -13117,7 +13125,7 @@
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
         <v>1004</v>
@@ -13131,7 +13139,7 @@
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
         <v>1005</v>
@@ -13145,7 +13153,7 @@
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
         <v>1006</v>
@@ -13159,7 +13167,7 @@
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
         <v>1007</v>
@@ -13173,7 +13181,7 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
         <v>1008</v>
@@ -13187,7 +13195,7 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
         <v>1009</v>
@@ -13201,7 +13209,7 @@
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A370" s="1">
         <v>24</v>
       </c>
@@ -13211,7 +13219,7 @@
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>1039</v>
@@ -13225,7 +13233,7 @@
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
         <v>1040</v>
@@ -13239,7 +13247,7 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
         <v>1041</v>
@@ -13253,7 +13261,7 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A374" s="1"/>
       <c r="B374" s="1" t="s">
         <v>1042</v>
@@ -13267,7 +13275,7 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>1043</v>
@@ -13281,7 +13289,7 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
         <v>1044</v>
@@ -13295,7 +13303,7 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="s">
         <v>1045</v>
@@ -13309,13 +13317,13 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1024</v>
@@ -13323,7 +13331,7 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A379" s="1"/>
       <c r="B379" s="1" t="s">
         <v>1046</v>
@@ -13337,7 +13345,7 @@
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
         <v>1047</v>
@@ -13351,7 +13359,7 @@
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
         <v>1048</v>
@@ -13365,7 +13373,7 @@
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A382" s="1"/>
       <c r="B382" s="1" t="s">
         <v>1049</v>
@@ -13379,7 +13387,7 @@
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A383" s="1"/>
       <c r="B383" s="1" t="s">
         <v>1050</v>
@@ -13393,10 +13401,10 @@
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1036</v>
@@ -13407,7 +13415,7 @@
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
         <v>1051</v>
@@ -13421,7 +13429,7 @@
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A386" s="1">
         <v>25</v>
       </c>
@@ -13431,7 +13439,7 @@
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
         <v>1081</v>
@@ -13445,7 +13453,7 @@
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
         <v>1082</v>
@@ -13459,7 +13467,7 @@
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
         <v>1083</v>
@@ -13473,7 +13481,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="s">
         <v>1084</v>
@@ -13487,7 +13495,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
         <v>1085</v>
@@ -13501,7 +13509,7 @@
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
         <v>1086</v>
@@ -13515,7 +13523,7 @@
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="s">
         <v>1087</v>
@@ -13529,7 +13537,7 @@
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
         <v>1088</v>
@@ -13543,7 +13551,7 @@
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A395" s="1"/>
       <c r="B395" s="1" t="s">
         <v>1089</v>
@@ -13557,7 +13565,7 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A396" s="1"/>
       <c r="B396" s="1" t="s">
         <v>1090</v>
@@ -13571,7 +13579,7 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A397" s="1"/>
       <c r="B397" s="1" t="s">
         <v>1091</v>
@@ -13585,7 +13593,7 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
         <v>1092</v>
@@ -13599,7 +13607,7 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
         <v>1093</v>
@@ -13613,13 +13621,13 @@
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1078</v>
@@ -13627,7 +13635,7 @@
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A401" s="1"/>
       <c r="B401" s="1" t="s">
         <v>1094</v>
@@ -13641,7 +13649,7 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A402" s="1">
         <v>26</v>
       </c>
@@ -13651,7 +13659,7 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A403" s="1"/>
       <c r="B403" s="1" t="s">
         <v>1125</v>
@@ -13665,7 +13673,7 @@
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A404" s="1"/>
       <c r="B404" s="1" t="s">
         <v>1126</v>
@@ -13679,7 +13687,7 @@
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A405" s="1"/>
       <c r="B405" s="1" t="s">
         <v>1127</v>
@@ -13693,7 +13701,7 @@
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A406" s="1"/>
       <c r="B406" s="1" t="s">
         <v>1128</v>
@@ -13707,7 +13715,7 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A407" s="1"/>
       <c r="B407" s="1" t="s">
         <v>1129</v>
@@ -13721,7 +13729,7 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A408" s="1"/>
       <c r="B408" s="1" t="s">
         <v>1130</v>
@@ -13735,7 +13743,7 @@
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
         <v>1131</v>
@@ -13749,7 +13757,7 @@
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A410" s="1"/>
       <c r="B410" s="1" t="s">
         <v>1132</v>
@@ -13763,7 +13771,7 @@
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
     </row>
-    <row r="411" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A411" s="1"/>
       <c r="B411" s="1" t="s">
         <v>1133</v>
@@ -13777,7 +13785,7 @@
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
         <v>1134</v>
@@ -13791,7 +13799,7 @@
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A413" s="1"/>
       <c r="B413" s="1" t="s">
         <v>1116</v>
@@ -13805,7 +13813,7 @@
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A414" s="1"/>
       <c r="B414" s="1" t="s">
         <v>1118</v>
@@ -13819,7 +13827,7 @@
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
         <v>1135</v>
@@ -13833,7 +13841,7 @@
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A416" s="1"/>
       <c r="B416" s="1" t="s">
         <v>1136</v>
@@ -13847,7 +13855,7 @@
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
         <v>1137</v>
@@ -13861,7 +13869,7 @@
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A418" s="1">
         <v>27</v>
       </c>
@@ -13871,7 +13879,7 @@
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A419" s="1"/>
       <c r="B419" s="1" t="s">
         <v>1167</v>
@@ -13885,7 +13893,7 @@
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A420" s="1"/>
       <c r="B420" s="1" t="s">
         <v>1168</v>
@@ -13899,7 +13907,7 @@
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A421" s="1"/>
       <c r="B421" s="1" t="s">
         <v>1169</v>
@@ -13913,7 +13921,7 @@
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
     </row>
-    <row r="422" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A422" s="1"/>
       <c r="B422" s="1" t="s">
         <v>1170</v>
@@ -13927,7 +13935,7 @@
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
     </row>
-    <row r="423" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
         <v>1171</v>
@@ -13941,7 +13949,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
         <v>1172</v>
@@ -13950,12 +13958,12 @@
         <v>1148</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
     </row>
-    <row r="425" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
         <v>1173</v>
@@ -13969,7 +13977,7 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
     </row>
-    <row r="426" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
         <v>1174</v>
@@ -13983,7 +13991,7 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A427" s="1"/>
       <c r="B427" s="1" t="s">
         <v>1175</v>
@@ -13997,7 +14005,7 @@
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
-    <row r="428" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
         <v>1176</v>
@@ -14011,7 +14019,7 @@
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
     </row>
-    <row r="429" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A429" s="1"/>
       <c r="B429" s="1" t="s">
         <v>1177</v>
@@ -14025,7 +14033,7 @@
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
         <v>1178</v>
@@ -14039,7 +14047,7 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
         <v>1179</v>
@@ -14053,7 +14061,7 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A432" s="1"/>
       <c r="B432" s="1" t="s">
         <v>1180</v>
@@ -14067,7 +14075,7 @@
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
         <v>1181</v>
@@ -14081,7 +14089,7 @@
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A434" s="1">
         <v>28</v>
       </c>
@@ -14091,7 +14099,7 @@
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A435" s="1"/>
       <c r="B435" s="1" t="s">
         <v>1212</v>
@@ -14105,7 +14113,7 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A436" s="1"/>
       <c r="B436" s="1" t="s">
         <v>1213</v>
@@ -14119,7 +14127,7 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
         <v>1214</v>
@@ -14133,7 +14141,7 @@
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A438" s="1"/>
       <c r="B438" s="1" t="s">
         <v>1215</v>
@@ -14147,7 +14155,7 @@
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
         <v>1216</v>
@@ -14161,7 +14169,7 @@
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
         <v>1217</v>
@@ -14175,7 +14183,7 @@
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
         <v>1218</v>
@@ -14189,7 +14197,7 @@
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A442" s="1"/>
       <c r="B442" s="1" t="s">
         <v>1197</v>
@@ -14203,7 +14211,7 @@
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="s">
         <v>1219</v>
@@ -14217,7 +14225,7 @@
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="s">
         <v>1220</v>
@@ -14231,7 +14239,7 @@
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
         <v>1221</v>
@@ -14245,7 +14253,7 @@
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A446" s="1"/>
       <c r="B446" s="1" t="s">
         <v>1222</v>
@@ -14259,7 +14267,7 @@
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A447" s="1"/>
       <c r="B447" s="1" t="s">
         <v>1223</v>
@@ -14273,7 +14281,7 @@
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
         <v>1224</v>
@@ -14287,7 +14295,7 @@
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
         <v>1225</v>
@@ -14301,7 +14309,7 @@
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A450" s="1">
         <v>29</v>
       </c>
@@ -14311,7 +14319,7 @@
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
         <v>1255</v>
@@ -14325,7 +14333,7 @@
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="s">
         <v>1256</v>
@@ -14339,7 +14347,7 @@
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="s">
         <v>1257</v>
@@ -14353,7 +14361,7 @@
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="s">
         <v>1258</v>
@@ -14367,7 +14375,7 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="s">
         <v>1259</v>
@@ -14381,7 +14389,7 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="s">
         <v>1260</v>
@@ -14395,7 +14403,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A457" s="1"/>
       <c r="B457" s="1" t="s">
         <v>1261</v>
@@ -14409,7 +14417,7 @@
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A458" s="1"/>
       <c r="B458" s="1" t="s">
         <v>1262</v>
@@ -14423,7 +14431,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A459" s="1"/>
       <c r="B459" s="1" t="s">
         <v>1263</v>
@@ -14437,7 +14445,7 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A460" s="1"/>
       <c r="B460" s="1" t="s">
         <v>1264</v>
@@ -14451,7 +14459,7 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
         <v>1265</v>
@@ -14465,7 +14473,7 @@
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
         <v>1266</v>
@@ -14479,7 +14487,7 @@
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
         <v>1267</v>
@@ -14493,7 +14501,7 @@
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A464" s="1"/>
       <c r="B464" s="1" t="s">
         <v>1268</v>
@@ -14507,7 +14515,7 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A465" s="1"/>
       <c r="B465" s="1" t="s">
         <v>1269</v>
@@ -14521,7 +14529,7 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A466" s="1">
         <v>30</v>
       </c>
@@ -14531,7 +14539,7 @@
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A467" s="1"/>
       <c r="B467" s="1" t="s">
         <v>1298</v>
@@ -14545,7 +14553,7 @@
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
     </row>
-    <row r="468" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A468" s="1"/>
       <c r="B468" s="1" t="s">
         <v>1299</v>
@@ -14559,7 +14567,7 @@
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
     </row>
-    <row r="469" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
         <v>1300</v>
@@ -14573,7 +14581,7 @@
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
     </row>
-    <row r="470" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A470" s="1"/>
       <c r="B470" s="1" t="s">
         <v>1301</v>
@@ -14585,14 +14593,14 @@
         <v>1274</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F470" s="1"/>
     </row>
-    <row r="471" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1277</v>
@@ -14603,7 +14611,7 @@
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
     </row>
-    <row r="472" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A472" s="1"/>
       <c r="B472" s="1" t="s">
         <v>1302</v>
@@ -14617,7 +14625,7 @@
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
         <v>1303</v>
@@ -14629,11 +14637,11 @@
         <v>1280</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
         <v>1283</v>
@@ -14645,11 +14653,11 @@
         <v>1282</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A475" s="1"/>
       <c r="B475" s="1" t="s">
         <v>1304</v>
@@ -14661,11 +14669,11 @@
         <v>1284</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A476" s="1"/>
       <c r="B476" s="1" t="s">
         <v>1305</v>
@@ -14677,11 +14685,11 @@
         <v>1286</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A477" s="1"/>
       <c r="B477" s="1" t="s">
         <v>1306</v>
@@ -14693,11 +14701,11 @@
         <v>1288</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A478" s="1"/>
       <c r="B478" s="1" t="s">
         <v>1307</v>
@@ -14711,7 +14719,7 @@
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
         <v>1308</v>
@@ -14723,11 +14731,11 @@
         <v>1292</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F479" s="1"/>
     </row>
-    <row r="480" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A480" s="1"/>
       <c r="B480" s="1" t="s">
         <v>1309</v>
@@ -14739,11 +14747,11 @@
         <v>1294</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F480" s="1"/>
     </row>
-    <row r="481" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A481" s="1"/>
       <c r="B481" s="1" t="s">
         <v>1310</v>
@@ -14755,11 +14763,11 @@
         <v>1296</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F481" s="1"/>
     </row>
-    <row r="482" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A482" s="1">
         <v>31</v>
       </c>
@@ -14769,7 +14777,7 @@
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
     </row>
-    <row r="483" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A483" s="1"/>
       <c r="B483" s="1" t="s">
         <v>1341</v>
@@ -14781,11 +14789,11 @@
         <v>1311</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F483" s="1"/>
     </row>
-    <row r="484" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A484" s="1"/>
       <c r="B484" s="1" t="s">
         <v>1342</v>
@@ -14799,7 +14807,7 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
     </row>
-    <row r="485" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A485" s="1"/>
       <c r="B485" s="1" t="s">
         <v>1343</v>
@@ -14813,7 +14821,7 @@
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
     </row>
-    <row r="486" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
         <v>1344</v>
@@ -14827,7 +14835,7 @@
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
     </row>
-    <row r="487" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
         <v>611</v>
@@ -14841,7 +14849,7 @@
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
     </row>
-    <row r="488" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
         <v>1345</v>
@@ -14855,7 +14863,7 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
     </row>
-    <row r="489" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A489" s="1"/>
       <c r="B489" s="1" t="s">
         <v>1346</v>
@@ -14869,7 +14877,7 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
     </row>
-    <row r="490" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A490" s="1"/>
       <c r="B490" s="1" t="s">
         <v>1347</v>
@@ -14883,7 +14891,7 @@
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
     </row>
-    <row r="491" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A491" s="1"/>
       <c r="B491" s="1" t="s">
         <v>1348</v>
@@ -14897,7 +14905,7 @@
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
     </row>
-    <row r="492" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A492" s="1"/>
       <c r="B492" s="1" t="s">
         <v>1330</v>
@@ -14911,7 +14919,7 @@
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
     </row>
-    <row r="493" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A493" s="1"/>
       <c r="B493" s="1" t="s">
         <v>1349</v>
@@ -14925,7 +14933,7 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
     </row>
-    <row r="494" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A494" s="1"/>
       <c r="B494" s="1" t="s">
         <v>1350</v>
@@ -14939,7 +14947,7 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
     </row>
-    <row r="495" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A495" s="1"/>
       <c r="B495" s="1" t="s">
         <v>1351</v>
@@ -14953,7 +14961,7 @@
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
     </row>
-    <row r="496" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A496" s="1"/>
       <c r="B496" s="1" t="s">
         <v>1352</v>
@@ -14967,7 +14975,7 @@
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
     </row>
-    <row r="497" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A497" s="1"/>
       <c r="B497" s="1" t="s">
         <v>1353</v>
@@ -14981,7 +14989,7 @@
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
     </row>
-    <row r="498" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A498" s="1">
         <v>32</v>
       </c>
@@ -14991,7 +14999,7 @@
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
     </row>
-    <row r="499" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A499" s="1"/>
       <c r="B499" s="1" t="s">
         <v>1380</v>
@@ -15005,7 +15013,7 @@
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
     </row>
-    <row r="500" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A500" s="1"/>
       <c r="B500" s="1" t="s">
         <v>1381</v>
@@ -15019,7 +15027,7 @@
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
     </row>
-    <row r="501" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A501" s="1"/>
       <c r="B501" s="1" t="s">
         <v>1382</v>
@@ -15033,7 +15041,7 @@
       <c r="E501" s="1"/>
       <c r="F501" s="1"/>
     </row>
-    <row r="502" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A502" s="1"/>
       <c r="B502" s="1" t="s">
         <v>1383</v>
@@ -15047,7 +15055,7 @@
       <c r="E502" s="1"/>
       <c r="F502" s="1"/>
     </row>
-    <row r="503" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A503" s="1"/>
       <c r="B503" s="1" t="s">
         <v>1384</v>
@@ -15059,11 +15067,11 @@
         <v>1362</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F503" s="1"/>
     </row>
-    <row r="504" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A504" s="1"/>
       <c r="B504" s="1" t="s">
         <v>1385</v>
@@ -15075,11 +15083,11 @@
         <v>1364</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F504" s="1"/>
     </row>
-    <row r="505" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A505" s="1"/>
       <c r="B505" s="1" t="s">
         <v>1386</v>
@@ -15093,7 +15101,7 @@
       <c r="E505" s="1"/>
       <c r="F505" s="1"/>
     </row>
-    <row r="506" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A506" s="1"/>
       <c r="B506" s="1" t="s">
         <v>1387</v>
@@ -15107,7 +15115,7 @@
       <c r="E506" s="1"/>
       <c r="F506" s="1"/>
     </row>
-    <row r="507" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="s">
         <v>1388</v>
@@ -15121,7 +15129,7 @@
       <c r="E507" s="1"/>
       <c r="F507" s="1"/>
     </row>
-    <row r="508" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A508" s="1"/>
       <c r="B508" s="1" t="s">
         <v>1389</v>
@@ -15135,7 +15143,7 @@
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
     </row>
-    <row r="509" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="s">
         <v>1390</v>
@@ -15149,7 +15157,7 @@
       <c r="E509" s="1"/>
       <c r="F509" s="1"/>
     </row>
-    <row r="510" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
         <v>1391</v>
@@ -15163,7 +15171,7 @@
       <c r="E510" s="1"/>
       <c r="F510" s="1"/>
     </row>
-    <row r="511" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A511" s="1"/>
       <c r="B511" s="1" t="s">
         <v>1392</v>
@@ -15177,7 +15185,7 @@
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
     </row>
-    <row r="512" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A512" s="1"/>
       <c r="B512" s="1" t="s">
         <v>1393</v>
@@ -15191,7 +15199,7 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
     </row>
-    <row r="513" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A513" s="1"/>
       <c r="B513" s="1" t="s">
         <v>1394</v>
@@ -15205,7 +15213,7 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
     </row>
-    <row r="514" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A514" s="1">
         <v>33</v>
       </c>
@@ -15215,7 +15223,7 @@
       <c r="E514" s="1"/>
       <c r="F514" s="1"/>
     </row>
-    <row r="515" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A515" s="1"/>
       <c r="B515" s="1" t="s">
         <v>1425</v>
@@ -15229,7 +15237,7 @@
       <c r="E515" s="1"/>
       <c r="F515" s="1"/>
     </row>
-    <row r="516" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A516" s="1"/>
       <c r="B516" s="1" t="s">
         <v>1426</v>
@@ -15243,7 +15251,7 @@
       <c r="E516" s="1"/>
       <c r="F516" s="1"/>
     </row>
-    <row r="517" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A517" s="1"/>
       <c r="B517" s="1" t="s">
         <v>1427</v>
@@ -15257,7 +15265,7 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
     </row>
-    <row r="518" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A518" s="1"/>
       <c r="B518" s="1" t="s">
         <v>1428</v>
@@ -15271,7 +15279,7 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
     </row>
-    <row r="519" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A519" s="1"/>
       <c r="B519" s="1" t="s">
         <v>1429</v>
@@ -15285,7 +15293,7 @@
       <c r="E519" s="1"/>
       <c r="F519" s="1"/>
     </row>
-    <row r="520" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A520" s="1"/>
       <c r="B520" s="1" t="s">
         <v>1430</v>
@@ -15299,7 +15307,7 @@
       <c r="E520" s="1"/>
       <c r="F520" s="1"/>
     </row>
-    <row r="521" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A521" s="1"/>
       <c r="B521" s="1" t="s">
         <v>1431</v>
@@ -15313,7 +15321,7 @@
       <c r="E521" s="1"/>
       <c r="F521" s="1"/>
     </row>
-    <row r="522" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A522" s="1"/>
       <c r="B522" s="1" t="s">
         <v>1432</v>
@@ -15327,7 +15335,7 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
     </row>
-    <row r="523" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A523" s="1"/>
       <c r="B523" s="1" t="s">
         <v>1433</v>
@@ -15341,7 +15349,7 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
     </row>
-    <row r="524" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A524" s="1"/>
       <c r="B524" s="1" t="s">
         <v>1434</v>
@@ -15355,7 +15363,7 @@
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
     </row>
-    <row r="525" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A525" s="1"/>
       <c r="B525" s="1" t="s">
         <v>1435</v>
@@ -15369,7 +15377,7 @@
       <c r="E525" s="1"/>
       <c r="F525" s="1"/>
     </row>
-    <row r="526" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A526" s="1"/>
       <c r="B526" s="1" t="s">
         <v>1436</v>
@@ -15383,7 +15391,7 @@
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
     </row>
-    <row r="527" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A527" s="1"/>
       <c r="B527" s="1" t="s">
         <v>1437</v>
@@ -15397,7 +15405,7 @@
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A528" s="1"/>
       <c r="B528" s="1" t="s">
         <v>1438</v>
@@ -15411,7 +15419,7 @@
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
     </row>
-    <row r="529" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A529" s="1"/>
       <c r="B529" s="1" t="s">
         <v>1439</v>
@@ -15425,7 +15433,7 @@
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
     </row>
-    <row r="530" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A530" s="1">
         <v>34</v>
       </c>
@@ -15435,7 +15443,7 @@
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
     </row>
-    <row r="531" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A531" s="1"/>
       <c r="B531" s="1" t="s">
         <v>1468</v>
@@ -15449,7 +15457,7 @@
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A532" s="1"/>
       <c r="B532" s="1" t="s">
         <v>1469</v>
@@ -15463,7 +15471,7 @@
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
     </row>
-    <row r="533" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A533" s="1"/>
       <c r="B533" s="1" t="s">
         <v>1470</v>
@@ -15477,7 +15485,7 @@
       <c r="E533" s="1"/>
       <c r="F533" s="1"/>
     </row>
-    <row r="534" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A534" s="1"/>
       <c r="B534" s="1" t="s">
         <v>1471</v>
@@ -15491,7 +15499,7 @@
       <c r="E534" s="1"/>
       <c r="F534" s="1"/>
     </row>
-    <row r="535" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A535" s="1"/>
       <c r="B535" s="1" t="s">
         <v>1472</v>
@@ -15505,7 +15513,7 @@
       <c r="E535" s="1"/>
       <c r="F535" s="1"/>
     </row>
-    <row r="536" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A536" s="1"/>
       <c r="B536" s="1" t="s">
         <v>1473</v>
@@ -15519,7 +15527,7 @@
       <c r="E536" s="1"/>
       <c r="F536" s="1"/>
     </row>
-    <row r="537" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A537" s="1"/>
       <c r="B537" s="1" t="s">
         <v>1474</v>
@@ -15533,7 +15541,7 @@
       <c r="E537" s="1"/>
       <c r="F537" s="1"/>
     </row>
-    <row r="538" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A538" s="1"/>
       <c r="B538" s="1" t="s">
         <v>1475</v>
@@ -15547,7 +15555,7 @@
       <c r="E538" s="1"/>
       <c r="F538" s="1"/>
     </row>
-    <row r="539" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A539" s="1"/>
       <c r="B539" s="1" t="s">
         <v>1476</v>
@@ -15561,7 +15569,7 @@
       <c r="E539" s="1"/>
       <c r="F539" s="1"/>
     </row>
-    <row r="540" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A540" s="1"/>
       <c r="B540" s="1" t="s">
         <v>1477</v>
@@ -15575,7 +15583,7 @@
       <c r="E540" s="1"/>
       <c r="F540" s="1"/>
     </row>
-    <row r="541" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A541" s="1"/>
       <c r="B541" s="1" t="s">
         <v>1478</v>
@@ -15589,7 +15597,7 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
     </row>
-    <row r="542" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A542" s="1"/>
       <c r="B542" s="1" t="s">
         <v>1479</v>
@@ -15603,7 +15611,7 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
     </row>
-    <row r="543" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A543" s="1"/>
       <c r="B543" s="1" t="s">
         <v>1480</v>
@@ -15617,7 +15625,7 @@
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
     </row>
-    <row r="544" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A544" s="1"/>
       <c r="B544" s="1" t="s">
         <v>1466</v>
@@ -15631,7 +15639,7 @@
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
     </row>
-    <row r="545" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
         <v>1467</v>
@@ -15645,7 +15653,7 @@
       <c r="E545" s="1"/>
       <c r="F545" s="1"/>
     </row>
-    <row r="546" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A546" s="1">
         <v>35</v>
       </c>
@@ -15655,7 +15663,7 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
     </row>
-    <row r="547" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A547" s="1"/>
       <c r="B547" s="1" t="s">
         <v>1482</v>
@@ -15669,7 +15677,7 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
     </row>
-    <row r="548" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A548" s="1"/>
       <c r="B548" s="1" t="s">
         <v>1484</v>
@@ -15683,7 +15691,7 @@
       <c r="E548" s="1"/>
       <c r="F548" s="1"/>
     </row>
-    <row r="549" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A549" s="1"/>
       <c r="B549" s="1" t="s">
         <v>1486</v>
@@ -15697,7 +15705,7 @@
       <c r="E549" s="1"/>
       <c r="F549" s="1"/>
     </row>
-    <row r="550" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A550" s="1"/>
       <c r="B550" s="1" t="s">
         <v>1488</v>
@@ -15711,7 +15719,7 @@
       <c r="E550" s="1"/>
       <c r="F550" s="1"/>
     </row>
-    <row r="551" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A551" s="1"/>
       <c r="B551" s="1" t="s">
         <v>1490</v>
@@ -15725,7 +15733,7 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
     </row>
-    <row r="552" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A552" s="1"/>
       <c r="B552" s="1" t="s">
         <v>1492</v>
@@ -15739,7 +15747,7 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
     </row>
-    <row r="553" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A553" s="1"/>
       <c r="B553" s="1" t="s">
         <v>1494</v>
@@ -15753,7 +15761,7 @@
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
     </row>
-    <row r="554" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A554" s="1"/>
       <c r="B554" s="1" t="s">
         <v>1496</v>
@@ -15767,7 +15775,7 @@
       <c r="E554" s="1"/>
       <c r="F554" s="1"/>
     </row>
-    <row r="555" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A555" s="1"/>
       <c r="B555" s="1" t="s">
         <v>1498</v>
@@ -15781,7 +15789,7 @@
       <c r="E555" s="1"/>
       <c r="F555" s="1"/>
     </row>
-    <row r="556" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A556" s="1"/>
       <c r="B556" s="1" t="s">
         <v>1500</v>
@@ -15795,7 +15803,7 @@
       <c r="E556" s="1"/>
       <c r="F556" s="1"/>
     </row>
-    <row r="557" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A557" s="1"/>
       <c r="B557" s="1" t="s">
         <v>1502</v>
@@ -15809,7 +15817,7 @@
       <c r="E557" s="1"/>
       <c r="F557" s="1"/>
     </row>
-    <row r="558" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A558" s="1"/>
       <c r="B558" s="1" t="s">
         <v>1504</v>
@@ -15823,7 +15831,7 @@
       <c r="E558" s="1"/>
       <c r="F558" s="1"/>
     </row>
-    <row r="559" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A559" s="1"/>
       <c r="B559" s="1" t="s">
         <v>1506</v>
@@ -15837,7 +15845,7 @@
       <c r="E559" s="1"/>
       <c r="F559" s="1"/>
     </row>
-    <row r="560" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A560" s="1"/>
       <c r="B560" s="1" t="s">
         <v>1508</v>
@@ -15851,7 +15859,7 @@
       <c r="E560" s="1"/>
       <c r="F560" s="1"/>
     </row>
-    <row r="561" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A561" s="1"/>
       <c r="B561" s="1" t="s">
         <v>1510</v>
@@ -15865,7 +15873,7 @@
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
     </row>
-    <row r="562" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A562" s="1">
         <v>36</v>
       </c>
@@ -15875,7 +15883,7 @@
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
     </row>
-    <row r="563" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A563" s="1"/>
       <c r="B563" s="1" t="s">
         <v>1512</v>
@@ -15889,7 +15897,7 @@
       <c r="E563" s="1"/>
       <c r="F563" s="1"/>
     </row>
-    <row r="564" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A564" s="1"/>
       <c r="B564" s="1" t="s">
         <v>1514</v>
@@ -15903,7 +15911,7 @@
       <c r="E564" s="1"/>
       <c r="F564" s="1"/>
     </row>
-    <row r="565" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A565" s="1"/>
       <c r="B565" s="1" t="s">
         <v>1516</v>
@@ -15917,7 +15925,7 @@
       <c r="E565" s="1"/>
       <c r="F565" s="1"/>
     </row>
-    <row r="566" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A566" s="1"/>
       <c r="B566" s="1" t="s">
         <v>1518</v>
@@ -15931,7 +15939,7 @@
       <c r="E566" s="1"/>
       <c r="F566" s="1"/>
     </row>
-    <row r="567" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A567" s="1"/>
       <c r="B567" s="1" t="s">
         <v>1520</v>
@@ -15945,7 +15953,7 @@
       <c r="E567" s="1"/>
       <c r="F567" s="1"/>
     </row>
-    <row r="568" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A568" s="1"/>
       <c r="B568" s="1" t="s">
         <v>1522</v>
@@ -15959,7 +15967,7 @@
       <c r="E568" s="1"/>
       <c r="F568" s="1"/>
     </row>
-    <row r="569" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A569" s="1"/>
       <c r="B569" s="1" t="s">
         <v>1524</v>
@@ -15973,7 +15981,7 @@
       <c r="E569" s="1"/>
       <c r="F569" s="1"/>
     </row>
-    <row r="570" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A570" s="1"/>
       <c r="B570" s="1" t="s">
         <v>1526</v>
@@ -15987,7 +15995,7 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
     </row>
-    <row r="571" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A571" s="1"/>
       <c r="B571" s="1" t="s">
         <v>1528</v>
@@ -16001,7 +16009,7 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
     </row>
-    <row r="572" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="s">
         <v>1530</v>
@@ -16015,7 +16023,7 @@
       <c r="E572" s="1"/>
       <c r="F572" s="1"/>
     </row>
-    <row r="573" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="s">
         <v>1532</v>
@@ -16029,7 +16037,7 @@
       <c r="E573" s="1"/>
       <c r="F573" s="1"/>
     </row>
-    <row r="574" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="s">
         <v>1534</v>
@@ -16043,7 +16051,7 @@
       <c r="E574" s="1"/>
       <c r="F574" s="1"/>
     </row>
-    <row r="575" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A575" s="1"/>
       <c r="B575" s="1" t="s">
         <v>1536</v>
@@ -16057,7 +16065,7 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
     </row>
-    <row r="576" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A576" s="1"/>
       <c r="B576" s="1" t="s">
         <v>1538</v>
@@ -16071,7 +16079,7 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
     </row>
-    <row r="577" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A577" s="1"/>
       <c r="B577" s="1" t="s">
         <v>1540</v>
@@ -16085,7 +16093,7 @@
       <c r="E577" s="1"/>
       <c r="F577" s="1"/>
     </row>
-    <row r="578" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A578" s="1">
         <v>37</v>
       </c>
@@ -16095,7 +16103,7 @@
       <c r="E578" s="1"/>
       <c r="F578" s="1"/>
     </row>
-    <row r="579" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A579" s="1"/>
       <c r="B579" s="1" t="s">
         <v>1542</v>
@@ -16109,7 +16117,7 @@
       <c r="E579" s="1"/>
       <c r="F579" s="1"/>
     </row>
-    <row r="580" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A580" s="1"/>
       <c r="B580" s="1" t="s">
         <v>1543</v>
@@ -16123,7 +16131,7 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
     </row>
-    <row r="581" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A581" s="1"/>
       <c r="B581" s="1" t="s">
         <v>1545</v>
@@ -16137,7 +16145,7 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
     </row>
-    <row r="582" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="s">
         <v>1547</v>
@@ -16151,7 +16159,7 @@
       <c r="E582" s="1"/>
       <c r="F582" s="1"/>
     </row>
-    <row r="583" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A583" s="1"/>
       <c r="B583" s="1" t="s">
         <v>1548</v>
@@ -16165,7 +16173,7 @@
       <c r="E583" s="1"/>
       <c r="F583" s="1"/>
     </row>
-    <row r="584" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A584" s="1"/>
       <c r="B584" s="1" t="s">
         <v>1550</v>
@@ -16179,7 +16187,7 @@
       <c r="E584" s="1"/>
       <c r="F584" s="1"/>
     </row>
-    <row r="585" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A585" s="1"/>
       <c r="B585" s="1" t="s">
         <v>1552</v>
@@ -16193,7 +16201,7 @@
       <c r="E585" s="1"/>
       <c r="F585" s="1"/>
     </row>
-    <row r="586" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A586" s="1"/>
       <c r="B586" s="1" t="s">
         <v>1554</v>
@@ -16207,7 +16215,7 @@
       <c r="E586" s="1"/>
       <c r="F586" s="1"/>
     </row>
-    <row r="587" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
         <v>1569</v>
@@ -16221,7 +16229,7 @@
       <c r="E587" s="1"/>
       <c r="F587" s="1"/>
     </row>
-    <row r="588" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A588" s="1"/>
       <c r="B588" s="1" t="s">
         <v>1570</v>
@@ -16235,7 +16243,7 @@
       <c r="E588" s="1"/>
       <c r="F588" s="1"/>
     </row>
-    <row r="589" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A589" s="1"/>
       <c r="B589" s="1" t="s">
         <v>1571</v>
@@ -16249,7 +16257,7 @@
       <c r="E589" s="1"/>
       <c r="F589" s="1"/>
     </row>
-    <row r="590" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A590" s="1"/>
       <c r="B590" s="1" t="s">
         <v>1572</v>
@@ -16263,7 +16271,7 @@
       <c r="E590" s="1"/>
       <c r="F590" s="1"/>
     </row>
-    <row r="591" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A591" s="1"/>
       <c r="B591" s="1" t="s">
         <v>1573</v>
@@ -16277,7 +16285,7 @@
       <c r="E591" s="1"/>
       <c r="F591" s="1"/>
     </row>
-    <row r="592" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A592" s="1"/>
       <c r="B592" s="1" t="s">
         <v>1566</v>
@@ -16291,7 +16299,7 @@
       <c r="E592" s="1"/>
       <c r="F592" s="1"/>
     </row>
-    <row r="593" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A593" s="1"/>
       <c r="B593" s="1" t="s">
         <v>1568</v>
@@ -16305,7 +16313,7 @@
       <c r="E593" s="1"/>
       <c r="F593" s="1"/>
     </row>
-    <row r="594" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A594" s="1">
         <v>38</v>
       </c>
@@ -16315,7 +16323,7 @@
       <c r="E594" s="1"/>
       <c r="F594" s="1"/>
     </row>
-    <row r="595" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A595" s="1"/>
       <c r="B595" s="1" t="s">
         <v>1604</v>
@@ -16329,7 +16337,7 @@
       <c r="E595" s="1"/>
       <c r="F595" s="1"/>
     </row>
-    <row r="596" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A596" s="1"/>
       <c r="B596" s="1" t="s">
         <v>1605</v>
@@ -16343,7 +16351,7 @@
       <c r="E596" s="1"/>
       <c r="F596" s="1"/>
     </row>
-    <row r="597" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A597" s="1"/>
       <c r="B597" s="1" t="s">
         <v>1606</v>
@@ -16357,7 +16365,7 @@
       <c r="E597" s="1"/>
       <c r="F597" s="1"/>
     </row>
-    <row r="598" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A598" s="1"/>
       <c r="B598" s="1" t="s">
         <v>1607</v>
@@ -16371,7 +16379,7 @@
       <c r="E598" s="1"/>
       <c r="F598" s="1"/>
     </row>
-    <row r="599" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A599" s="1"/>
       <c r="B599" s="1" t="s">
         <v>1608</v>
@@ -16385,7 +16393,7 @@
       <c r="E599" s="1"/>
       <c r="F599" s="1"/>
     </row>
-    <row r="600" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A600" s="1"/>
       <c r="B600" s="1" t="s">
         <v>1585</v>
@@ -16399,7 +16407,7 @@
       <c r="E600" s="1"/>
       <c r="F600" s="1"/>
     </row>
-    <row r="601" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A601" s="1"/>
       <c r="B601" s="1" t="s">
         <v>1609</v>
@@ -16413,7 +16421,7 @@
       <c r="E601" s="1"/>
       <c r="F601" s="1"/>
     </row>
-    <row r="602" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A602" s="1"/>
       <c r="B602" s="1" t="s">
         <v>1610</v>
@@ -16427,7 +16435,7 @@
       <c r="E602" s="1"/>
       <c r="F602" s="1"/>
     </row>
-    <row r="603" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A603" s="1"/>
       <c r="B603" s="1" t="s">
         <v>1611</v>
@@ -16441,7 +16449,7 @@
       <c r="E603" s="1"/>
       <c r="F603" s="1"/>
     </row>
-    <row r="604" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A604" s="1"/>
       <c r="B604" s="1" t="s">
         <v>1612</v>
@@ -16455,7 +16463,7 @@
       <c r="E604" s="1"/>
       <c r="F604" s="1"/>
     </row>
-    <row r="605" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A605" s="1"/>
       <c r="B605" s="1" t="s">
         <v>1613</v>
@@ -16469,7 +16477,7 @@
       <c r="E605" s="1"/>
       <c r="F605" s="1"/>
     </row>
-    <row r="606" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A606" s="1"/>
       <c r="B606" s="1" t="s">
         <v>1614</v>
@@ -16483,7 +16491,7 @@
       <c r="E606" s="1"/>
       <c r="F606" s="1"/>
     </row>
-    <row r="607" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A607" s="1"/>
       <c r="B607" s="1" t="s">
         <v>1615</v>
@@ -16497,7 +16505,7 @@
       <c r="E607" s="1"/>
       <c r="F607" s="1"/>
     </row>
-    <row r="608" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A608" s="1"/>
       <c r="B608" s="1" t="s">
         <v>1616</v>
@@ -16511,7 +16519,7 @@
       <c r="E608" s="1"/>
       <c r="F608" s="1"/>
     </row>
-    <row r="609" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>1617</v>
@@ -16525,7 +16533,7 @@
       <c r="E609" s="1"/>
       <c r="F609" s="1"/>
     </row>
-    <row r="610" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A610" s="1">
         <v>39</v>
       </c>
@@ -16535,7 +16543,7 @@
       <c r="E610" s="1"/>
       <c r="F610" s="1"/>
     </row>
-    <row r="611" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A611" s="1"/>
       <c r="B611" s="1" t="s">
         <v>1648</v>
@@ -16549,7 +16557,7 @@
       <c r="E611" s="1"/>
       <c r="F611" s="1"/>
     </row>
-    <row r="612" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A612" s="1"/>
       <c r="B612" s="1" t="s">
         <v>1621</v>
@@ -16563,7 +16571,7 @@
       <c r="E612" s="1"/>
       <c r="F612" s="1"/>
     </row>
-    <row r="613" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A613" s="1"/>
       <c r="B613" s="1" t="s">
         <v>1649</v>
@@ -16577,7 +16585,7 @@
       <c r="E613" s="1"/>
       <c r="F613" s="1"/>
     </row>
-    <row r="614" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A614" s="1"/>
       <c r="B614" s="1" t="s">
         <v>1650</v>
@@ -16591,7 +16599,7 @@
       <c r="E614" s="1"/>
       <c r="F614" s="1"/>
     </row>
-    <row r="615" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A615" s="1"/>
       <c r="B615" s="1" t="s">
         <v>1651</v>
@@ -16605,7 +16613,7 @@
       <c r="E615" s="1"/>
       <c r="F615" s="1"/>
     </row>
-    <row r="616" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A616" s="1"/>
       <c r="B616" s="1" t="s">
         <v>1629</v>
@@ -16619,7 +16627,7 @@
       <c r="E616" s="1"/>
       <c r="F616" s="1"/>
     </row>
-    <row r="617" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A617" s="1"/>
       <c r="B617" s="1" t="s">
         <v>1652</v>
@@ -16633,7 +16641,7 @@
       <c r="E617" s="1"/>
       <c r="F617" s="1"/>
     </row>
-    <row r="618" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A618" s="1"/>
       <c r="B618" s="1" t="s">
         <v>1653</v>
@@ -16647,7 +16655,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A619" s="1"/>
       <c r="B619" s="1" t="s">
         <v>1654</v>
@@ -16661,7 +16669,7 @@
       <c r="E619" s="1"/>
       <c r="F619" s="1"/>
     </row>
-    <row r="620" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A620" s="1"/>
       <c r="B620" s="1" t="s">
         <v>1655</v>
@@ -16675,7 +16683,7 @@
       <c r="E620" s="1"/>
       <c r="F620" s="1"/>
     </row>
-    <row r="621" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A621" s="1"/>
       <c r="B621" s="1" t="s">
         <v>1656</v>
@@ -16689,7 +16697,7 @@
       <c r="E621" s="1"/>
       <c r="F621" s="1"/>
     </row>
-    <row r="622" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A622" s="1"/>
       <c r="B622" s="1" t="s">
         <v>1657</v>
@@ -16703,7 +16711,7 @@
       <c r="E622" s="1"/>
       <c r="F622" s="1"/>
     </row>
-    <row r="623" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
         <v>1658</v>
@@ -16717,7 +16725,7 @@
       <c r="E623" s="1"/>
       <c r="F623" s="1"/>
     </row>
-    <row r="624" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A624" s="1"/>
       <c r="B624" s="1" t="s">
         <v>1659</v>
@@ -16731,7 +16739,7 @@
       <c r="E624" s="1"/>
       <c r="F624" s="1"/>
     </row>
-    <row r="625" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A625" s="1"/>
       <c r="B625" s="1" t="s">
         <v>1660</v>
@@ -16745,7 +16753,7 @@
       <c r="E625" s="1"/>
       <c r="F625" s="1"/>
     </row>
-    <row r="626" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A626" s="1">
         <v>40</v>
       </c>
@@ -16755,7 +16763,7 @@
       <c r="E626" s="1"/>
       <c r="F626" s="1"/>
     </row>
-    <row r="627" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
         <v>1690</v>
@@ -16769,7 +16777,7 @@
       <c r="E627" s="1"/>
       <c r="F627" s="1"/>
     </row>
-    <row r="628" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
         <v>1664</v>
@@ -16781,11 +16789,11 @@
         <v>1663</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F628" s="1"/>
     </row>
-    <row r="629" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A629" s="1"/>
       <c r="B629" s="1" t="s">
         <v>1666</v>
@@ -16797,11 +16805,11 @@
         <v>1665</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F629" s="1"/>
     </row>
-    <row r="630" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>1691</v>
@@ -16813,11 +16821,11 @@
         <v>1667</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F630" s="1"/>
     </row>
-    <row r="631" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A631" s="1"/>
       <c r="B631" s="1" t="s">
         <v>1692</v>
@@ -16831,7 +16839,7 @@
       <c r="E631" s="1"/>
       <c r="F631" s="1"/>
     </row>
-    <row r="632" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
         <v>1693</v>
@@ -16845,7 +16853,7 @@
       <c r="E632" s="1"/>
       <c r="F632" s="1"/>
     </row>
-    <row r="633" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A633" s="1"/>
       <c r="B633" s="1" t="s">
         <v>1694</v>
@@ -16859,7 +16867,7 @@
       <c r="E633" s="1"/>
       <c r="F633" s="1"/>
     </row>
-    <row r="634" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
         <v>1695</v>
@@ -16871,11 +16879,11 @@
         <v>1675</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F634" s="1"/>
     </row>
-    <row r="635" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A635" s="1"/>
       <c r="B635" s="1" t="s">
         <v>1677</v>
@@ -16887,11 +16895,11 @@
         <v>1675</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F635" s="1"/>
     </row>
-    <row r="636" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="s">
         <v>1679</v>
@@ -16903,11 +16911,11 @@
         <v>1678</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="F636" s="1"/>
     </row>
-    <row r="637" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A637" s="1"/>
       <c r="B637" s="1" t="s">
         <v>1696</v>
@@ -16921,7 +16929,7 @@
       <c r="E637" s="1"/>
       <c r="F637" s="1"/>
     </row>
-    <row r="638" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A638" s="1"/>
       <c r="B638" s="1" t="s">
         <v>1683</v>
@@ -16935,7 +16943,7 @@
       <c r="E638" s="1"/>
       <c r="F638" s="1"/>
     </row>
-    <row r="639" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A639" s="1"/>
       <c r="B639" s="1" t="s">
         <v>1685</v>
@@ -16949,7 +16957,7 @@
       <c r="E639" s="1"/>
       <c r="F639" s="1"/>
     </row>
-    <row r="640" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A640" s="1"/>
       <c r="B640" s="1" t="s">
         <v>1697</v>
@@ -16963,7 +16971,7 @@
       <c r="E640" s="1"/>
       <c r="F640" s="1"/>
     </row>
-    <row r="641" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A641" s="1"/>
       <c r="B641" s="1" t="s">
         <v>1689</v>
@@ -16977,7 +16985,7 @@
       <c r="E641" s="1"/>
       <c r="F641" s="1"/>
     </row>
-    <row r="642" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A642" s="1">
         <v>41</v>
       </c>
@@ -16987,7 +16995,7 @@
       <c r="E642" s="1"/>
       <c r="F642" s="1"/>
     </row>
-    <row r="643" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="s">
         <v>1728</v>
@@ -17001,7 +17009,7 @@
       <c r="E643" s="1"/>
       <c r="F643" s="1"/>
     </row>
-    <row r="644" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A644" s="1"/>
       <c r="B644" s="1" t="s">
         <v>1729</v>
@@ -17015,7 +17023,7 @@
       <c r="E644" s="1"/>
       <c r="F644" s="1"/>
     </row>
-    <row r="645" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="s">
         <v>1730</v>
@@ -17029,7 +17037,7 @@
       <c r="E645" s="1"/>
       <c r="F645" s="1"/>
     </row>
-    <row r="646" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>1731</v>
@@ -17043,7 +17051,7 @@
       <c r="E646" s="1"/>
       <c r="F646" s="1"/>
     </row>
-    <row r="647" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A647" s="1"/>
       <c r="B647" s="1" t="s">
         <v>1707</v>
@@ -17057,7 +17065,7 @@
       <c r="E647" s="1"/>
       <c r="F647" s="1"/>
     </row>
-    <row r="648" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A648" s="1"/>
       <c r="B648" s="1" t="s">
         <v>1709</v>
@@ -17071,7 +17079,7 @@
       <c r="E648" s="1"/>
       <c r="F648" s="1"/>
     </row>
-    <row r="649" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A649" s="1"/>
       <c r="B649" s="1" t="s">
         <v>1711</v>
@@ -17085,7 +17093,7 @@
       <c r="E649" s="1"/>
       <c r="F649" s="1"/>
     </row>
-    <row r="650" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A650" s="1"/>
       <c r="B650" s="1" t="s">
         <v>1732</v>
@@ -17099,7 +17107,7 @@
       <c r="E650" s="1"/>
       <c r="F650" s="1"/>
     </row>
-    <row r="651" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A651" s="1"/>
       <c r="B651" s="1" t="s">
         <v>1733</v>
@@ -17113,7 +17121,7 @@
       <c r="E651" s="1"/>
       <c r="F651" s="1"/>
     </row>
-    <row r="652" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A652" s="1"/>
       <c r="B652" s="1" t="s">
         <v>1734</v>
@@ -17127,7 +17135,7 @@
       <c r="E652" s="1"/>
       <c r="F652" s="1"/>
     </row>
-    <row r="653" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A653" s="1"/>
       <c r="B653" s="1" t="s">
         <v>1719</v>
@@ -17141,7 +17149,7 @@
       <c r="E653" s="1"/>
       <c r="F653" s="1"/>
     </row>
-    <row r="654" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A654" s="1"/>
       <c r="B654" s="1" t="s">
         <v>1735</v>
@@ -17155,7 +17163,7 @@
       <c r="E654" s="1"/>
       <c r="F654" s="1"/>
     </row>
-    <row r="655" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A655" s="1"/>
       <c r="B655" s="1" t="s">
         <v>1736</v>
@@ -17169,7 +17177,7 @@
       <c r="E655" s="1"/>
       <c r="F655" s="1"/>
     </row>
-    <row r="656" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A656" s="1"/>
       <c r="B656" s="1" t="s">
         <v>1725</v>
@@ -17183,7 +17191,7 @@
       <c r="E656" s="1"/>
       <c r="F656" s="1"/>
     </row>
-    <row r="657" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A657" s="1"/>
       <c r="B657" s="1" t="s">
         <v>1737</v>
@@ -17197,7 +17205,7 @@
       <c r="E657" s="1"/>
       <c r="F657" s="1"/>
     </row>
-    <row r="658" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A658" s="1">
         <v>42</v>
       </c>
@@ -17207,7 +17215,7 @@
       <c r="E658" s="1"/>
       <c r="F658" s="1"/>
     </row>
-    <row r="659" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A659" s="1"/>
       <c r="B659" s="1" t="s">
         <v>1739</v>
@@ -17221,7 +17229,7 @@
       <c r="E659" s="1"/>
       <c r="F659" s="1"/>
     </row>
-    <row r="660" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>1741</v>
@@ -17235,7 +17243,7 @@
       <c r="E660" s="1"/>
       <c r="F660" s="1"/>
     </row>
-    <row r="661" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A661" s="1"/>
       <c r="B661" s="1" t="s">
         <v>1743</v>
@@ -17249,7 +17257,7 @@
       <c r="E661" s="1"/>
       <c r="F661" s="1"/>
     </row>
-    <row r="662" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>1768</v>
@@ -17263,7 +17271,7 @@
       <c r="E662" s="1"/>
       <c r="F662" s="1"/>
     </row>
-    <row r="663" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A663" s="1"/>
       <c r="B663" s="1" t="s">
         <v>1747</v>
@@ -17277,7 +17285,7 @@
       <c r="E663" s="1"/>
       <c r="F663" s="1"/>
     </row>
-    <row r="664" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A664" s="1"/>
       <c r="B664" s="1" t="s">
         <v>1769</v>
@@ -17291,7 +17299,7 @@
       <c r="E664" s="1"/>
       <c r="F664" s="1"/>
     </row>
-    <row r="665" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A665" s="1"/>
       <c r="B665" s="1" t="s">
         <v>1770</v>
@@ -17305,7 +17313,7 @@
       <c r="E665" s="1"/>
       <c r="F665" s="1"/>
     </row>
-    <row r="666" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A666" s="1"/>
       <c r="B666" s="1" t="s">
         <v>1771</v>
@@ -17319,7 +17327,7 @@
       <c r="E666" s="1"/>
       <c r="F666" s="1"/>
     </row>
-    <row r="667" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>1772</v>
@@ -17333,7 +17341,7 @@
       <c r="E667" s="1"/>
       <c r="F667" s="1"/>
     </row>
-    <row r="668" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A668" s="1"/>
       <c r="B668" s="1" t="s">
         <v>1757</v>
@@ -17347,7 +17355,7 @@
       <c r="E668" s="1"/>
       <c r="F668" s="1"/>
     </row>
-    <row r="669" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A669" s="1"/>
       <c r="B669" s="1" t="s">
         <v>1759</v>
@@ -17361,7 +17369,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
     </row>
-    <row r="670" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>1761</v>
@@ -17375,7 +17383,7 @@
       <c r="E670" s="1"/>
       <c r="F670" s="1"/>
     </row>
-    <row r="671" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A671" s="1"/>
       <c r="B671" s="1" t="s">
         <v>1763</v>
@@ -17389,7 +17397,7 @@
       <c r="E671" s="1"/>
       <c r="F671" s="1"/>
     </row>
-    <row r="672" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>1773</v>
@@ -17403,7 +17411,7 @@
       <c r="E672" s="1"/>
       <c r="F672" s="1"/>
     </row>
-    <row r="673" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A673" s="1"/>
       <c r="B673" s="1" t="s">
         <v>1767</v>
@@ -17417,7 +17425,7 @@
       <c r="E673" s="1"/>
       <c r="F673" s="1"/>
     </row>
-    <row r="674" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A674" s="1">
         <v>43</v>
       </c>
@@ -17427,7 +17435,7 @@
       <c r="E674" s="1"/>
       <c r="F674" s="1"/>
     </row>
-    <row r="675" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A675" s="1"/>
       <c r="B675" s="1" t="s">
         <v>1775</v>
@@ -17441,7 +17449,7 @@
       <c r="E675" s="1"/>
       <c r="F675" s="1"/>
     </row>
-    <row r="676" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A676" s="1"/>
       <c r="B676" s="1" t="s">
         <v>1777</v>
@@ -17455,7 +17463,7 @@
       <c r="E676" s="1"/>
       <c r="F676" s="1"/>
     </row>
-    <row r="677" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A677" s="1"/>
       <c r="B677" s="1" t="s">
         <v>1804</v>
@@ -17469,7 +17477,7 @@
       <c r="E677" s="1"/>
       <c r="F677" s="1"/>
     </row>
-    <row r="678" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A678" s="1"/>
       <c r="B678" s="1" t="s">
         <v>1805</v>
@@ -17483,7 +17491,7 @@
       <c r="E678" s="1"/>
       <c r="F678" s="1"/>
     </row>
-    <row r="679" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A679" s="1"/>
       <c r="B679" s="1" t="s">
         <v>1806</v>
@@ -17497,7 +17505,7 @@
       <c r="E679" s="1"/>
       <c r="F679" s="1"/>
     </row>
-    <row r="680" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A680" s="1"/>
       <c r="B680" s="1" t="s">
         <v>1807</v>
@@ -17511,7 +17519,7 @@
       <c r="E680" s="1"/>
       <c r="F680" s="1"/>
     </row>
-    <row r="681" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
         <v>1808</v>
@@ -17525,7 +17533,7 @@
       <c r="E681" s="1"/>
       <c r="F681" s="1"/>
     </row>
-    <row r="682" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A682" s="1"/>
       <c r="B682" s="1" t="s">
         <v>1809</v>
@@ -17539,7 +17547,7 @@
       <c r="E682" s="1"/>
       <c r="F682" s="1"/>
     </row>
-    <row r="683" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A683" s="1"/>
       <c r="B683" s="1" t="s">
         <v>1810</v>
@@ -17553,7 +17561,7 @@
       <c r="E683" s="1"/>
       <c r="F683" s="1"/>
     </row>
-    <row r="684" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A684" s="1"/>
       <c r="B684" s="1" t="s">
         <v>1811</v>
@@ -17567,7 +17575,7 @@
       <c r="E684" s="1"/>
       <c r="F684" s="1"/>
     </row>
-    <row r="685" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A685" s="1"/>
       <c r="B685" s="1" t="s">
         <v>1812</v>
@@ -17581,7 +17589,7 @@
       <c r="E685" s="1"/>
       <c r="F685" s="1"/>
     </row>
-    <row r="686" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A686" s="1"/>
       <c r="B686" s="1" t="s">
         <v>1813</v>
@@ -17595,7 +17603,7 @@
       <c r="E686" s="1"/>
       <c r="F686" s="1"/>
     </row>
-    <row r="687" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A687" s="1"/>
       <c r="B687" s="1" t="s">
         <v>1814</v>
@@ -17609,7 +17617,7 @@
       <c r="E687" s="1"/>
       <c r="F687" s="1"/>
     </row>
-    <row r="688" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A688" s="1"/>
       <c r="B688" s="1" t="s">
         <v>1815</v>
@@ -17623,7 +17631,7 @@
       <c r="E688" s="1"/>
       <c r="F688" s="1"/>
     </row>
-    <row r="689" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
         <v>1816</v>
@@ -17637,7 +17645,7 @@
       <c r="E689" s="1"/>
       <c r="F689" s="1"/>
     </row>
-    <row r="690" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A690" s="1">
         <v>44</v>
       </c>
@@ -17647,7 +17655,7 @@
       <c r="E690" s="1"/>
       <c r="F690" s="1"/>
     </row>
-    <row r="691" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A691" s="1"/>
       <c r="B691" s="1" t="s">
         <v>1846</v>
@@ -17661,7 +17669,7 @@
       <c r="E691" s="1"/>
       <c r="F691" s="1"/>
     </row>
-    <row r="692" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A692" s="1"/>
       <c r="B692" s="1" t="s">
         <v>1847</v>
@@ -17675,7 +17683,7 @@
       <c r="E692" s="1"/>
       <c r="F692" s="1"/>
     </row>
-    <row r="693" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A693" s="1"/>
       <c r="B693" s="1" t="s">
         <v>1848</v>
@@ -17689,7 +17697,7 @@
       <c r="E693" s="1"/>
       <c r="F693" s="1"/>
     </row>
-    <row r="694" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A694" s="1"/>
       <c r="B694" s="1" t="s">
         <v>1849</v>
@@ -17703,7 +17711,7 @@
       <c r="E694" s="1"/>
       <c r="F694" s="1"/>
     </row>
-    <row r="695" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A695" s="1"/>
       <c r="B695" s="1" t="s">
         <v>1850</v>
@@ -17717,7 +17725,7 @@
       <c r="E695" s="1"/>
       <c r="F695" s="1"/>
     </row>
-    <row r="696" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A696" s="1"/>
       <c r="B696" s="1" t="s">
         <v>1851</v>
@@ -17731,7 +17739,7 @@
       <c r="E696" s="1"/>
       <c r="F696" s="1"/>
     </row>
-    <row r="697" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A697" s="1"/>
       <c r="B697" s="1" t="s">
         <v>1852</v>
@@ -17745,7 +17753,7 @@
       <c r="E697" s="1"/>
       <c r="F697" s="1"/>
     </row>
-    <row r="698" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="s">
         <v>1853</v>
@@ -17759,13 +17767,13 @@
       <c r="E698" s="1"/>
       <c r="F698" s="1"/>
     </row>
-    <row r="699" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A699" s="1"/>
       <c r="B699" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>1833</v>
@@ -17773,7 +17781,7 @@
       <c r="E699" s="1"/>
       <c r="F699" s="1"/>
     </row>
-    <row r="700" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>1855</v>
@@ -17787,7 +17795,7 @@
       <c r="E700" s="1"/>
       <c r="F700" s="1"/>
     </row>
-    <row r="701" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A701" s="1"/>
       <c r="B701" s="1" t="s">
         <v>1856</v>
@@ -17801,7 +17809,7 @@
       <c r="E701" s="1"/>
       <c r="F701" s="1"/>
     </row>
-    <row r="702" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A702" s="1"/>
       <c r="B702" s="1" t="s">
         <v>1857</v>
@@ -17815,7 +17823,7 @@
       <c r="E702" s="1"/>
       <c r="F702" s="1"/>
     </row>
-    <row r="703" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A703" s="1"/>
       <c r="B703" s="1" t="s">
         <v>1858</v>
@@ -17829,7 +17837,7 @@
       <c r="E703" s="1"/>
       <c r="F703" s="1"/>
     </row>
-    <row r="704" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A704" s="1"/>
       <c r="B704" s="1" t="s">
         <v>1859</v>
@@ -17843,7 +17851,7 @@
       <c r="E704" s="1"/>
       <c r="F704" s="1"/>
     </row>
-    <row r="705" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A705" s="1"/>
       <c r="B705" s="1" t="s">
         <v>1860</v>
@@ -17857,7 +17865,7 @@
       <c r="E705" s="1"/>
       <c r="F705" s="1"/>
     </row>
-    <row r="706" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A706" s="1">
         <v>45</v>
       </c>
@@ -17867,7 +17875,7 @@
       <c r="E706" s="1"/>
       <c r="F706" s="1"/>
     </row>
-    <row r="707" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A707" s="1"/>
       <c r="B707" s="1" t="s">
         <v>1891</v>
@@ -17881,7 +17889,7 @@
       <c r="E707" s="1"/>
       <c r="F707" s="1"/>
     </row>
-    <row r="708" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A708" s="1"/>
       <c r="B708" s="1" t="s">
         <v>1892</v>
@@ -17895,7 +17903,7 @@
       <c r="E708" s="1"/>
       <c r="F708" s="1"/>
     </row>
-    <row r="709" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A709" s="1"/>
       <c r="B709" s="1" t="s">
         <v>1893</v>
@@ -17909,7 +17917,7 @@
       <c r="E709" s="1"/>
       <c r="F709" s="1"/>
     </row>
-    <row r="710" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A710" s="1"/>
       <c r="B710" s="1" t="s">
         <v>1894</v>
@@ -17923,7 +17931,7 @@
       <c r="E710" s="1"/>
       <c r="F710" s="1"/>
     </row>
-    <row r="711" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A711" s="1"/>
       <c r="B711" s="1" t="s">
         <v>1895</v>
@@ -17937,7 +17945,7 @@
       <c r="E711" s="1"/>
       <c r="F711" s="1"/>
     </row>
-    <row r="712" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A712" s="1"/>
       <c r="B712" s="1" t="s">
         <v>1896</v>
@@ -17951,7 +17959,7 @@
       <c r="E712" s="1"/>
       <c r="F712" s="1"/>
     </row>
-    <row r="713" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A713" s="1"/>
       <c r="B713" s="1" t="s">
         <v>1897</v>
@@ -17965,7 +17973,7 @@
       <c r="E713" s="1"/>
       <c r="F713" s="1"/>
     </row>
-    <row r="714" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A714" s="1"/>
       <c r="B714" s="1" t="s">
         <v>1898</v>
@@ -17979,7 +17987,7 @@
       <c r="E714" s="1"/>
       <c r="F714" s="1"/>
     </row>
-    <row r="715" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A715" s="1"/>
       <c r="B715" s="1" t="s">
         <v>1899</v>
@@ -17993,7 +18001,7 @@
       <c r="E715" s="1"/>
       <c r="F715" s="1"/>
     </row>
-    <row r="716" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A716" s="1"/>
       <c r="B716" s="1" t="s">
         <v>1900</v>
@@ -18007,7 +18015,7 @@
       <c r="E716" s="1"/>
       <c r="F716" s="1"/>
     </row>
-    <row r="717" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A717" s="1"/>
       <c r="B717" s="1" t="s">
         <v>1901</v>
@@ -18021,7 +18029,7 @@
       <c r="E717" s="1"/>
       <c r="F717" s="1"/>
     </row>
-    <row r="718" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A718" s="1"/>
       <c r="B718" s="1" t="s">
         <v>1902</v>
@@ -18035,7 +18043,7 @@
       <c r="E718" s="1"/>
       <c r="F718" s="1"/>
     </row>
-    <row r="719" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A719" s="1"/>
       <c r="B719" s="1" t="s">
         <v>1903</v>
@@ -18049,7 +18057,7 @@
       <c r="E719" s="1"/>
       <c r="F719" s="1"/>
     </row>
-    <row r="720" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A720" s="1"/>
       <c r="B720" s="1" t="s">
         <v>1904</v>
@@ -18063,7 +18071,7 @@
       <c r="E720" s="1"/>
       <c r="F720" s="1"/>
     </row>
-    <row r="721" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A721" s="1"/>
       <c r="B721" s="1" t="s">
         <v>1905</v>
@@ -18077,7 +18085,7 @@
       <c r="E721" s="1"/>
       <c r="F721" s="1"/>
     </row>
-    <row r="722" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A722" s="1">
         <v>46</v>
       </c>
@@ -18087,7 +18095,7 @@
       <c r="E722" s="1"/>
       <c r="F722" s="1"/>
     </row>
-    <row r="723" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A723" s="1"/>
       <c r="B723" s="1" t="s">
         <v>1936</v>
@@ -18101,7 +18109,7 @@
       <c r="E723" s="1"/>
       <c r="F723" s="1"/>
     </row>
-    <row r="724" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A724" s="1"/>
       <c r="B724" s="1" t="s">
         <v>1937</v>
@@ -18115,7 +18123,7 @@
       <c r="E724" s="1"/>
       <c r="F724" s="1"/>
     </row>
-    <row r="725" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A725" s="1"/>
       <c r="B725" s="1" t="s">
         <v>1938</v>
@@ -18129,7 +18137,7 @@
       <c r="E725" s="1"/>
       <c r="F725" s="1"/>
     </row>
-    <row r="726" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A726" s="1"/>
       <c r="B726" s="1" t="s">
         <v>1939</v>
@@ -18143,7 +18151,7 @@
       <c r="E726" s="1"/>
       <c r="F726" s="1"/>
     </row>
-    <row r="727" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A727" s="1"/>
       <c r="B727" s="1" t="s">
         <v>1940</v>
@@ -18157,7 +18165,7 @@
       <c r="E727" s="1"/>
       <c r="F727" s="1"/>
     </row>
-    <row r="728" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A728" s="1"/>
       <c r="B728" s="1" t="s">
         <v>1941</v>
@@ -18171,7 +18179,7 @@
       <c r="E728" s="1"/>
       <c r="F728" s="1"/>
     </row>
-    <row r="729" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A729" s="1"/>
       <c r="B729" s="1" t="s">
         <v>1942</v>
@@ -18185,7 +18193,7 @@
       <c r="E729" s="1"/>
       <c r="F729" s="1"/>
     </row>
-    <row r="730" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A730" s="1"/>
       <c r="B730" s="1" t="s">
         <v>1943</v>
@@ -18199,7 +18207,7 @@
       <c r="E730" s="1"/>
       <c r="F730" s="1"/>
     </row>
-    <row r="731" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A731" s="1"/>
       <c r="B731" s="1" t="s">
         <v>1944</v>
@@ -18213,7 +18221,7 @@
       <c r="E731" s="1"/>
       <c r="F731" s="1"/>
     </row>
-    <row r="732" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A732" s="1"/>
       <c r="B732" s="1" t="s">
         <v>1945</v>
@@ -18227,7 +18235,7 @@
       <c r="E732" s="1"/>
       <c r="F732" s="1"/>
     </row>
-    <row r="733" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A733" s="1"/>
       <c r="B733" s="1" t="s">
         <v>1946</v>
@@ -18241,7 +18249,7 @@
       <c r="E733" s="1"/>
       <c r="F733" s="1"/>
     </row>
-    <row r="734" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A734" s="1"/>
       <c r="B734" s="1" t="s">
         <v>1947</v>
@@ -18255,7 +18263,7 @@
       <c r="E734" s="1"/>
       <c r="F734" s="1"/>
     </row>
-    <row r="735" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A735" s="1"/>
       <c r="B735" s="1" t="s">
         <v>1948</v>
@@ -18269,7 +18277,7 @@
       <c r="E735" s="1"/>
       <c r="F735" s="1"/>
     </row>
-    <row r="736" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A736" s="1"/>
       <c r="B736" s="1" t="s">
         <v>1949</v>
@@ -18283,7 +18291,7 @@
       <c r="E736" s="1"/>
       <c r="F736" s="1"/>
     </row>
-    <row r="737" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A737" s="1"/>
       <c r="B737" s="1" t="s">
         <v>1950</v>
@@ -18297,7 +18305,7 @@
       <c r="E737" s="1"/>
       <c r="F737" s="1"/>
     </row>
-    <row r="738" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A738" s="1">
         <v>47</v>
       </c>
@@ -18307,7 +18315,7 @@
       <c r="E738" s="1"/>
       <c r="F738" s="1"/>
     </row>
-    <row r="739" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A739" s="1"/>
       <c r="B739" s="1" t="s">
         <v>1981</v>
@@ -18321,7 +18329,7 @@
       <c r="E739" s="1"/>
       <c r="F739" s="1"/>
     </row>
-    <row r="740" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A740" s="1"/>
       <c r="B740" s="1" t="s">
         <v>1982</v>
@@ -18335,7 +18343,7 @@
       <c r="E740" s="1"/>
       <c r="F740" s="1"/>
     </row>
-    <row r="741" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A741" s="1"/>
       <c r="B741" s="1" t="s">
         <v>1983</v>
@@ -18349,7 +18357,7 @@
       <c r="E741" s="1"/>
       <c r="F741" s="1"/>
     </row>
-    <row r="742" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A742" s="1"/>
       <c r="B742" s="1" t="s">
         <v>1984</v>
@@ -18363,7 +18371,7 @@
       <c r="E742" s="1"/>
       <c r="F742" s="1"/>
     </row>
-    <row r="743" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A743" s="1"/>
       <c r="B743" s="1" t="s">
         <v>1985</v>
@@ -18377,7 +18385,7 @@
       <c r="E743" s="1"/>
       <c r="F743" s="1"/>
     </row>
-    <row r="744" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A744" s="1"/>
       <c r="B744" s="1" t="s">
         <v>1986</v>
@@ -18391,7 +18399,7 @@
       <c r="E744" s="1"/>
       <c r="F744" s="1"/>
     </row>
-    <row r="745" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A745" s="1"/>
       <c r="B745" s="1" t="s">
         <v>1987</v>
@@ -18405,7 +18413,7 @@
       <c r="E745" s="1"/>
       <c r="F745" s="1"/>
     </row>
-    <row r="746" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A746" s="1"/>
       <c r="B746" s="1" t="s">
         <v>1988</v>
@@ -18419,7 +18427,7 @@
       <c r="E746" s="1"/>
       <c r="F746" s="1"/>
     </row>
-    <row r="747" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A747" s="1"/>
       <c r="B747" s="1" t="s">
         <v>1989</v>
@@ -18433,7 +18441,7 @@
       <c r="E747" s="1"/>
       <c r="F747" s="1"/>
     </row>
-    <row r="748" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A748" s="1"/>
       <c r="B748" s="1" t="s">
         <v>1990</v>
@@ -18447,7 +18455,7 @@
       <c r="E748" s="1"/>
       <c r="F748" s="1"/>
     </row>
-    <row r="749" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A749" s="1"/>
       <c r="B749" s="1" t="s">
         <v>1991</v>
@@ -18461,7 +18469,7 @@
       <c r="E749" s="1"/>
       <c r="F749" s="1"/>
     </row>
-    <row r="750" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A750" s="1"/>
       <c r="B750" s="1" t="s">
         <v>1992</v>
@@ -18475,7 +18483,7 @@
       <c r="E750" s="1"/>
       <c r="F750" s="1"/>
     </row>
-    <row r="751" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A751" s="1"/>
       <c r="B751" s="1" t="s">
         <v>1993</v>
@@ -18489,7 +18497,7 @@
       <c r="E751" s="1"/>
       <c r="F751" s="1"/>
     </row>
-    <row r="752" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A752" s="1"/>
       <c r="B752" s="1" t="s">
         <v>1994</v>
@@ -18503,7 +18511,7 @@
       <c r="E752" s="1"/>
       <c r="F752" s="1"/>
     </row>
-    <row r="753" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A753" s="1"/>
       <c r="B753" s="1" t="s">
         <v>1995</v>
@@ -18517,7 +18525,7 @@
       <c r="E753" s="1"/>
       <c r="F753" s="1"/>
     </row>
-    <row r="754" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A754" s="1">
         <v>48</v>
       </c>
@@ -18527,7 +18535,7 @@
       <c r="E754" s="1"/>
       <c r="F754" s="1"/>
     </row>
-    <row r="755" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A755" s="1"/>
       <c r="B755" s="1" t="s">
         <v>2025</v>
@@ -18541,7 +18549,7 @@
       <c r="E755" s="1"/>
       <c r="F755" s="1"/>
     </row>
-    <row r="756" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A756" s="1"/>
       <c r="B756" s="1" t="s">
         <v>2026</v>
@@ -18555,7 +18563,7 @@
       <c r="E756" s="1"/>
       <c r="F756" s="1"/>
     </row>
-    <row r="757" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A757" s="1"/>
       <c r="B757" s="1" t="s">
         <v>2027</v>
@@ -18569,7 +18577,7 @@
       <c r="E757" s="1"/>
       <c r="F757" s="1"/>
     </row>
-    <row r="758" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A758" s="1"/>
       <c r="B758" s="1" t="s">
         <v>2028</v>
@@ -18583,7 +18591,7 @@
       <c r="E758" s="1"/>
       <c r="F758" s="1"/>
     </row>
-    <row r="759" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A759" s="1"/>
       <c r="B759" s="1" t="s">
         <v>2029</v>
@@ -18597,7 +18605,7 @@
       <c r="E759" s="1"/>
       <c r="F759" s="1"/>
     </row>
-    <row r="760" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A760" s="1"/>
       <c r="B760" s="1" t="s">
         <v>2030</v>
@@ -18611,7 +18619,7 @@
       <c r="E760" s="1"/>
       <c r="F760" s="1"/>
     </row>
-    <row r="761" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A761" s="1"/>
       <c r="B761" s="1" t="s">
         <v>2031</v>
@@ -18625,7 +18633,7 @@
       <c r="E761" s="1"/>
       <c r="F761" s="1"/>
     </row>
-    <row r="762" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A762" s="1"/>
       <c r="B762" s="1" t="s">
         <v>2032</v>
@@ -18639,7 +18647,7 @@
       <c r="E762" s="1"/>
       <c r="F762" s="1"/>
     </row>
-    <row r="763" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A763" s="1"/>
       <c r="B763" s="1" t="s">
         <v>2033</v>
@@ -18653,7 +18661,7 @@
       <c r="E763" s="1"/>
       <c r="F763" s="1"/>
     </row>
-    <row r="764" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A764" s="1"/>
       <c r="B764" s="1" t="s">
         <v>2034</v>
@@ -18667,7 +18675,7 @@
       <c r="E764" s="1"/>
       <c r="F764" s="1"/>
     </row>
-    <row r="765" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A765" s="1"/>
       <c r="B765" s="1" t="s">
         <v>2035</v>
@@ -18681,7 +18689,7 @@
       <c r="E765" s="1"/>
       <c r="F765" s="1"/>
     </row>
-    <row r="766" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A766" s="1"/>
       <c r="B766" s="1" t="s">
         <v>2036</v>
@@ -18695,7 +18703,7 @@
       <c r="E766" s="1"/>
       <c r="F766" s="1"/>
     </row>
-    <row r="767" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A767" s="1"/>
       <c r="B767" s="1" t="s">
         <v>2037</v>
@@ -18709,7 +18717,7 @@
       <c r="E767" s="1"/>
       <c r="F767" s="1"/>
     </row>
-    <row r="768" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A768" s="1"/>
       <c r="B768" s="1" t="s">
         <v>2038</v>
@@ -18723,7 +18731,7 @@
       <c r="E768" s="1"/>
       <c r="F768" s="1"/>
     </row>
-    <row r="769" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A769" s="1"/>
       <c r="B769" s="1" t="s">
         <v>2039</v>
@@ -18737,7 +18745,7 @@
       <c r="E769" s="1"/>
       <c r="F769" s="1"/>
     </row>
-    <row r="770" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A770" s="1">
         <v>49</v>
       </c>
@@ -18747,7 +18755,7 @@
       <c r="E770" s="1"/>
       <c r="F770" s="1"/>
     </row>
-    <row r="771" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A771" s="1"/>
       <c r="B771" s="1" t="s">
         <v>2064</v>
@@ -18761,7 +18769,7 @@
       <c r="E771" s="1"/>
       <c r="F771" s="1"/>
     </row>
-    <row r="772" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A772" s="1"/>
       <c r="B772" s="1" t="s">
         <v>2065</v>
@@ -18775,7 +18783,7 @@
       <c r="E772" s="1"/>
       <c r="F772" s="1"/>
     </row>
-    <row r="773" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A773" s="1"/>
       <c r="B773" s="1" t="s">
         <v>2066</v>
@@ -18789,7 +18797,7 @@
       <c r="E773" s="1"/>
       <c r="F773" s="1"/>
     </row>
-    <row r="774" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A774" s="1"/>
       <c r="B774" s="1" t="s">
         <v>2067</v>
@@ -18803,7 +18811,7 @@
       <c r="E774" s="1"/>
       <c r="F774" s="1"/>
     </row>
-    <row r="775" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A775" s="1"/>
       <c r="B775" s="1" t="s">
         <v>2068</v>
@@ -18817,7 +18825,7 @@
       <c r="E775" s="1"/>
       <c r="F775" s="1"/>
     </row>
-    <row r="776" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A776" s="1"/>
       <c r="B776" s="1" t="s">
         <v>2069</v>
@@ -18831,7 +18839,7 @@
       <c r="E776" s="1"/>
       <c r="F776" s="1"/>
     </row>
-    <row r="777" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A777" s="1"/>
       <c r="B777" s="1" t="s">
         <v>2070</v>
@@ -18845,7 +18853,7 @@
       <c r="E777" s="1"/>
       <c r="F777" s="1"/>
     </row>
-    <row r="778" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A778" s="1"/>
       <c r="B778" s="1" t="s">
         <v>2071</v>
@@ -18859,7 +18867,7 @@
       <c r="E778" s="1"/>
       <c r="F778" s="1"/>
     </row>
-    <row r="779" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A779" s="1"/>
       <c r="B779" s="1" t="s">
         <v>2072</v>
@@ -18873,7 +18881,7 @@
       <c r="E779" s="1"/>
       <c r="F779" s="1"/>
     </row>
-    <row r="780" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A780" s="1"/>
       <c r="B780" s="1" t="s">
         <v>2073</v>
@@ -18887,7 +18895,7 @@
       <c r="E780" s="1"/>
       <c r="F780" s="1"/>
     </row>
-    <row r="781" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A781" s="1"/>
       <c r="B781" s="1" t="s">
         <v>2074</v>
@@ -18901,7 +18909,7 @@
       <c r="E781" s="1"/>
       <c r="F781" s="1"/>
     </row>
-    <row r="782" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A782" s="1"/>
       <c r="B782" s="1" t="s">
         <v>2075</v>
@@ -18915,7 +18923,7 @@
       <c r="E782" s="1"/>
       <c r="F782" s="1"/>
     </row>
-    <row r="783" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A783" s="1"/>
       <c r="B783" s="1" t="s">
         <v>2076</v>
@@ -18929,7 +18937,7 @@
       <c r="E783" s="1"/>
       <c r="F783" s="1"/>
     </row>
-    <row r="784" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A784" s="1"/>
       <c r="B784" s="1" t="s">
         <v>2077</v>
@@ -18943,7 +18951,7 @@
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
     </row>
-    <row r="785" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A785" s="1"/>
       <c r="B785" s="1" t="s">
         <v>2078</v>
@@ -18957,7 +18965,7 @@
       <c r="E785" s="1"/>
       <c r="F785" s="1"/>
     </row>
-    <row r="786" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A786" s="1">
         <v>50</v>
       </c>
@@ -18967,7 +18975,7 @@
       <c r="E786" s="1"/>
       <c r="F786" s="1"/>
     </row>
-    <row r="787" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A787" s="1"/>
       <c r="B787" s="1" t="s">
         <v>2109</v>
@@ -18981,7 +18989,7 @@
       <c r="E787" s="1"/>
       <c r="F787" s="1"/>
     </row>
-    <row r="788" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A788" s="1"/>
       <c r="B788" s="1" t="s">
         <v>2110</v>
@@ -18995,7 +19003,7 @@
       <c r="E788" s="1"/>
       <c r="F788" s="1"/>
     </row>
-    <row r="789" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A789" s="1"/>
       <c r="B789" s="1" t="s">
         <v>2111</v>
@@ -19009,7 +19017,7 @@
       <c r="E789" s="1"/>
       <c r="F789" s="1"/>
     </row>
-    <row r="790" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A790" s="1"/>
       <c r="B790" s="1" t="s">
         <v>2112</v>
@@ -19023,7 +19031,7 @@
       <c r="E790" s="1"/>
       <c r="F790" s="1"/>
     </row>
-    <row r="791" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A791" s="1"/>
       <c r="B791" s="1" t="s">
         <v>2113</v>
@@ -19037,7 +19045,7 @@
       <c r="E791" s="1"/>
       <c r="F791" s="1"/>
     </row>
-    <row r="792" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A792" s="1"/>
       <c r="B792" s="1" t="s">
         <v>2114</v>
@@ -19051,7 +19059,7 @@
       <c r="E792" s="1"/>
       <c r="F792" s="1"/>
     </row>
-    <row r="793" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A793" s="1"/>
       <c r="B793" s="1" t="s">
         <v>2115</v>
@@ -19065,7 +19073,7 @@
       <c r="E793" s="1"/>
       <c r="F793" s="1"/>
     </row>
-    <row r="794" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A794" s="1"/>
       <c r="B794" s="1" t="s">
         <v>2116</v>
@@ -19079,7 +19087,7 @@
       <c r="E794" s="1"/>
       <c r="F794" s="1"/>
     </row>
-    <row r="795" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A795" s="1"/>
       <c r="B795" s="1" t="s">
         <v>2117</v>
@@ -19093,7 +19101,7 @@
       <c r="E795" s="1"/>
       <c r="F795" s="1"/>
     </row>
-    <row r="796" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A796" s="1"/>
       <c r="B796" s="1" t="s">
         <v>2118</v>
@@ -19107,7 +19115,7 @@
       <c r="E796" s="1"/>
       <c r="F796" s="1"/>
     </row>
-    <row r="797" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A797" s="1"/>
       <c r="B797" s="1" t="s">
         <v>2119</v>
@@ -19121,7 +19129,7 @@
       <c r="E797" s="1"/>
       <c r="F797" s="1"/>
     </row>
-    <row r="798" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A798" s="1"/>
       <c r="B798" s="1" t="s">
         <v>2120</v>
@@ -19135,7 +19143,7 @@
       <c r="E798" s="1"/>
       <c r="F798" s="1"/>
     </row>
-    <row r="799" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A799" s="1"/>
       <c r="B799" s="1" t="s">
         <v>2121</v>
@@ -19149,7 +19157,7 @@
       <c r="E799" s="1"/>
       <c r="F799" s="1"/>
     </row>
-    <row r="800" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A800" s="1"/>
       <c r="B800" s="1" t="s">
         <v>2122</v>
@@ -19163,7 +19171,7 @@
       <c r="E800" s="1"/>
       <c r="F800" s="1"/>
     </row>
-    <row r="801" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A801" s="1"/>
       <c r="B801" s="1" t="s">
         <v>2123</v>
@@ -19177,7 +19185,7 @@
       <c r="E801" s="1"/>
       <c r="F801" s="1"/>
     </row>
-    <row r="802" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A802" s="1">
         <v>51</v>
       </c>
@@ -19187,7 +19195,7 @@
       <c r="E802" s="1"/>
       <c r="F802" s="1"/>
     </row>
-    <row r="803" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A803" s="1"/>
       <c r="B803" s="1" t="s">
         <v>2153</v>
@@ -19201,7 +19209,7 @@
       <c r="E803" s="1"/>
       <c r="F803" s="1"/>
     </row>
-    <row r="804" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A804" s="1"/>
       <c r="B804" s="1" t="s">
         <v>2154</v>
@@ -19215,7 +19223,7 @@
       <c r="E804" s="1"/>
       <c r="F804" s="1"/>
     </row>
-    <row r="805" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A805" s="1"/>
       <c r="B805" s="1" t="s">
         <v>2155</v>
@@ -19229,7 +19237,7 @@
       <c r="E805" s="1"/>
       <c r="F805" s="1"/>
     </row>
-    <row r="806" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A806" s="1"/>
       <c r="B806" s="1" t="s">
         <v>2156</v>
@@ -19243,7 +19251,7 @@
       <c r="E806" s="1"/>
       <c r="F806" s="1"/>
     </row>
-    <row r="807" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A807" s="1"/>
       <c r="B807" s="1" t="s">
         <v>2157</v>
@@ -19257,7 +19265,7 @@
       <c r="E807" s="1"/>
       <c r="F807" s="1"/>
     </row>
-    <row r="808" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A808" s="1"/>
       <c r="B808" s="1" t="s">
         <v>2135</v>
@@ -19271,7 +19279,7 @@
       <c r="E808" s="1"/>
       <c r="F808" s="1"/>
     </row>
-    <row r="809" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A809" s="1"/>
       <c r="B809" s="1" t="s">
         <v>2158</v>
@@ -19285,7 +19293,7 @@
       <c r="E809" s="1"/>
       <c r="F809" s="1"/>
     </row>
-    <row r="810" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A810" s="1"/>
       <c r="B810" s="1" t="s">
         <v>2139</v>
@@ -19299,7 +19307,7 @@
       <c r="E810" s="1"/>
       <c r="F810" s="1"/>
     </row>
-    <row r="811" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A811" s="1"/>
       <c r="B811" s="1" t="s">
         <v>2159</v>
@@ -19313,7 +19321,7 @@
       <c r="E811" s="1"/>
       <c r="F811" s="1"/>
     </row>
-    <row r="812" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A812" s="1"/>
       <c r="B812" s="1" t="s">
         <v>2160</v>
@@ -19327,7 +19335,7 @@
       <c r="E812" s="1"/>
       <c r="F812" s="1"/>
     </row>
-    <row r="813" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A813" s="1"/>
       <c r="B813" s="1" t="s">
         <v>2161</v>
@@ -19341,7 +19349,7 @@
       <c r="E813" s="1"/>
       <c r="F813" s="1"/>
     </row>
-    <row r="814" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A814" s="1"/>
       <c r="B814" s="1" t="s">
         <v>2162</v>
@@ -19355,7 +19363,7 @@
       <c r="E814" s="1"/>
       <c r="F814" s="1"/>
     </row>
-    <row r="815" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A815" s="1"/>
       <c r="B815" s="1" t="s">
         <v>2163</v>
@@ -19369,7 +19377,7 @@
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
     </row>
-    <row r="816" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A816" s="1"/>
       <c r="B816" s="1" t="s">
         <v>2164</v>
@@ -19383,7 +19391,7 @@
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
     </row>
-    <row r="817" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A817" s="1"/>
       <c r="B817" s="1" t="s">
         <v>2165</v>
@@ -19397,7 +19405,7 @@
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
     </row>
-    <row r="818" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A818" s="1">
         <v>52</v>
       </c>
@@ -19407,7 +19415,7 @@
       <c r="E818" s="1"/>
       <c r="F818" s="1"/>
     </row>
-    <row r="819" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A819" s="1"/>
       <c r="B819" s="1" t="s">
         <v>2194</v>
@@ -19421,7 +19429,7 @@
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
     </row>
-    <row r="820" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A820" s="1"/>
       <c r="B820" s="1" t="s">
         <v>2195</v>
@@ -19435,7 +19443,7 @@
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
     </row>
-    <row r="821" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A821" s="1"/>
       <c r="B821" s="1" t="s">
         <v>2196</v>
@@ -19449,7 +19457,7 @@
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
     </row>
-    <row r="822" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A822" s="1"/>
       <c r="B822" s="1" t="s">
         <v>2171</v>
@@ -19463,7 +19471,7 @@
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
     </row>
-    <row r="823" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A823" s="1"/>
       <c r="B823" s="1" t="s">
         <v>2173</v>
@@ -19477,7 +19485,7 @@
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
     </row>
-    <row r="824" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A824" s="1"/>
       <c r="B824" s="1" t="s">
         <v>2175</v>
@@ -19491,7 +19499,7 @@
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
     </row>
-    <row r="825" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A825" s="1"/>
       <c r="B825" s="1" t="s">
         <v>2197</v>
@@ -19505,7 +19513,7 @@
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
     </row>
-    <row r="826" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A826" s="1"/>
       <c r="B826" s="1" t="s">
         <v>2198</v>
@@ -19519,7 +19527,7 @@
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
     </row>
-    <row r="827" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A827" s="1"/>
       <c r="B827" s="1" t="s">
         <v>2199</v>
@@ -19533,7 +19541,7 @@
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
     </row>
-    <row r="828" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A828" s="1"/>
       <c r="B828" s="1" t="s">
         <v>2183</v>
@@ -19547,7 +19555,7 @@
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
     </row>
-    <row r="829" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A829" s="1"/>
       <c r="B829" s="1" t="s">
         <v>2185</v>
@@ -19561,7 +19569,7 @@
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
     </row>
-    <row r="830" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A830" s="1"/>
       <c r="B830" s="1" t="s">
         <v>2200</v>
@@ -19575,7 +19583,7 @@
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
     </row>
-    <row r="831" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A831" s="1"/>
       <c r="B831" s="1" t="s">
         <v>2201</v>
@@ -19589,7 +19597,7 @@
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
     </row>
-    <row r="832" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A832" s="1"/>
       <c r="B832" s="1" t="s">
         <v>2202</v>
@@ -19603,7 +19611,7 @@
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
     </row>
-    <row r="833" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A833" s="1"/>
       <c r="B833" s="1" t="s">
         <v>2203</v>
@@ -19617,7 +19625,7 @@
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
     </row>
-    <row r="834" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A834" s="1">
         <v>53</v>
       </c>
@@ -19627,10 +19635,10 @@
       <c r="E834" s="1"/>
       <c r="F834" s="1"/>
     </row>
-    <row r="835" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2205</v>
@@ -19641,10 +19649,10 @@
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
     </row>
-    <row r="836" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A836" s="1"/>
       <c r="B836" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2207</v>
@@ -19655,10 +19663,10 @@
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
     </row>
-    <row r="837" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A837" s="1"/>
       <c r="B837" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2209</v>
@@ -19669,10 +19677,10 @@
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
     </row>
-    <row r="838" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A838" s="1"/>
       <c r="B838" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2211</v>
@@ -19683,10 +19691,10 @@
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
     </row>
-    <row r="839" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A839" s="1"/>
       <c r="B839" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2213</v>
@@ -19697,13 +19705,13 @@
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
     </row>
-    <row r="840" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A840" s="1"/>
       <c r="B840" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="D840" s="1" t="s">
         <v>2214</v>
@@ -19711,133 +19719,133 @@
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
     </row>
-    <row r="841" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A841" s="1"/>
       <c r="B841" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
     </row>
-    <row r="842" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A842" s="1"/>
       <c r="B842" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
     </row>
-    <row r="843" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A843" s="1"/>
       <c r="B843" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
     </row>
-    <row r="844" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A844" s="1"/>
       <c r="B844" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
     </row>
-    <row r="845" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A845" s="1"/>
       <c r="B845" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
     </row>
-    <row r="846" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A846" s="1"/>
       <c r="B846" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
     </row>
-    <row r="847" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A847" s="1"/>
       <c r="B847" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
     </row>
-    <row r="848" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A848" s="1"/>
       <c r="B848" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
     </row>
-    <row r="849" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A849" s="1"/>
       <c r="B849" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
     </row>
-    <row r="850" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A850" s="1">
         <v>54</v>
       </c>
@@ -19847,217 +19855,217 @@
       <c r="E850" s="1"/>
       <c r="F850" s="1"/>
     </row>
-    <row r="851" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A851" s="1"/>
       <c r="B851" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
     </row>
-    <row r="852" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A852" s="1"/>
       <c r="B852" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
     </row>
-    <row r="853" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A853" s="1"/>
       <c r="B853" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A854" s="1"/>
       <c r="B854" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
     </row>
-    <row r="855" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A855" s="1"/>
       <c r="B855" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
     </row>
-    <row r="856" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A856" s="1"/>
       <c r="B856" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
     </row>
-    <row r="857" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A857" s="1"/>
       <c r="B857" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A858" s="1"/>
       <c r="B858" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A859" s="1"/>
       <c r="B859" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A860" s="1"/>
       <c r="B860" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A861" s="1"/>
       <c r="B861" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
     </row>
-    <row r="862" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A862" s="1"/>
       <c r="B862" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
     </row>
-    <row r="863" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A863" s="1"/>
       <c r="B863" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A864" s="1"/>
       <c r="B864" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
     </row>
-    <row r="865" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A865" s="1"/>
       <c r="B865" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
     </row>
-    <row r="866" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A866" s="1">
         <v>55</v>
       </c>
@@ -20067,27 +20075,27 @@
       <c r="E866" s="1"/>
       <c r="F866" s="1"/>
     </row>
-    <row r="867" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A867" s="1"/>
       <c r="B867" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D867" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="C867" s="1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="D867" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
     </row>
-    <row r="868" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A868" s="1"/>
       <c r="B868" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>670</v>
@@ -20095,55 +20103,55 @@
       <c r="E868" s="1"/>
       <c r="F868" s="1"/>
     </row>
-    <row r="869" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A869" s="1"/>
       <c r="B869" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
     </row>
-    <row r="870" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A870" s="1"/>
       <c r="B870" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
     </row>
-    <row r="871" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A871" s="1"/>
       <c r="B871" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
     </row>
-    <row r="872" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A872" s="1"/>
       <c r="B872" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>1105</v>
@@ -20151,133 +20159,133 @@
       <c r="E872" s="1"/>
       <c r="F872" s="1"/>
     </row>
-    <row r="873" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A873" s="1"/>
       <c r="B873" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
     </row>
-    <row r="874" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A874" s="1"/>
       <c r="B874" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
     </row>
-    <row r="875" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A875" s="1"/>
       <c r="B875" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
     </row>
-    <row r="876" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A876" s="1"/>
       <c r="B876" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
     </row>
-    <row r="877" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A877" s="1"/>
       <c r="B877" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
     </row>
-    <row r="878" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A878" s="1"/>
       <c r="B878" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C878" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D878" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="C878" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D878" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
     </row>
-    <row r="879" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A879" s="1"/>
       <c r="B879" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
     </row>
-    <row r="880" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A880" s="1"/>
       <c r="B880" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
     </row>
-    <row r="881" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A881" s="1"/>
       <c r="B881" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
     </row>
-    <row r="882" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A882" s="1">
         <v>56</v>
       </c>
@@ -20287,164 +20295,164 @@
       <c r="E882" s="1"/>
       <c r="F882" s="1"/>
     </row>
-    <row r="883" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A883" s="1"/>
       <c r="B883" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
     </row>
-    <row r="884" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A884" s="1"/>
       <c r="B884" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
     </row>
-    <row r="885" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A885" s="1"/>
       <c r="B885" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
     </row>
-    <row r="886" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A886" s="1"/>
       <c r="B886" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C886" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
     </row>
-    <row r="887" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A887" s="1"/>
       <c r="B887" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
     </row>
-    <row r="888" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A888" s="1"/>
       <c r="B888" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
     </row>
-    <row r="889" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
     </row>
-    <row r="890" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
     </row>
-    <row r="891" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
     </row>
-    <row r="892" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
     </row>
-    <row r="893" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
     </row>
-    <row r="894" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>1233</v>
@@ -20455,49 +20463,49 @@
       <c r="E894" s="1"/>
       <c r="F894" s="1"/>
     </row>
-    <row r="895" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
     </row>
-    <row r="896" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
     </row>
-    <row r="897" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
     </row>
-    <row r="898" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A898" s="1">
         <v>57</v>
       </c>
@@ -20507,209 +20515,209 @@
       <c r="E898" s="1"/>
       <c r="F898" s="1"/>
     </row>
-    <row r="899" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
     </row>
-    <row r="900" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
     </row>
-    <row r="901" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
     </row>
-    <row r="902" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
     </row>
-    <row r="903" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
     </row>
-    <row r="904" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
     </row>
-    <row r="905" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
     </row>
-    <row r="906" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A906" s="1"/>
       <c r="B906" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
     </row>
-    <row r="907" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A907" s="1"/>
       <c r="B907" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
     </row>
-    <row r="908" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A908" s="1"/>
       <c r="B908" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
     </row>
-    <row r="909" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A909" s="1"/>
       <c r="B909" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
     </row>
-    <row r="910" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A910" s="1"/>
       <c r="B910" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
     </row>
-    <row r="911" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A911" s="1"/>
       <c r="B911" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
     </row>
-    <row r="912" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A912" s="1"/>
       <c r="B912" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
     </row>
-    <row r="913" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A913" s="1"/>
       <c r="B913" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>1750</v>
@@ -20717,7 +20725,7 @@
       <c r="E913" s="1"/>
       <c r="F913" s="1"/>
     </row>
-    <row r="914" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A914" s="1">
         <v>58</v>
       </c>
@@ -20727,217 +20735,217 @@
       <c r="E914" s="1"/>
       <c r="F914" s="1"/>
     </row>
-    <row r="915" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A915" s="1"/>
       <c r="B915" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
     </row>
-    <row r="916" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A916" s="1"/>
       <c r="B916" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
     </row>
-    <row r="917" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A917" s="1"/>
       <c r="B917" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
     </row>
-    <row r="918" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A918" s="1"/>
       <c r="B918" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
     </row>
-    <row r="919" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A919" s="1"/>
       <c r="B919" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
     </row>
-    <row r="920" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A920" s="1"/>
       <c r="B920" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
     </row>
-    <row r="921" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A921" s="1"/>
       <c r="B921" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
     </row>
-    <row r="922" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A922" s="1"/>
       <c r="B922" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
     </row>
-    <row r="923" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A923" s="1"/>
       <c r="B923" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
     </row>
-    <row r="924" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A924" s="1"/>
       <c r="B924" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
     </row>
-    <row r="925" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A925" s="1"/>
       <c r="B925" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
     </row>
-    <row r="926" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A926" s="1"/>
       <c r="B926" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
     </row>
-    <row r="927" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A927" s="1"/>
       <c r="B927" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
     </row>
-    <row r="928" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A928" s="1"/>
       <c r="B928" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
     </row>
-    <row r="929" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A929" s="1"/>
       <c r="B929" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
     </row>
-    <row r="930" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A930" s="1">
         <v>59</v>
       </c>
@@ -20947,226 +20955,226 @@
       <c r="E930" s="1"/>
       <c r="F930" s="1"/>
     </row>
-    <row r="931" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A931" s="1"/>
       <c r="B931" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
     </row>
-    <row r="932" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A932" s="1"/>
       <c r="B932" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
     </row>
-    <row r="933" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A933" s="1"/>
       <c r="B933" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
     </row>
-    <row r="934" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A934" s="1"/>
       <c r="B934" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
     </row>
-    <row r="935" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A935" s="1"/>
       <c r="B935" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
     </row>
-    <row r="936" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A936" s="1"/>
       <c r="B936" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
     </row>
-    <row r="937" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A937" s="1"/>
       <c r="B937" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
     </row>
-    <row r="938" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A938" s="1"/>
       <c r="B938" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
     </row>
-    <row r="939" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A939" s="1"/>
       <c r="B939" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
     </row>
-    <row r="940" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A940" s="1"/>
       <c r="B940" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
     </row>
-    <row r="941" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A941" s="1"/>
       <c r="B941" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
     </row>
-    <row r="942" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A942" s="1"/>
       <c r="B942" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
     </row>
-    <row r="943" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A943" s="1"/>
       <c r="B943" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
     </row>
-    <row r="944" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A944" s="1"/>
       <c r="B944" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
     </row>
-    <row r="945" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A945" s="1"/>
       <c r="B945" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
     </row>
-    <row r="946" spans="1:6" ht="21.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A946" s="1"/>
       <c r="B946" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="2504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="2505">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -6536,9 +6536,6 @@
     <t>bring together; get everything ready; match</t>
   </si>
   <si>
-    <t>そるえる</t>
-  </si>
-  <si>
     <t>reach (consensus), be sorted out, be well organized, be united</t>
   </si>
   <si>
@@ -7527,6 +7524,12 @@
   </si>
   <si>
     <t>Part 53 : Missing Hiragana is corrected</t>
+  </si>
+  <si>
+    <t>そろえる</t>
+  </si>
+  <si>
+    <t>Part 52 : Missing Hiragana is corrected</t>
   </si>
 </sst>
 </file>
@@ -7915,7 +7918,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7927,16 +7930,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2484</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2486</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7944,13 +7947,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7961,10 +7964,10 @@
         <v>43368</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7975,10 +7978,10 @@
         <v>43373</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7989,10 +7992,10 @@
         <v>43374</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8003,10 +8006,10 @@
         <v>43376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8017,10 +8020,10 @@
         <v>43377</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8031,17 +8034,25 @@
         <v>43378</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43378</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2504</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -8065,8 +8076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView topLeftCell="A832" workbookViewId="0">
-      <selection activeCell="C840" sqref="C840"/>
+    <sheetView topLeftCell="A814" workbookViewId="0">
+      <selection activeCell="B823" sqref="B823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8081,22 +8092,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2436</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -9759,7 +9770,7 @@
         <v>328</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -9775,7 +9786,7 @@
         <v>330</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -9847,7 +9858,7 @@
         <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="F128" s="1"/>
     </row>
@@ -9887,7 +9898,7 @@
         <v>359</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="F131" s="1"/>
     </row>
@@ -9903,7 +9914,7 @@
         <v>361</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="F132" s="1"/>
     </row>
@@ -9919,7 +9930,7 @@
         <v>363</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -9935,7 +9946,7 @@
         <v>365</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -9951,7 +9962,7 @@
         <v>367</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -9967,7 +9978,7 @@
         <v>369</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -9983,7 +9994,7 @@
         <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -9996,10 +10007,10 @@
         <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -10015,7 +10026,7 @@
         <v>374</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -10031,7 +10042,7 @@
         <v>376</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -10047,7 +10058,7 @@
         <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="F141" s="1"/>
     </row>
@@ -10063,7 +10074,7 @@
         <v>380</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -10079,7 +10090,7 @@
         <v>382</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -10095,7 +10106,7 @@
         <v>384</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -10111,7 +10122,7 @@
         <v>386</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -10165,7 +10176,7 @@
         <v>405</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -10181,7 +10192,7 @@
         <v>407</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="F150" s="1"/>
     </row>
@@ -10211,7 +10222,7 @@
         <v>411</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -10311,7 +10322,7 @@
         <v>425</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="F159" s="1"/>
     </row>
@@ -11315,7 +11326,7 @@
         <v>627</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F232" s="1"/>
     </row>
@@ -11331,7 +11342,7 @@
         <v>629</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="F233" s="1"/>
     </row>
@@ -11662,7 +11673,7 @@
         <v>690</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -11812,7 +11823,7 @@
         <v>724</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -11829,7 +11840,7 @@
         <v>725</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F269" s="1"/>
     </row>
@@ -13320,10 +13331,10 @@
     <row r="378" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1024</v>
@@ -13404,7 +13415,7 @@
     <row r="384" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1036</v>
@@ -13624,10 +13635,10 @@
     <row r="400" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1078</v>
@@ -13958,7 +13969,7 @@
         <v>1148</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -14593,14 +14604,14 @@
         <v>1274</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="F470" s="1"/>
     </row>
     <row r="471" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1277</v>
@@ -14637,7 +14648,7 @@
         <v>1280</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F473" s="1"/>
     </row>
@@ -14653,7 +14664,7 @@
         <v>1282</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F474" s="1"/>
     </row>
@@ -14669,7 +14680,7 @@
         <v>1284</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="F475" s="1"/>
     </row>
@@ -14685,7 +14696,7 @@
         <v>1286</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F476" s="1"/>
     </row>
@@ -14701,7 +14712,7 @@
         <v>1288</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F477" s="1"/>
     </row>
@@ -14731,7 +14742,7 @@
         <v>1292</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F479" s="1"/>
     </row>
@@ -14747,7 +14758,7 @@
         <v>1294</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F480" s="1"/>
     </row>
@@ -14763,7 +14774,7 @@
         <v>1296</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F481" s="1"/>
     </row>
@@ -14789,7 +14800,7 @@
         <v>1311</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F483" s="1"/>
     </row>
@@ -15067,7 +15078,7 @@
         <v>1362</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="F503" s="1"/>
     </row>
@@ -15083,7 +15094,7 @@
         <v>1364</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F504" s="1"/>
     </row>
@@ -16789,7 +16800,7 @@
         <v>1663</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F628" s="1"/>
     </row>
@@ -16805,7 +16816,7 @@
         <v>1665</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F629" s="1"/>
     </row>
@@ -16821,7 +16832,7 @@
         <v>1667</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F630" s="1"/>
     </row>
@@ -16879,7 +16890,7 @@
         <v>1675</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F634" s="1"/>
     </row>
@@ -16895,7 +16906,7 @@
         <v>1675</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F635" s="1"/>
     </row>
@@ -16911,7 +16922,7 @@
         <v>1678</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F636" s="1"/>
     </row>
@@ -17773,7 +17784,7 @@
         <v>1854</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>1833</v>
@@ -19418,7 +19429,7 @@
     <row r="819" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A819" s="1"/>
       <c r="B819" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2167</v>
@@ -19432,7 +19443,7 @@
     <row r="820" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A820" s="1"/>
       <c r="B820" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>456</v>
@@ -19446,7 +19457,7 @@
     <row r="821" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A821" s="1"/>
       <c r="B821" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>458</v>
@@ -19474,10 +19485,10 @@
     <row r="823" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A823" s="1"/>
       <c r="B823" s="1" t="s">
-        <v>2173</v>
+        <v>2503</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2173</v>
+        <v>2503</v>
       </c>
       <c r="D823" s="1" t="s">
         <v>2172</v>
@@ -19488,13 +19499,13 @@
     <row r="824" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A824" s="1"/>
       <c r="B824" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
@@ -19502,13 +19513,13 @@
     <row r="825" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A825" s="1"/>
       <c r="B825" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
@@ -19516,13 +19527,13 @@
     <row r="826" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A826" s="1"/>
       <c r="B826" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
@@ -19530,13 +19541,13 @@
     <row r="827" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A827" s="1"/>
       <c r="B827" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
@@ -19544,13 +19555,13 @@
     <row r="828" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A828" s="1"/>
       <c r="B828" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
@@ -19558,13 +19569,13 @@
     <row r="829" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A829" s="1"/>
       <c r="B829" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
@@ -19572,13 +19583,13 @@
     <row r="830" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A830" s="1"/>
       <c r="B830" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
@@ -19586,13 +19597,13 @@
     <row r="831" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A831" s="1"/>
       <c r="B831" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
@@ -19600,13 +19611,13 @@
     <row r="832" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A832" s="1"/>
       <c r="B832" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
@@ -19614,13 +19625,13 @@
     <row r="833" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A833" s="1"/>
       <c r="B833" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
@@ -19638,13 +19649,13 @@
     <row r="835" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
@@ -19652,13 +19663,13 @@
     <row r="836" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A836" s="1"/>
       <c r="B836" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
@@ -19666,13 +19677,13 @@
     <row r="837" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A837" s="1"/>
       <c r="B837" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
@@ -19680,13 +19691,13 @@
     <row r="838" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A838" s="1"/>
       <c r="B838" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
@@ -19694,13 +19705,13 @@
     <row r="839" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A839" s="1"/>
       <c r="B839" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
@@ -19708,13 +19719,13 @@
     <row r="840" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A840" s="1"/>
       <c r="B840" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
@@ -19722,13 +19733,13 @@
     <row r="841" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A841" s="1"/>
       <c r="B841" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
@@ -19736,13 +19747,13 @@
     <row r="842" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A842" s="1"/>
       <c r="B842" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
@@ -19750,13 +19761,13 @@
     <row r="843" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A843" s="1"/>
       <c r="B843" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
@@ -19764,13 +19775,13 @@
     <row r="844" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A844" s="1"/>
       <c r="B844" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
@@ -19778,13 +19789,13 @@
     <row r="845" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A845" s="1"/>
       <c r="B845" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
@@ -19792,13 +19803,13 @@
     <row r="846" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A846" s="1"/>
       <c r="B846" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
@@ -19806,13 +19817,13 @@
     <row r="847" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A847" s="1"/>
       <c r="B847" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
@@ -19820,13 +19831,13 @@
     <row r="848" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A848" s="1"/>
       <c r="B848" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
@@ -19834,13 +19845,13 @@
     <row r="849" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A849" s="1"/>
       <c r="B849" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
@@ -19858,13 +19869,13 @@
     <row r="851" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A851" s="1"/>
       <c r="B851" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
@@ -19872,13 +19883,13 @@
     <row r="852" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A852" s="1"/>
       <c r="B852" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
@@ -19886,13 +19897,13 @@
     <row r="853" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A853" s="1"/>
       <c r="B853" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
@@ -19900,13 +19911,13 @@
     <row r="854" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A854" s="1"/>
       <c r="B854" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
@@ -19914,13 +19925,13 @@
     <row r="855" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A855" s="1"/>
       <c r="B855" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
@@ -19928,13 +19939,13 @@
     <row r="856" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A856" s="1"/>
       <c r="B856" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
@@ -19942,13 +19953,13 @@
     <row r="857" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A857" s="1"/>
       <c r="B857" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
@@ -19956,13 +19967,13 @@
     <row r="858" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A858" s="1"/>
       <c r="B858" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
@@ -19970,13 +19981,13 @@
     <row r="859" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A859" s="1"/>
       <c r="B859" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
@@ -19984,13 +19995,13 @@
     <row r="860" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A860" s="1"/>
       <c r="B860" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
@@ -19998,13 +20009,13 @@
     <row r="861" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A861" s="1"/>
       <c r="B861" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
@@ -20012,13 +20023,13 @@
     <row r="862" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A862" s="1"/>
       <c r="B862" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
@@ -20026,13 +20037,13 @@
     <row r="863" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A863" s="1"/>
       <c r="B863" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
@@ -20040,13 +20051,13 @@
     <row r="864" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A864" s="1"/>
       <c r="B864" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
@@ -20054,13 +20065,13 @@
     <row r="865" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A865" s="1"/>
       <c r="B865" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
@@ -20078,13 +20089,13 @@
     <row r="867" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A867" s="1"/>
       <c r="B867" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D867" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="C867" s="1" t="s">
-        <v>2499</v>
-      </c>
-      <c r="D867" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
@@ -20092,10 +20103,10 @@
     <row r="868" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A868" s="1"/>
       <c r="B868" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>670</v>
@@ -20106,13 +20117,13 @@
     <row r="869" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A869" s="1"/>
       <c r="B869" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
@@ -20120,13 +20131,13 @@
     <row r="870" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A870" s="1"/>
       <c r="B870" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
@@ -20134,13 +20145,13 @@
     <row r="871" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A871" s="1"/>
       <c r="B871" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
@@ -20148,10 +20159,10 @@
     <row r="872" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A872" s="1"/>
       <c r="B872" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>1105</v>
@@ -20162,13 +20173,13 @@
     <row r="873" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A873" s="1"/>
       <c r="B873" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
@@ -20176,13 +20187,13 @@
     <row r="874" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A874" s="1"/>
       <c r="B874" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
@@ -20190,13 +20201,13 @@
     <row r="875" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A875" s="1"/>
       <c r="B875" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
@@ -20204,13 +20215,13 @@
     <row r="876" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A876" s="1"/>
       <c r="B876" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
@@ -20218,13 +20229,13 @@
     <row r="877" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A877" s="1"/>
       <c r="B877" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
@@ -20232,13 +20243,13 @@
     <row r="878" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A878" s="1"/>
       <c r="B878" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C878" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D878" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="C878" t="s">
-        <v>2501</v>
-      </c>
-      <c r="D878" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
@@ -20246,13 +20257,13 @@
     <row r="879" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A879" s="1"/>
       <c r="B879" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
@@ -20260,13 +20271,13 @@
     <row r="880" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A880" s="1"/>
       <c r="B880" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
@@ -20274,13 +20285,13 @@
     <row r="881" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A881" s="1"/>
       <c r="B881" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
@@ -20298,13 +20309,13 @@
     <row r="883" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A883" s="1"/>
       <c r="B883" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
@@ -20312,13 +20323,13 @@
     <row r="884" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A884" s="1"/>
       <c r="B884" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
@@ -20326,13 +20337,13 @@
     <row r="885" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A885" s="1"/>
       <c r="B885" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
@@ -20340,13 +20351,13 @@
     <row r="886" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A886" s="1"/>
       <c r="B886" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C886" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
@@ -20354,13 +20365,13 @@
     <row r="887" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A887" s="1"/>
       <c r="B887" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
@@ -20368,13 +20379,13 @@
     <row r="888" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A888" s="1"/>
       <c r="B888" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
@@ -20382,13 +20393,13 @@
     <row r="889" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
@@ -20396,13 +20407,13 @@
     <row r="890" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
@@ -20410,13 +20421,13 @@
     <row r="891" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
@@ -20424,13 +20435,13 @@
     <row r="892" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
@@ -20438,13 +20449,13 @@
     <row r="893" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
@@ -20452,7 +20463,7 @@
     <row r="894" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>1233</v>
@@ -20466,13 +20477,13 @@
     <row r="895" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
@@ -20480,13 +20491,13 @@
     <row r="896" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
@@ -20494,13 +20505,13 @@
     <row r="897" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
@@ -20518,13 +20529,13 @@
     <row r="899" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
@@ -20532,13 +20543,13 @@
     <row r="900" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
@@ -20546,13 +20557,13 @@
     <row r="901" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
@@ -20560,13 +20571,13 @@
     <row r="902" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
@@ -20574,13 +20585,13 @@
     <row r="903" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
@@ -20588,13 +20599,13 @@
     <row r="904" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
@@ -20602,13 +20613,13 @@
     <row r="905" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
@@ -20616,13 +20627,13 @@
     <row r="906" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A906" s="1"/>
       <c r="B906" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
@@ -20630,13 +20641,13 @@
     <row r="907" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A907" s="1"/>
       <c r="B907" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
@@ -20644,13 +20655,13 @@
     <row r="908" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A908" s="1"/>
       <c r="B908" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
@@ -20658,13 +20669,13 @@
     <row r="909" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A909" s="1"/>
       <c r="B909" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
@@ -20672,13 +20683,13 @@
     <row r="910" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A910" s="1"/>
       <c r="B910" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
@@ -20686,13 +20697,13 @@
     <row r="911" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A911" s="1"/>
       <c r="B911" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
@@ -20700,13 +20711,13 @@
     <row r="912" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A912" s="1"/>
       <c r="B912" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
@@ -20714,10 +20725,10 @@
     <row r="913" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A913" s="1"/>
       <c r="B913" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>1750</v>
@@ -20738,13 +20749,13 @@
     <row r="915" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A915" s="1"/>
       <c r="B915" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
@@ -20752,13 +20763,13 @@
     <row r="916" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A916" s="1"/>
       <c r="B916" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
@@ -20766,13 +20777,13 @@
     <row r="917" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A917" s="1"/>
       <c r="B917" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
@@ -20780,13 +20791,13 @@
     <row r="918" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A918" s="1"/>
       <c r="B918" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
@@ -20794,13 +20805,13 @@
     <row r="919" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A919" s="1"/>
       <c r="B919" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
@@ -20808,13 +20819,13 @@
     <row r="920" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A920" s="1"/>
       <c r="B920" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
@@ -20822,13 +20833,13 @@
     <row r="921" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A921" s="1"/>
       <c r="B921" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
@@ -20836,13 +20847,13 @@
     <row r="922" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A922" s="1"/>
       <c r="B922" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
@@ -20850,13 +20861,13 @@
     <row r="923" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A923" s="1"/>
       <c r="B923" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
@@ -20864,13 +20875,13 @@
     <row r="924" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A924" s="1"/>
       <c r="B924" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
@@ -20878,13 +20889,13 @@
     <row r="925" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A925" s="1"/>
       <c r="B925" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
@@ -20892,13 +20903,13 @@
     <row r="926" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A926" s="1"/>
       <c r="B926" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
@@ -20906,13 +20917,13 @@
     <row r="927" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A927" s="1"/>
       <c r="B927" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
@@ -20920,13 +20931,13 @@
     <row r="928" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A928" s="1"/>
       <c r="B928" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
@@ -20934,13 +20945,13 @@
     <row r="929" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A929" s="1"/>
       <c r="B929" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
@@ -20958,13 +20969,13 @@
     <row r="931" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A931" s="1"/>
       <c r="B931" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
@@ -20972,13 +20983,13 @@
     <row r="932" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A932" s="1"/>
       <c r="B932" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
@@ -20986,13 +20997,13 @@
     <row r="933" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A933" s="1"/>
       <c r="B933" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
@@ -21000,13 +21011,13 @@
     <row r="934" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A934" s="1"/>
       <c r="B934" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
@@ -21014,13 +21025,13 @@
     <row r="935" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A935" s="1"/>
       <c r="B935" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
@@ -21028,13 +21039,13 @@
     <row r="936" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A936" s="1"/>
       <c r="B936" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
@@ -21042,13 +21053,13 @@
     <row r="937" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A937" s="1"/>
       <c r="B937" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
@@ -21056,13 +21067,13 @@
     <row r="938" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A938" s="1"/>
       <c r="B938" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
@@ -21070,13 +21081,13 @@
     <row r="939" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A939" s="1"/>
       <c r="B939" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
@@ -21084,13 +21095,13 @@
     <row r="940" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A940" s="1"/>
       <c r="B940" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
@@ -21098,13 +21109,13 @@
     <row r="941" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A941" s="1"/>
       <c r="B941" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
@@ -21112,13 +21123,13 @@
     <row r="942" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A942" s="1"/>
       <c r="B942" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
@@ -21126,13 +21137,13 @@
     <row r="943" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A943" s="1"/>
       <c r="B943" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
@@ -21140,13 +21151,13 @@
     <row r="944" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A944" s="1"/>
       <c r="B944" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
@@ -21154,13 +21165,13 @@
     <row r="945" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A945" s="1"/>
       <c r="B945" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
@@ -21168,13 +21179,13 @@
     <row r="946" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A946" s="1"/>
       <c r="B946" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>

--- a/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
+++ b/created/memrise-mimikara-oboeru-N3-Vocab.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="2505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="2505">
   <si>
     <t>man (male gender)</t>
   </si>
@@ -6455,9 +6455,6 @@
     <t>postpone; extend</t>
   </si>
   <si>
-    <t>のびす</t>
-  </si>
-  <si>
     <t>be on top of another; fall on same day, clash</t>
   </si>
   <si>
@@ -6503,9 +6500,6 @@
     <t>延びる</t>
   </si>
   <si>
-    <t>延びす</t>
-  </si>
-  <si>
     <t>重なる</t>
   </si>
   <si>
@@ -7530,6 +7524,12 @@
   </si>
   <si>
     <t>Part 52 : Missing Hiragana is corrected</t>
+  </si>
+  <si>
+    <t>延ばす</t>
+  </si>
+  <si>
+    <t>Part 51 : Missing Kanji and Hiragana is corrected.</t>
   </si>
 </sst>
 </file>
@@ -7918,7 +7918,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7930,16 +7930,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2483</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2484</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7947,13 +7947,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7964,10 +7964,10 @@
         <v>43368</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>2488</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7978,10 +7978,10 @@
         <v>43373</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7992,10 +7992,10 @@
         <v>43374</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8006,10 +8006,10 @@
         <v>43376</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8020,10 +8020,10 @@
         <v>43377</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8034,10 +8034,10 @@
         <v>43378</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8048,17 +8048,25 @@
         <v>43378</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43381</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>2504</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -8076,8 +8084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F946"/>
   <sheetViews>
-    <sheetView topLeftCell="A814" workbookViewId="0">
-      <selection activeCell="B823" sqref="B823"/>
+    <sheetView topLeftCell="A802" workbookViewId="0">
+      <selection activeCell="C814" sqref="C814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8092,22 +8100,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2434</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2435</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
@@ -9770,7 +9778,7 @@
         <v>328</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -9786,7 +9794,7 @@
         <v>330</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -9858,7 +9866,7 @@
         <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="F128" s="1"/>
     </row>
@@ -9898,7 +9906,7 @@
         <v>359</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="F131" s="1"/>
     </row>
@@ -9914,7 +9922,7 @@
         <v>361</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="F132" s="1"/>
     </row>
@@ -9930,7 +9938,7 @@
         <v>363</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -9946,7 +9954,7 @@
         <v>365</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -9962,7 +9970,7 @@
         <v>367</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -9978,7 +9986,7 @@
         <v>369</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -9994,7 +10002,7 @@
         <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -10007,10 +10015,10 @@
         <v>373</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -10026,7 +10034,7 @@
         <v>374</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -10042,7 +10050,7 @@
         <v>376</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -10058,7 +10066,7 @@
         <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="F141" s="1"/>
     </row>
@@ -10074,7 +10082,7 @@
         <v>380</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -10090,7 +10098,7 @@
         <v>382</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -10106,7 +10114,7 @@
         <v>384</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -10122,7 +10130,7 @@
         <v>386</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -10176,7 +10184,7 @@
         <v>405</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -10192,7 +10200,7 @@
         <v>407</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="F150" s="1"/>
     </row>
@@ -10222,7 +10230,7 @@
         <v>411</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -10322,7 +10330,7 @@
         <v>425</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="F159" s="1"/>
     </row>
@@ -11326,7 +11334,7 @@
         <v>627</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="F232" s="1"/>
     </row>
@@ -11342,7 +11350,7 @@
         <v>629</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F233" s="1"/>
     </row>
@@ -11673,7 +11681,7 @@
         <v>690</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -11823,7 +11831,7 @@
         <v>724</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -11840,7 +11848,7 @@
         <v>725</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="F269" s="1"/>
     </row>
@@ -13331,10 +13339,10 @@
     <row r="378" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1024</v>
@@ -13415,7 +13423,7 @@
     <row r="384" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1036</v>
@@ -13635,10 +13643,10 @@
     <row r="400" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A400" s="1"/>
       <c r="B400" s="1" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1078</v>
@@ -13969,7 +13977,7 @@
         <v>1148</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -14604,14 +14612,14 @@
         <v>1274</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="F470" s="1"/>
     </row>
     <row r="471" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A471" s="1"/>
       <c r="B471" s="1" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1277</v>
@@ -14648,7 +14656,7 @@
         <v>1280</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="F473" s="1"/>
     </row>
@@ -14664,7 +14672,7 @@
         <v>1282</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="F474" s="1"/>
     </row>
@@ -14680,7 +14688,7 @@
         <v>1284</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="F475" s="1"/>
     </row>
@@ -14696,7 +14704,7 @@
         <v>1286</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="F476" s="1"/>
     </row>
@@ -14712,7 +14720,7 @@
         <v>1288</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="F477" s="1"/>
     </row>
@@ -14742,7 +14750,7 @@
         <v>1292</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="F479" s="1"/>
     </row>
@@ -14758,7 +14766,7 @@
         <v>1294</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="F480" s="1"/>
     </row>
@@ -14774,7 +14782,7 @@
         <v>1296</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F481" s="1"/>
     </row>
@@ -14800,7 +14808,7 @@
         <v>1311</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F483" s="1"/>
     </row>
@@ -15078,7 +15086,7 @@
         <v>1362</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="F503" s="1"/>
     </row>
@@ -15094,7 +15102,7 @@
         <v>1364</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="F504" s="1"/>
     </row>
@@ -16800,7 +16808,7 @@
         <v>1663</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F628" s="1"/>
     </row>
@@ -16816,7 +16824,7 @@
         <v>1665</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="F629" s="1"/>
     </row>
@@ -16832,7 +16840,7 @@
         <v>1667</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="F630" s="1"/>
     </row>
@@ -16890,7 +16898,7 @@
         <v>1675</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F634" s="1"/>
     </row>
@@ -16906,7 +16914,7 @@
         <v>1675</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F635" s="1"/>
     </row>
@@ -16922,7 +16930,7 @@
         <v>1678</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="F636" s="1"/>
     </row>
@@ -17784,7 +17792,7 @@
         <v>1854</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D699" s="1" t="s">
         <v>1833</v>
@@ -19209,7 +19217,7 @@
     <row r="803" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A803" s="1"/>
       <c r="B803" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2125</v>
@@ -19223,7 +19231,7 @@
     <row r="804" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A804" s="1"/>
       <c r="B804" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2127</v>
@@ -19237,7 +19245,7 @@
     <row r="805" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A805" s="1"/>
       <c r="B805" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2129</v>
@@ -19251,7 +19259,7 @@
     <row r="806" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A806" s="1"/>
       <c r="B806" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2131</v>
@@ -19265,7 +19273,7 @@
     <row r="807" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A807" s="1"/>
       <c r="B807" s="1" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2133</v>
@@ -19293,7 +19301,7 @@
     <row r="809" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A809" s="1"/>
       <c r="B809" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2137</v>
@@ -19321,7 +19329,7 @@
     <row r="811" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A811" s="1"/>
       <c r="B811" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2141</v>
@@ -19335,7 +19343,7 @@
     <row r="812" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A812" s="1"/>
       <c r="B812" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2143</v>
@@ -19349,7 +19357,7 @@
     <row r="813" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A813" s="1"/>
       <c r="B813" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2141</v>
@@ -19363,10 +19371,10 @@
     <row r="814" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A814" s="1"/>
       <c r="B814" s="1" t="s">
-        <v>2162</v>
+        <v>2503</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="D814" s="1" t="s">
         <v>2145</v>
@@ -19377,13 +19385,13 @@
     <row r="815" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A815" s="1"/>
       <c r="B815" s="1" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E815" s="1"/>
       <c r="F815" s="1"/>
@@ -19391,13 +19399,13 @@
     <row r="816" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A816" s="1"/>
       <c r="B816" s="1" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E816" s="1"/>
       <c r="F816" s="1"/>
@@ -19405,13 +19413,13 @@
     <row r="817" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A817" s="1"/>
       <c r="B817" s="1" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E817" s="1"/>
       <c r="F817" s="1"/>
@@ -19429,13 +19437,13 @@
     <row r="819" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A819" s="1"/>
       <c r="B819" s="1" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="E819" s="1"/>
       <c r="F819" s="1"/>
@@ -19443,13 +19451,13 @@
     <row r="820" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A820" s="1"/>
       <c r="B820" s="1" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>456</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="E820" s="1"/>
       <c r="F820" s="1"/>
@@ -19457,13 +19465,13 @@
     <row r="821" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A821" s="1"/>
       <c r="B821" s="1" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>458</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="E821" s="1"/>
       <c r="F821" s="1"/>
@@ -19471,13 +19479,13 @@
     <row r="822" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A822" s="1"/>
       <c r="B822" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="E822" s="1"/>
       <c r="F822" s="1"/>
@@ -19485,13 +19493,13 @@
     <row r="823" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A823" s="1"/>
       <c r="B823" s="1" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="E823" s="1"/>
       <c r="F823" s="1"/>
@@ -19499,13 +19507,13 @@
     <row r="824" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A824" s="1"/>
       <c r="B824" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="E824" s="1"/>
       <c r="F824" s="1"/>
@@ -19513,13 +19521,13 @@
     <row r="825" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A825" s="1"/>
       <c r="B825" s="1" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="E825" s="1"/>
       <c r="F825" s="1"/>
@@ -19527,13 +19535,13 @@
     <row r="826" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A826" s="1"/>
       <c r="B826" s="1" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E826" s="1"/>
       <c r="F826" s="1"/>
@@ -19541,13 +19549,13 @@
     <row r="827" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A827" s="1"/>
       <c r="B827" s="1" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E827" s="1"/>
       <c r="F827" s="1"/>
@@ -19555,13 +19563,13 @@
     <row r="828" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A828" s="1"/>
       <c r="B828" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="E828" s="1"/>
       <c r="F828" s="1"/>
@@ -19569,13 +19577,13 @@
     <row r="829" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A829" s="1"/>
       <c r="B829" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="E829" s="1"/>
       <c r="F829" s="1"/>
@@ -19583,13 +19591,13 @@
     <row r="830" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A830" s="1"/>
       <c r="B830" s="1" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E830" s="1"/>
       <c r="F830" s="1"/>
@@ -19597,13 +19605,13 @@
     <row r="831" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A831" s="1"/>
       <c r="B831" s="1" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="E831" s="1"/>
       <c r="F831" s="1"/>
@@ -19611,13 +19619,13 @@
     <row r="832" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A832" s="1"/>
       <c r="B832" s="1" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="E832" s="1"/>
       <c r="F832" s="1"/>
@@ -19625,13 +19633,13 @@
     <row r="833" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A833" s="1"/>
       <c r="B833" s="1" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E833" s="1"/>
       <c r="F833" s="1"/>
@@ -19649,13 +19657,13 @@
     <row r="835" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E835" s="1"/>
       <c r="F835" s="1"/>
@@ -19663,13 +19671,13 @@
     <row r="836" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A836" s="1"/>
       <c r="B836" s="1" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="E836" s="1"/>
       <c r="F836" s="1"/>
@@ -19677,13 +19685,13 @@
     <row r="837" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A837" s="1"/>
       <c r="B837" s="1" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E837" s="1"/>
       <c r="F837" s="1"/>
@@ -19691,13 +19699,13 @@
     <row r="838" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A838" s="1"/>
       <c r="B838" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E838" s="1"/>
       <c r="F838" s="1"/>
@@ -19705,13 +19713,13 @@
     <row r="839" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A839" s="1"/>
       <c r="B839" s="1" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E839" s="1"/>
       <c r="F839" s="1"/>
@@ -19719,13 +19727,13 @@
     <row r="840" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A840" s="1"/>
       <c r="B840" s="1" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E840" s="1"/>
       <c r="F840" s="1"/>
@@ -19733,13 +19741,13 @@
     <row r="841" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A841" s="1"/>
       <c r="B841" s="1" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E841" s="1"/>
       <c r="F841" s="1"/>
@@ -19747,13 +19755,13 @@
     <row r="842" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A842" s="1"/>
       <c r="B842" s="1" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E842" s="1"/>
       <c r="F842" s="1"/>
@@ -19761,13 +19769,13 @@
     <row r="843" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A843" s="1"/>
       <c r="B843" s="1" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="E843" s="1"/>
       <c r="F843" s="1"/>
@@ -19775,13 +19783,13 @@
     <row r="844" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A844" s="1"/>
       <c r="B844" s="1" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E844" s="1"/>
       <c r="F844" s="1"/>
@@ -19789,13 +19797,13 @@
     <row r="845" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A845" s="1"/>
       <c r="B845" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E845" s="1"/>
       <c r="F845" s="1"/>
@@ -19803,13 +19811,13 @@
     <row r="846" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A846" s="1"/>
       <c r="B846" s="1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E846" s="1"/>
       <c r="F846" s="1"/>
@@ -19817,13 +19825,13 @@
     <row r="847" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A847" s="1"/>
       <c r="B847" s="1" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="E847" s="1"/>
       <c r="F847" s="1"/>
@@ -19831,13 +19839,13 @@
     <row r="848" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A848" s="1"/>
       <c r="B848" s="1" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="E848" s="1"/>
       <c r="F848" s="1"/>
@@ -19845,13 +19853,13 @@
     <row r="849" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A849" s="1"/>
       <c r="B849" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E849" s="1"/>
       <c r="F849" s="1"/>
@@ -19869,13 +19877,13 @@
     <row r="851" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A851" s="1"/>
       <c r="B851" s="1" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="E851" s="1"/>
       <c r="F851" s="1"/>
@@ -19883,13 +19891,13 @@
     <row r="852" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A852" s="1"/>
       <c r="B852" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E852" s="1"/>
       <c r="F852" s="1"/>
@@ -19897,13 +19905,13 @@
     <row r="853" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A853" s="1"/>
       <c r="B853" s="1" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
@@ -19911,13 +19919,13 @@
     <row r="854" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A854" s="1"/>
       <c r="B854" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E854" s="1"/>
       <c r="F854" s="1"/>
@@ -19925,13 +19933,13 @@
     <row r="855" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A855" s="1"/>
       <c r="B855" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="E855" s="1"/>
       <c r="F855" s="1"/>
@@ -19939,13 +19947,13 @@
     <row r="856" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A856" s="1"/>
       <c r="B856" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E856" s="1"/>
       <c r="F856" s="1"/>
@@ -19953,13 +19961,13 @@
     <row r="857" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A857" s="1"/>
       <c r="B857" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
@@ -19967,13 +19975,13 @@
     <row r="858" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A858" s="1"/>
       <c r="B858" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
@@ -19981,13 +19989,13 @@
     <row r="859" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A859" s="1"/>
       <c r="B859" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
@@ -19995,13 +20003,13 @@
     <row r="860" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A860" s="1"/>
       <c r="B860" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
@@ -20009,13 +20017,13 @@
     <row r="861" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A861" s="1"/>
       <c r="B861" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
@@ -20023,13 +20031,13 @@
     <row r="862" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A862" s="1"/>
       <c r="B862" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="E862" s="1"/>
       <c r="F862" s="1"/>
@@ -20037,13 +20045,13 @@
     <row r="863" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A863" s="1"/>
       <c r="B863" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
@@ -20051,13 +20059,13 @@
     <row r="864" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A864" s="1"/>
       <c r="B864" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E864" s="1"/>
       <c r="F864" s="1"/>
@@ -20065,13 +20073,13 @@
     <row r="865" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A865" s="1"/>
       <c r="B865" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="E865" s="1"/>
       <c r="F865" s="1"/>
@@ -20089,13 +20097,13 @@
     <row r="867" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A867" s="1"/>
       <c r="B867" s="1" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="E867" s="1"/>
       <c r="F867" s="1"/>
@@ -20103,10 +20111,10 @@
     <row r="868" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A868" s="1"/>
       <c r="B868" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D868" s="1" t="s">
         <v>670</v>
@@ -20117,13 +20125,13 @@
     <row r="869" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A869" s="1"/>
       <c r="B869" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E869" s="1"/>
       <c r="F869" s="1"/>
@@ -20131,13 +20139,13 @@
     <row r="870" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A870" s="1"/>
       <c r="B870" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E870" s="1"/>
       <c r="F870" s="1"/>
@@ -20145,13 +20153,13 @@
     <row r="871" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A871" s="1"/>
       <c r="B871" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E871" s="1"/>
       <c r="F871" s="1"/>
@@ -20159,10 +20167,10 @@
     <row r="872" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A872" s="1"/>
       <c r="B872" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D872" s="1" t="s">
         <v>1105</v>
@@ -20173,13 +20181,13 @@
     <row r="873" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A873" s="1"/>
       <c r="B873" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="E873" s="1"/>
       <c r="F873" s="1"/>
@@ -20187,13 +20195,13 @@
     <row r="874" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A874" s="1"/>
       <c r="B874" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E874" s="1"/>
       <c r="F874" s="1"/>
@@ -20201,13 +20209,13 @@
     <row r="875" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A875" s="1"/>
       <c r="B875" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="C875" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E875" s="1"/>
       <c r="F875" s="1"/>
@@ -20215,13 +20223,13 @@
     <row r="876" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A876" s="1"/>
       <c r="B876" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E876" s="1"/>
       <c r="F876" s="1"/>
@@ -20229,13 +20237,13 @@
     <row r="877" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A877" s="1"/>
       <c r="B877" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E877" s="1"/>
       <c r="F877" s="1"/>
@@ -20243,13 +20251,13 @@
     <row r="878" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A878" s="1"/>
       <c r="B878" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="C878" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="E878" s="1"/>
       <c r="F878" s="1"/>
@@ -20257,13 +20265,13 @@
     <row r="879" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A879" s="1"/>
       <c r="B879" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C879" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="E879" s="1"/>
       <c r="F879" s="1"/>
@@ -20271,13 +20279,13 @@
     <row r="880" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A880" s="1"/>
       <c r="B880" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="E880" s="1"/>
       <c r="F880" s="1"/>
@@ -20285,13 +20293,13 @@
     <row r="881" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A881" s="1"/>
       <c r="B881" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E881" s="1"/>
       <c r="F881" s="1"/>
@@ -20309,13 +20317,13 @@
     <row r="883" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A883" s="1"/>
       <c r="B883" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C883" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="E883" s="1"/>
       <c r="F883" s="1"/>
@@ -20323,13 +20331,13 @@
     <row r="884" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A884" s="1"/>
       <c r="B884" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="E884" s="1"/>
       <c r="F884" s="1"/>
@@ -20337,13 +20345,13 @@
     <row r="885" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A885" s="1"/>
       <c r="B885" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="E885" s="1"/>
       <c r="F885" s="1"/>
@@ -20351,13 +20359,13 @@
     <row r="886" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A886" s="1"/>
       <c r="B886" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="C886" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="E886" s="1"/>
       <c r="F886" s="1"/>
@@ -20365,13 +20373,13 @@
     <row r="887" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A887" s="1"/>
       <c r="B887" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="E887" s="1"/>
       <c r="F887" s="1"/>
@@ -20379,13 +20387,13 @@
     <row r="888" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A888" s="1"/>
       <c r="B888" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E888" s="1"/>
       <c r="F888" s="1"/>
@@ -20393,13 +20401,13 @@
     <row r="889" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="E889" s="1"/>
       <c r="F889" s="1"/>
@@ -20407,13 +20415,13 @@
     <row r="890" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E890" s="1"/>
       <c r="F890" s="1"/>
@@ -20421,13 +20429,13 @@
     <row r="891" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="E891" s="1"/>
       <c r="F891" s="1"/>
@@ -20435,13 +20443,13 @@
     <row r="892" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="E892" s="1"/>
       <c r="F892" s="1"/>
@@ -20449,13 +20457,13 @@
     <row r="893" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="E893" s="1"/>
       <c r="F893" s="1"/>
@@ -20463,7 +20471,7 @@
     <row r="894" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>1233</v>
@@ -20477,13 +20485,13 @@
     <row r="895" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="E895" s="1"/>
       <c r="F895" s="1"/>
@@ -20491,13 +20499,13 @@
     <row r="896" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="E896" s="1"/>
       <c r="F896" s="1"/>
@@ -20505,13 +20513,13 @@
     <row r="897" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="E897" s="1"/>
       <c r="F897" s="1"/>
@@ -20529,13 +20537,13 @@
     <row r="899" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="E899" s="1"/>
       <c r="F899" s="1"/>
@@ -20543,13 +20551,13 @@
     <row r="900" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="E900" s="1"/>
       <c r="F900" s="1"/>
@@ -20557,13 +20565,13 @@
     <row r="901" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="E901" s="1"/>
       <c r="F901" s="1"/>
@@ -20571,13 +20579,13 @@
     <row r="902" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="E902" s="1"/>
       <c r="F902" s="1"/>
@@ -20585,13 +20593,13 @@
     <row r="903" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="E903" s="1"/>
       <c r="F903" s="1"/>
@@ -20599,13 +20607,13 @@
     <row r="904" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="E904" s="1"/>
       <c r="F904" s="1"/>
@@ -20613,13 +20621,13 @@
     <row r="905" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="E905" s="1"/>
       <c r="F905" s="1"/>
@@ -20627,13 +20635,13 @@
     <row r="906" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A906" s="1"/>
       <c r="B906" s="1" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="E906" s="1"/>
       <c r="F906" s="1"/>
@@ -20641,13 +20649,13 @@
     <row r="907" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A907" s="1"/>
       <c r="B907" s="1" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="E907" s="1"/>
       <c r="F907" s="1"/>
@@ -20655,13 +20663,13 @@
     <row r="908" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A908" s="1"/>
       <c r="B908" s="1" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="E908" s="1"/>
       <c r="F908" s="1"/>
@@ -20669,13 +20677,13 @@
     <row r="909" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A909" s="1"/>
       <c r="B909" s="1" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="E909" s="1"/>
       <c r="F909" s="1"/>
@@ -20683,13 +20691,13 @@
     <row r="910" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A910" s="1"/>
       <c r="B910" s="1" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="E910" s="1"/>
       <c r="F910" s="1"/>
@@ -20697,13 +20705,13 @@
     <row r="911" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A911" s="1"/>
       <c r="B911" s="1" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="E911" s="1"/>
       <c r="F911" s="1"/>
@@ -20711,13 +20719,13 @@
     <row r="912" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A912" s="1"/>
       <c r="B912" s="1" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="E912" s="1"/>
       <c r="F912" s="1"/>
@@ -20725,10 +20733,10 @@
     <row r="913" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A913" s="1"/>
       <c r="B913" s="1" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="D913" s="1" t="s">
         <v>1750</v>
@@ -20749,13 +20757,13 @@
     <row r="915" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A915" s="1"/>
       <c r="B915" s="1" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="E915" s="1"/>
       <c r="F915" s="1"/>
@@ -20763,13 +20771,13 @@
     <row r="916" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A916" s="1"/>
       <c r="B916" s="1" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="E916" s="1"/>
       <c r="F916" s="1"/>
@@ -20777,13 +20785,13 @@
     <row r="917" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A917" s="1"/>
       <c r="B917" s="1" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="E917" s="1"/>
       <c r="F917" s="1"/>
@@ -20791,13 +20799,13 @@
     <row r="918" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A918" s="1"/>
       <c r="B918" s="1" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="E918" s="1"/>
       <c r="F918" s="1"/>
@@ -20805,13 +20813,13 @@
     <row r="919" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A919" s="1"/>
       <c r="B919" s="1" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="E919" s="1"/>
       <c r="F919" s="1"/>
@@ -20819,13 +20827,13 @@
     <row r="920" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A920" s="1"/>
       <c r="B920" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="E920" s="1"/>
       <c r="F920" s="1"/>
@@ -20833,13 +20841,13 @@
     <row r="921" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A921" s="1"/>
       <c r="B921" s="1" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="E921" s="1"/>
       <c r="F921" s="1"/>
@@ -20847,13 +20855,13 @@
     <row r="922" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A922" s="1"/>
       <c r="B922" s="1" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="E922" s="1"/>
       <c r="F922" s="1"/>
@@ -20861,13 +20869,13 @@
     <row r="923" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A923" s="1"/>
       <c r="B923" s="1" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="E923" s="1"/>
       <c r="F923" s="1"/>
@@ -20875,13 +20883,13 @@
     <row r="924" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A924" s="1"/>
       <c r="B924" s="1" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="E924" s="1"/>
       <c r="F924" s="1"/>
@@ -20889,13 +20897,13 @@
     <row r="925" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A925" s="1"/>
       <c r="B925" s="1" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="E925" s="1"/>
       <c r="F925" s="1"/>
@@ -20903,13 +20911,13 @@
     <row r="926" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A926" s="1"/>
       <c r="B926" s="1" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="E926" s="1"/>
       <c r="F926" s="1"/>
@@ -20917,13 +20925,13 @@
     <row r="927" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A927" s="1"/>
       <c r="B927" s="1" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="E927" s="1"/>
       <c r="F927" s="1"/>
@@ -20931,13 +20939,13 @@
     <row r="928" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A928" s="1"/>
       <c r="B928" s="1" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="E928" s="1"/>
       <c r="F928" s="1"/>
@@ -20945,13 +20953,13 @@
     <row r="929" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A929" s="1"/>
       <c r="B929" s="1" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="E929" s="1"/>
       <c r="F929" s="1"/>
@@ -20969,13 +20977,13 @@
     <row r="931" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A931" s="1"/>
       <c r="B931" s="1" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="E931" s="1"/>
       <c r="F931" s="1"/>
@@ -20983,13 +20991,13 @@
     <row r="932" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A932" s="1"/>
       <c r="B932" s="1" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="E932" s="1"/>
       <c r="F932" s="1"/>
@@ -20997,13 +21005,13 @@
     <row r="933" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A933" s="1"/>
       <c r="B933" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E933" s="1"/>
       <c r="F933" s="1"/>
@@ -21011,13 +21019,13 @@
     <row r="934" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A934" s="1"/>
       <c r="B934" s="1" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="E934" s="1"/>
       <c r="F934" s="1"/>
@@ -21025,13 +21033,13 @@
     <row r="935" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A935" s="1"/>
       <c r="B935" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="E935" s="1"/>
       <c r="F935" s="1"/>
@@ -21039,13 +21047,13 @@
     <row r="936" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A936" s="1"/>
       <c r="B936" s="1" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E936" s="1"/>
       <c r="F936" s="1"/>
@@ -21053,13 +21061,13 @@
     <row r="937" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A937" s="1"/>
       <c r="B937" s="1" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="E937" s="1"/>
       <c r="F937" s="1"/>
@@ -21067,13 +21075,13 @@
     <row r="938" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A938" s="1"/>
       <c r="B938" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="E938" s="1"/>
       <c r="F938" s="1"/>
@@ -21081,13 +21089,13 @@
     <row r="939" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A939" s="1"/>
       <c r="B939" s="1" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="E939" s="1"/>
       <c r="F939" s="1"/>
@@ -21095,13 +21103,13 @@
     <row r="940" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A940" s="1"/>
       <c r="B940" s="1" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="E940" s="1"/>
       <c r="F940" s="1"/>
@@ -21109,13 +21117,13 @@
     <row r="941" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A941" s="1"/>
       <c r="B941" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E941" s="1"/>
       <c r="F941" s="1"/>
@@ -21123,13 +21131,13 @@
     <row r="942" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A942" s="1"/>
       <c r="B942" s="1" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="E942" s="1"/>
       <c r="F942" s="1"/>
@@ -21137,13 +21145,13 @@
     <row r="943" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A943" s="1"/>
       <c r="B943" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="E943" s="1"/>
       <c r="F943" s="1"/>
@@ -21151,13 +21159,13 @@
     <row r="944" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A944" s="1"/>
       <c r="B944" s="1" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E944" s="1"/>
       <c r="F944" s="1"/>
@@ -21165,13 +21173,13 @@
     <row r="945" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A945" s="1"/>
       <c r="B945" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="E945" s="1"/>
       <c r="F945" s="1"/>
@@ -21179,13 +21187,13 @@
     <row r="946" spans="1:6" ht="19.8" x14ac:dyDescent="0.6">
       <c r="A946" s="1"/>
       <c r="B946" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="E946" s="1"/>
       <c r="F946" s="1"/>
